--- a/legendre_out/DATA/a1/a1SplinePoints.xlsx
+++ b/legendre_out/DATA/a1/a1SplinePoints.xlsx
@@ -386,7 +386,7 @@
         <v>3.434374559103622</v>
       </c>
       <c r="C2" t="n">
-        <v>7.075859936502921e-06</v>
+        <v>6.948602549925835e-06</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         <v>3.434713025603331</v>
       </c>
       <c r="C3" t="n">
-        <v>7.064250104153513e-06</v>
+        <v>7.131298769967611e-06</v>
       </c>
     </row>
     <row r="4">
@@ -408,7 +408,7 @@
         <v>3.435051492103041</v>
       </c>
       <c r="C4" t="n">
-        <v>7.124664295012958e-06</v>
+        <v>7.340930475777575e-06</v>
       </c>
     </row>
     <row r="5">
@@ -419,7 +419,7 @@
         <v>3.43538995860275</v>
       </c>
       <c r="C5" t="n">
-        <v>7.251816506093997e-06</v>
+        <v>7.576123715217564e-06</v>
       </c>
     </row>
     <row r="6">
@@ -430,7 +430,7 @@
         <v>3.43572842510246</v>
       </c>
       <c r="C6" t="n">
-        <v>7.440420734409573e-06</v>
+        <v>7.835504536150216e-06</v>
       </c>
     </row>
     <row r="7">
@@ -441,7 +441,7 @@
         <v>3.436066891602169</v>
       </c>
       <c r="C7" t="n">
-        <v>7.685190976972587e-06</v>
+        <v>8.117698986437916e-06</v>
       </c>
     </row>
     <row r="8">
@@ -452,7 +452,7 @@
         <v>3.436405358101879</v>
       </c>
       <c r="C8" t="n">
-        <v>7.98084123079637e-06</v>
+        <v>8.421333113943462e-06</v>
       </c>
     </row>
     <row r="9">
@@ -463,7 +463,7 @@
         <v>3.436743824601588</v>
       </c>
       <c r="C9" t="n">
-        <v>8.322085492893048e-06</v>
+        <v>8.745032966528443e-06</v>
       </c>
     </row>
     <row r="10">
@@ -474,7 +474,7 @@
         <v>3.437082291101297</v>
       </c>
       <c r="C10" t="n">
-        <v>8.703637760275879e-06</v>
+        <v>9.087424592055619e-06</v>
       </c>
     </row>
     <row r="11">
@@ -485,7 +485,7 @@
         <v>3.437420757601007</v>
       </c>
       <c r="C11" t="n">
-        <v>9.120212029958341e-06</v>
+        <v>9.447134038387865e-06</v>
       </c>
     </row>
     <row r="12">
@@ -496,7 +496,7 @@
         <v>3.437759224100716</v>
       </c>
       <c r="C12" t="n">
-        <v>9.56652229895224e-06</v>
+        <v>9.822787353386618e-06</v>
       </c>
     </row>
     <row r="13">
@@ -507,7 +507,7 @@
         <v>3.438097690600425</v>
       </c>
       <c r="C13" t="n">
-        <v>1.003728256427101e-05</v>
+        <v>1.021301058491472e-05</v>
       </c>
     </row>
     <row r="14">
@@ -518,7 +518,7 @@
         <v>3.438436157100135</v>
       </c>
       <c r="C14" t="n">
-        <v>1.05272068229282e-05</v>
+        <v>1.06164297808351e-05</v>
       </c>
     </row>
     <row r="15">
@@ -529,7 +529,7 @@
         <v>3.438774623599844</v>
       </c>
       <c r="C15" t="n">
-        <v>1.103100907193544e-05</v>
+        <v>1.103167098900908e-05</v>
       </c>
     </row>
     <row r="16">
@@ -540,7 +540,7 @@
         <v>3.439113090099553</v>
       </c>
       <c r="C16" t="n">
-        <v>1.154340330830626e-05</v>
+        <v>1.145736025729955e-05</v>
       </c>
     </row>
     <row r="17">
@@ -551,7 +551,7 @@
         <v>3.439451556599263</v>
       </c>
       <c r="C17" t="n">
-        <v>1.205910352905358e-05</v>
+        <v>1.189212363356892e-05</v>
       </c>
     </row>
     <row r="18">
@@ -562,7 +562,7 @@
         <v>3.439790023098972</v>
       </c>
       <c r="C18" t="n">
-        <v>1.257282373119095e-05</v>
+        <v>1.233458716568014e-05</v>
       </c>
     </row>
     <row r="19">
@@ -573,7 +573,7 @@
         <v>3.440128489598682</v>
       </c>
       <c r="C19" t="n">
-        <v>1.307927791172995e-05</v>
+        <v>1.278337690149445e-05</v>
       </c>
     </row>
     <row r="20">
@@ -584,7 +584,7 @@
         <v>3.440466956098391</v>
       </c>
       <c r="C20" t="n">
-        <v>1.357332221976144e-05</v>
+        <v>1.323711570156782e-05</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>3.440805422598101</v>
       </c>
       <c r="C21" t="n">
-        <v>1.405267144560124e-05</v>
+        <v>1.369436233054372e-05</v>
       </c>
     </row>
     <row r="22">
@@ -606,7 +606,7 @@
         <v>3.44114388909781</v>
       </c>
       <c r="C22" t="n">
-        <v>1.451768784013028e-05</v>
+        <v>1.415361619220402e-05</v>
       </c>
     </row>
     <row r="23">
@@ -617,7 +617,7 @@
         <v>3.441482355597519</v>
       </c>
       <c r="C23" t="n">
-        <v>1.496883349217868e-05</v>
+        <v>1.461337445178481e-05</v>
       </c>
     </row>
     <row r="24">
@@ -628,7 +628,7 @@
         <v>3.441820822097228</v>
       </c>
       <c r="C24" t="n">
-        <v>1.54065704905759e-05</v>
+        <v>1.507213427452162e-05</v>
       </c>
     </row>
     <row r="25">
@@ -639,7 +639,7 @@
         <v>3.442159288596938</v>
       </c>
       <c r="C25" t="n">
-        <v>1.583136092415197e-05</v>
+        <v>1.552839282565053e-05</v>
       </c>
     </row>
     <row r="26">
@@ -650,7 +650,7 @@
         <v>3.442497755096647</v>
       </c>
       <c r="C26" t="n">
-        <v>1.624366688173525e-05</v>
+        <v>1.598064727040587e-05</v>
       </c>
     </row>
     <row r="27">
@@ -661,7 +661,7 @@
         <v>3.442836221596357</v>
       </c>
       <c r="C27" t="n">
-        <v>1.664395045215576e-05</v>
+        <v>1.642739477402373e-05</v>
       </c>
     </row>
     <row r="28">
@@ -672,7 +672,7 @@
         <v>3.443174688096066</v>
       </c>
       <c r="C28" t="n">
-        <v>1.70326737242435e-05</v>
+        <v>1.68671325017402e-05</v>
       </c>
     </row>
     <row r="29">
@@ -683,7 +683,7 @@
         <v>3.443513154595776</v>
       </c>
       <c r="C29" t="n">
-        <v>1.741029878682691e-05</v>
+        <v>1.729835761878963e-05</v>
       </c>
     </row>
     <row r="30">
@@ -694,7 +694,7 @@
         <v>3.443851621095485</v>
       </c>
       <c r="C30" t="n">
-        <v>1.777728772873598e-05</v>
+        <v>1.77195672904081e-05</v>
       </c>
     </row>
     <row r="31">
@@ -705,7 +705,7 @@
         <v>3.444190087595194</v>
       </c>
       <c r="C31" t="n">
-        <v>1.813410263880018e-05</v>
+        <v>1.812925868183113e-05</v>
       </c>
     </row>
     <row r="32">
@@ -716,7 +716,7 @@
         <v>3.444528554094904</v>
       </c>
       <c r="C32" t="n">
-        <v>1.848120560584945e-05</v>
+        <v>1.852592895829473e-05</v>
       </c>
     </row>
     <row r="33">
@@ -727,7 +727,7 @@
         <v>3.444867020594613</v>
       </c>
       <c r="C33" t="n">
-        <v>1.881905871871232e-05</v>
+        <v>1.890807528503337e-05</v>
       </c>
     </row>
     <row r="34">
@@ -738,7 +738,7 @@
         <v>3.445205487094322</v>
       </c>
       <c r="C34" t="n">
-        <v>1.914812406621875e-05</v>
+        <v>1.927419482728308e-05</v>
       </c>
     </row>
     <row r="35">
@@ -749,7 +749,7 @@
         <v>3.445543953594032</v>
       </c>
       <c r="C35" t="n">
-        <v>1.946886373719862e-05</v>
+        <v>1.962278475027982e-05</v>
       </c>
     </row>
     <row r="36">
@@ -760,7 +760,7 @@
         <v>3.445882420093741</v>
       </c>
       <c r="C36" t="n">
-        <v>1.978151801502832e-05</v>
+        <v>1.995242469671107e-05</v>
       </c>
     </row>
     <row r="37">
@@ -771,7 +771,7 @@
         <v>3.44622088659345</v>
       </c>
       <c r="C37" t="n">
-        <v>2.008484269698784e-05</v>
+        <v>2.026224630936738e-05</v>
       </c>
     </row>
     <row r="38">
@@ -782,7 +782,7 @@
         <v>3.44655935309316</v>
       </c>
       <c r="C38" t="n">
-        <v>2.037698431535038e-05</v>
+        <v>2.055160778374739e-05</v>
       </c>
     </row>
     <row r="39">
@@ -793,7 +793,7 @@
         <v>3.446897819592869</v>
       </c>
       <c r="C39" t="n">
-        <v>2.065608754478053e-05</v>
+        <v>2.081986800609235e-05</v>
       </c>
     </row>
     <row r="40">
@@ -804,7 +804,7 @@
         <v>3.447236286092579</v>
       </c>
       <c r="C40" t="n">
-        <v>2.092029705994408e-05</v>
+        <v>2.106638586264467e-05</v>
       </c>
     </row>
     <row r="41">
@@ -815,7 +815,7 @@
         <v>3.447574752592288</v>
       </c>
       <c r="C41" t="n">
-        <v>2.116775753550641e-05</v>
+        <v>2.129052023964638e-05</v>
       </c>
     </row>
     <row r="42">
@@ -826,7 +826,7 @@
         <v>3.447913219091998</v>
       </c>
       <c r="C42" t="n">
-        <v>2.139661364613317e-05</v>
+        <v>2.149163002333972e-05</v>
       </c>
     </row>
     <row r="43">
@@ -837,7 +837,7 @@
         <v>3.448251685591707</v>
       </c>
       <c r="C43" t="n">
-        <v>2.160501006648914e-05</v>
+        <v>2.16690740999662e-05</v>
       </c>
     </row>
     <row r="44">
@@ -848,7 +848,7 @@
         <v>3.448590152091416</v>
       </c>
       <c r="C44" t="n">
-        <v>2.179109147124001e-05</v>
+        <v>2.182221135576809e-05</v>
       </c>
     </row>
     <row r="45">
@@ -859,7 +859,7 @@
         <v>3.448928618591126</v>
       </c>
       <c r="C45" t="n">
-        <v>2.195300253505138e-05</v>
+        <v>2.195040067698758e-05</v>
       </c>
     </row>
     <row r="46">
@@ -870,7 +870,7 @@
         <v>3.449267085090835</v>
       </c>
       <c r="C46" t="n">
-        <v>2.208888793258818e-05</v>
+        <v>2.205300094986634e-05</v>
       </c>
     </row>
     <row r="47">
@@ -881,7 +881,7 @@
         <v>3.449605551590544</v>
       </c>
       <c r="C47" t="n">
-        <v>2.219689233851601e-05</v>
+        <v>2.212937106064656e-05</v>
       </c>
     </row>
     <row r="48">
@@ -892,7 +892,7 @@
         <v>3.449944018090254</v>
       </c>
       <c r="C48" t="n">
-        <v>2.227516042750027e-05</v>
+        <v>2.217886989557027e-05</v>
       </c>
     </row>
     <row r="49">
@@ -903,7 +903,7 @@
         <v>3.450282484589963</v>
       </c>
       <c r="C49" t="n">
-        <v>2.232183687420635e-05</v>
+        <v>2.220085634087949e-05</v>
       </c>
     </row>
     <row r="50">
@@ -914,7 +914,7 @@
         <v>3.450620951089673</v>
       </c>
       <c r="C50" t="n">
-        <v>2.233506635329953e-05</v>
+        <v>2.219468928281619e-05</v>
       </c>
     </row>
     <row r="51">
@@ -925,7 +925,7 @@
         <v>3.450959417589382</v>
       </c>
       <c r="C51" t="n">
-        <v>2.231326480052171e-05</v>
+        <v>2.215992341302528e-05</v>
       </c>
     </row>
     <row r="52">
@@ -936,7 +936,7 @@
         <v>3.451297884089092</v>
       </c>
       <c r="C52" t="n">
-        <v>2.225833547916988e-05</v>
+        <v>2.209863069391475e-05</v>
       </c>
     </row>
     <row r="53">
@@ -947,7 +947,7 @@
         <v>3.451636350588801</v>
       </c>
       <c r="C53" t="n">
-        <v>2.217460096947592e-05</v>
+        <v>2.201462943253349e-05</v>
       </c>
     </row>
     <row r="54">
@@ -958,7 +958,7 @@
         <v>3.45197481708851</v>
       </c>
       <c r="C54" t="n">
-        <v>2.206643251757525e-05</v>
+        <v>2.191177306462247e-05</v>
       </c>
     </row>
     <row r="55">
@@ -969,7 +969,7 @@
         <v>3.45231328358822</v>
       </c>
       <c r="C55" t="n">
-        <v>2.193820136960316e-05</v>
+        <v>2.179391502592256e-05</v>
       </c>
     </row>
     <row r="56">
@@ -980,7 +980,7 @@
         <v>3.452651750087929</v>
       </c>
       <c r="C56" t="n">
-        <v>2.179427877169548e-05</v>
+        <v>2.166490875217513e-05</v>
       </c>
     </row>
     <row r="57">
@@ -991,7 +991,7 @@
         <v>3.452990216587638</v>
       </c>
       <c r="C57" t="n">
-        <v>2.163903596998753e-05</v>
+        <v>2.152860767912107e-05</v>
       </c>
     </row>
     <row r="58">
@@ -1002,7 +1002,7 @@
         <v>3.453328683087348</v>
       </c>
       <c r="C58" t="n">
-        <v>2.147684421061477e-05</v>
+        <v>2.138886524250143e-05</v>
       </c>
     </row>
     <row r="59">
@@ -1013,7 +1013,7 @@
         <v>3.453667149587057</v>
       </c>
       <c r="C59" t="n">
-        <v>2.131207473971248e-05</v>
+        <v>2.124953487805704e-05</v>
       </c>
     </row>
     <row r="60">
@@ -1024,7 +1024,7 @@
         <v>3.454005616086766</v>
       </c>
       <c r="C60" t="n">
-        <v>2.114909880341656e-05</v>
+        <v>2.111447002152934e-05</v>
       </c>
     </row>
     <row r="61">
@@ -1035,7 +1035,7 @@
         <v>3.454344082586476</v>
       </c>
       <c r="C61" t="n">
-        <v>2.099228764786228e-05</v>
+        <v>2.098752410865918e-05</v>
       </c>
     </row>
     <row r="62">
@@ -1046,7 +1046,7 @@
         <v>3.454682549086185</v>
       </c>
       <c r="C62" t="n">
-        <v>2.084601251918491e-05</v>
+        <v>2.087255057518744e-05</v>
       </c>
     </row>
     <row r="63">
@@ -1057,7 +1057,7 @@
         <v>3.455021015585895</v>
       </c>
       <c r="C63" t="n">
-        <v>2.071451883841991e-05</v>
+        <v>2.077328003793658e-05</v>
       </c>
     </row>
     <row r="64">
@@ -1068,7 +1068,7 @@
         <v>3.455359482085604</v>
       </c>
       <c r="C64" t="n">
-        <v>2.059895754471051e-05</v>
+        <v>2.069042256441675e-05</v>
       </c>
     </row>
     <row r="65">
@@ -1079,7 +1079,7 @@
         <v>3.455697948585313</v>
       </c>
       <c r="C65" t="n">
-        <v>2.049726942678311e-05</v>
+        <v>2.06215547678242e-05</v>
       </c>
     </row>
     <row r="66">
@@ -1090,7 +1090,7 @@
         <v>3.456036415085023</v>
       </c>
       <c r="C66" t="n">
-        <v>2.040724630479186e-05</v>
+        <v>2.056410785190249e-05</v>
       </c>
     </row>
     <row r="67">
@@ -1101,7 +1101,7 @@
         <v>3.456374881584732</v>
       </c>
       <c r="C67" t="n">
-        <v>2.032667999889122e-05</v>
+        <v>2.051551302039534e-05</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         <v>3.456713348084441</v>
       </c>
       <c r="C68" t="n">
-        <v>2.025336232923533e-05</v>
+        <v>2.047320147704629e-05</v>
       </c>
     </row>
     <row r="69">
@@ -1123,7 +1123,7 @@
         <v>3.457051814584151</v>
       </c>
       <c r="C69" t="n">
-        <v>2.018508511597833e-05</v>
+        <v>2.04346044255989e-05</v>
       </c>
     </row>
     <row r="70">
@@ -1134,7 +1134,7 @@
         <v>3.45739028108386</v>
       </c>
       <c r="C70" t="n">
-        <v>2.011964017927464e-05</v>
+        <v>2.039715306979685e-05</v>
       </c>
     </row>
     <row r="71">
@@ -1145,7 +1145,7 @@
         <v>3.45772874758357</v>
       </c>
       <c r="C71" t="n">
-        <v>2.005481933927843e-05</v>
+        <v>2.035827861338371e-05</v>
       </c>
     </row>
     <row r="72">
@@ -1156,7 +1156,7 @@
         <v>3.458067214083279</v>
       </c>
       <c r="C72" t="n">
-        <v>1.998841441614383e-05</v>
+        <v>2.031541226010301e-05</v>
       </c>
     </row>
     <row r="73">
@@ -1167,7 +1167,7 @@
         <v>3.458405680582989</v>
       </c>
       <c r="C73" t="n">
-        <v>1.991821723002528e-05</v>
+        <v>2.026598521369847e-05</v>
       </c>
     </row>
     <row r="74">
@@ -1178,7 +1178,7 @@
         <v>3.458744147082698</v>
       </c>
       <c r="C74" t="n">
-        <v>1.984201960107692e-05</v>
+        <v>2.020742867791364e-05</v>
       </c>
     </row>
     <row r="75">
@@ -1189,7 +1189,7 @@
         <v>3.459082613582407</v>
       </c>
       <c r="C75" t="n">
-        <v>1.9757613349453e-05</v>
+        <v>2.013717385649212e-05</v>
       </c>
     </row>
     <row r="76">
@@ -1200,7 +1200,7 @@
         <v>3.459421080082117</v>
       </c>
       <c r="C76" t="n">
-        <v>1.966279029530763e-05</v>
+        <v>2.005265195317738e-05</v>
       </c>
     </row>
     <row r="77">
@@ -1211,7 +1211,7 @@
         <v>3.459759546581826</v>
       </c>
       <c r="C77" t="n">
-        <v>1.955534225879531e-05</v>
+        <v>1.995129417171327e-05</v>
       </c>
     </row>
     <row r="78">
@@ -1222,7 +1222,7 @@
         <v>3.460098013081535</v>
       </c>
       <c r="C78" t="n">
-        <v>1.943306106007015e-05</v>
+        <v>1.983053171584326e-05</v>
       </c>
     </row>
     <row r="79">
@@ -1233,7 +1233,7 @@
         <v>3.460436479581245</v>
       </c>
       <c r="C79" t="n">
-        <v>1.929373851928621e-05</v>
+        <v>1.968779578931077e-05</v>
       </c>
     </row>
     <row r="80">
@@ -1244,7 +1244,7 @@
         <v>3.460774946080954</v>
       </c>
       <c r="C80" t="n">
-        <v>1.91351664565981e-05</v>
+        <v>1.952051759585978e-05</v>
       </c>
     </row>
     <row r="81">
@@ -1255,7 +1255,7 @@
         <v>3.461113412580664</v>
       </c>
       <c r="C81" t="n">
-        <v>1.895513669215988e-05</v>
+        <v>1.932612833923369e-05</v>
       </c>
     </row>
     <row r="82">
@@ -1266,7 +1266,7 @@
         <v>3.461451879080373</v>
       </c>
       <c r="C82" t="n">
-        <v>1.875144104612581e-05</v>
+        <v>1.910205922317614e-05</v>
       </c>
     </row>
     <row r="83">
@@ -1277,7 +1277,7 @@
         <v>3.461790345580082</v>
       </c>
       <c r="C83" t="n">
-        <v>1.85218713386498e-05</v>
+        <v>1.884574145143035e-05</v>
       </c>
     </row>
     <row r="84">
@@ -1288,7 +1288,7 @@
         <v>3.462128812079792</v>
       </c>
       <c r="C84" t="n">
-        <v>1.82642193898867e-05</v>
+        <v>1.85546062277406e-05</v>
       </c>
     </row>
     <row r="85">
@@ -1299,7 +1299,7 @@
         <v>3.462467278579501</v>
       </c>
       <c r="C85" t="n">
-        <v>1.797627701999048e-05</v>
+        <v>1.822608475585017e-05</v>
       </c>
     </row>
     <row r="86">
@@ -1310,7 +1310,7 @@
         <v>3.462805745079211</v>
       </c>
       <c r="C86" t="n">
-        <v>1.765583604911492e-05</v>
+        <v>1.785760823950217e-05</v>
       </c>
     </row>
     <row r="87">
@@ -1321,7 +1321,7 @@
         <v>3.46314421157892</v>
       </c>
       <c r="C87" t="n">
-        <v>1.730068829741513e-05</v>
+        <v>1.744660788244115e-05</v>
       </c>
     </row>
     <row r="88">
@@ -1332,7 +1332,7 @@
         <v>3.463482678078629</v>
       </c>
       <c r="C88" t="n">
-        <v>1.690862558504493e-05</v>
+        <v>1.699051488841027e-05</v>
       </c>
     </row>
     <row r="89">
@@ -1343,7 +1343,7 @@
         <v>3.463821144578338</v>
       </c>
       <c r="C89" t="n">
-        <v>1.647933924951783e-05</v>
+        <v>1.6489398193064e-05</v>
       </c>
     </row>
     <row r="90">
@@ -1354,7 +1354,7 @@
         <v>3.464159611078048</v>
       </c>
       <c r="C90" t="n">
-        <v>1.602239459073466e-05</v>
+        <v>1.595703803906288e-05</v>
       </c>
     </row>
     <row r="91">
@@ -1365,7 +1365,7 @@
         <v>3.464498077577757</v>
       </c>
       <c r="C91" t="n">
-        <v>1.555055517813518e-05</v>
+        <v>1.541165589071806e-05</v>
       </c>
     </row>
     <row r="92">
@@ -1376,7 +1376,7 @@
         <v>3.464836544077467</v>
       </c>
       <c r="C92" t="n">
-        <v>1.507658622203186e-05</v>
+        <v>1.487147549091057e-05</v>
       </c>
     </row>
     <row r="93">
@@ -1387,7 +1387,7 @@
         <v>3.465175010577176</v>
       </c>
       <c r="C93" t="n">
-        <v>1.461325293273715e-05</v>
+        <v>1.435472058252149e-05</v>
       </c>
     </row>
     <row r="94">
@@ -1398,7 +1398,7 @@
         <v>3.465513477076886</v>
       </c>
       <c r="C94" t="n">
-        <v>1.417332052056534e-05</v>
+        <v>1.387961490843391e-05</v>
       </c>
     </row>
     <row r="95">
@@ -1409,7 +1409,7 @@
         <v>3.465851943576595</v>
       </c>
       <c r="C95" t="n">
-        <v>1.376955419582886e-05</v>
+        <v>1.346438221152886e-05</v>
       </c>
     </row>
     <row r="96">
@@ -1420,7 +1420,7 @@
         <v>3.466190410076305</v>
       </c>
       <c r="C96" t="n">
-        <v>1.341471916884034e-05</v>
+        <v>1.312724623468768e-05</v>
       </c>
     </row>
     <row r="97">
@@ -1431,7 +1431,7 @@
         <v>3.466528876576014</v>
       </c>
       <c r="C97" t="n">
-        <v>1.312158064991378e-05</v>
+        <v>1.288643072079299e-05</v>
       </c>
     </row>
     <row r="98">
@@ -1442,7 +1442,7 @@
         <v>3.466867343075723</v>
       </c>
       <c r="C98" t="n">
-        <v>1.290290384936172e-05</v>
+        <v>1.276015941272603e-05</v>
       </c>
     </row>
     <row r="99">
@@ -1453,7 +1453,7 @@
         <v>3.467205809575432</v>
       </c>
       <c r="C99" t="n">
-        <v>1.277145397749723e-05</v>
+        <v>1.27666560533685e-05</v>
       </c>
     </row>
     <row r="100">
@@ -1464,7 +1464,7 @@
         <v>3.467544276075142</v>
       </c>
       <c r="C100" t="n">
-        <v>1.273999624463338e-05</v>
+        <v>1.292414438560245e-05</v>
       </c>
     </row>
     <row r="101">
@@ -1475,7 +1475,7 @@
         <v>3.467882742574851</v>
       </c>
       <c r="C101" t="n">
-        <v>1.282129586108332e-05</v>
+        <v>1.325084815230921e-05</v>
       </c>
     </row>
     <row r="102">
@@ -1486,7 +1486,7 @@
         <v>3.686414373908955</v>
       </c>
       <c r="C102" t="n">
-        <v>8.637009099410057e-06</v>
+        <v>8.689361141507254e-06</v>
       </c>
     </row>
     <row r="103">
@@ -1497,7 +1497,7 @@
         <v>3.687400208962555</v>
       </c>
       <c r="C103" t="n">
-        <v>1.121402653536691e-05</v>
+        <v>1.131630382271799e-05</v>
       </c>
     </row>
     <row r="104">
@@ -1508,7 +1508,7 @@
         <v>3.688386044016154</v>
       </c>
       <c r="C104" t="n">
-        <v>1.074436827647437e-05</v>
+        <v>1.100755707531937e-05</v>
       </c>
     </row>
     <row r="105">
@@ -1519,7 +1519,7 @@
         <v>3.689371879069753</v>
       </c>
       <c r="C105" t="n">
-        <v>1.485048473272629e-05</v>
+        <v>1.496083003736073e-05</v>
       </c>
     </row>
     <row r="106">
@@ -1530,7 +1530,7 @@
         <v>3.690357714123353</v>
       </c>
       <c r="C106" t="n">
-        <v>1.875364939123045e-05</v>
+        <v>1.866824288451018e-05</v>
       </c>
     </row>
     <row r="107">
@@ -1541,7 +1541,7 @@
         <v>3.691343549176952</v>
       </c>
       <c r="C107" t="n">
-        <v>1.921218234042186e-05</v>
+        <v>1.913684905691352e-05</v>
       </c>
     </row>
     <row r="108">
@@ -1552,7 +1552,7 @@
         <v>3.692329384230551</v>
       </c>
       <c r="C108" t="n">
-        <v>3.173425754421287e-05</v>
+        <v>3.185380358404518e-05</v>
       </c>
     </row>
     <row r="109">
@@ -1563,7 +1563,7 @@
         <v>3.693315219284151</v>
       </c>
       <c r="C109" t="n">
-        <v>8.435411500793374e-05</v>
+        <v>8.465209187957256e-05</v>
       </c>
     </row>
     <row r="110">
@@ -1574,7 +1574,7 @@
         <v>3.69430105433775</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0001708299056837257</v>
+        <v>0.0001712884319636668</v>
       </c>
     </row>
     <row r="111">
@@ -1585,7 +1585,7 @@
         <v>3.695286889391349</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0002136235872798676</v>
+        <v>0.0002144235414407913</v>
       </c>
     </row>
     <row r="112">
@@ -1596,7 +1596,7 @@
         <v>3.696272724444948</v>
       </c>
       <c r="C112" t="n">
-        <v>0.0002269567411356591</v>
+        <v>0.0002274410562542503</v>
       </c>
     </row>
     <row r="113">
@@ -1607,7 +1607,7 @@
         <v>3.697258559498548</v>
       </c>
       <c r="C113" t="n">
-        <v>0.0002289507915379196</v>
+        <v>0.000228553343260549</v>
       </c>
     </row>
     <row r="114">
@@ -1618,7 +1618,7 @@
         <v>3.698244394552147</v>
       </c>
       <c r="C114" t="n">
-        <v>0.0002222776192482354</v>
+        <v>0.0002216971560750182</v>
       </c>
     </row>
     <row r="115">
@@ -1629,7 +1629,7 @@
         <v>3.699230229605746</v>
       </c>
       <c r="C115" t="n">
-        <v>0.0002120174891932409</v>
+        <v>0.0002119469107241121</v>
       </c>
     </row>
     <row r="116">
@@ -1640,7 +1640,7 @@
         <v>3.700216064659346</v>
       </c>
       <c r="C116" t="n">
-        <v>0.0002042785452989739</v>
+        <v>0.0002046415124558132</v>
       </c>
     </row>
     <row r="117">
@@ -1651,7 +1651,7 @@
         <v>3.701201899712945</v>
       </c>
       <c r="C117" t="n">
-        <v>0.0001997362206261254</v>
+        <v>0.0001998673971585403</v>
       </c>
     </row>
     <row r="118">
@@ -1662,7 +1662,7 @@
         <v>3.702187734766544</v>
       </c>
       <c r="C118" t="n">
-        <v>0.0001983099765652846</v>
+        <v>0.0001977215434208424</v>
       </c>
     </row>
     <row r="119">
@@ -1673,7 +1673,7 @@
         <v>3.703173569820144</v>
       </c>
       <c r="C119" t="n">
-        <v>0.0002028828982166794</v>
+        <v>0.0002030647924665722</v>
       </c>
     </row>
     <row r="120">
@@ -1684,7 +1684,7 @@
         <v>3.704159404873743</v>
       </c>
       <c r="C120" t="n">
-        <v>0.000199287680180803</v>
+        <v>0.00019979178834987</v>
       </c>
     </row>
     <row r="121">
@@ -1695,7 +1695,7 @@
         <v>3.705145239927342</v>
       </c>
       <c r="C121" t="n">
-        <v>0.0001951140413191051</v>
+        <v>0.0001948498418287988</v>
       </c>
     </row>
     <row r="122">
@@ -1706,7 +1706,7 @@
         <v>3.706131074980942</v>
       </c>
       <c r="C122" t="n">
-        <v>0.0001983035186585378</v>
+        <v>0.0001978107565054502</v>
       </c>
     </row>
     <row r="123">
@@ -1717,7 +1717,7 @@
         <v>3.707116910034541</v>
       </c>
       <c r="C123" t="n">
-        <v>0.0001981687069577497</v>
+        <v>0.0001977821890618044</v>
       </c>
     </row>
     <row r="124">
@@ -1728,7 +1728,7 @@
         <v>3.70810274508814</v>
       </c>
       <c r="C124" t="n">
-        <v>0.0001956407673727434</v>
+        <v>0.000195458277854137</v>
       </c>
     </row>
     <row r="125">
@@ -1739,7 +1739,7 @@
         <v>3.709088580141739</v>
       </c>
       <c r="C125" t="n">
-        <v>0.0001931271960218539</v>
+        <v>0.0001930906970705354</v>
       </c>
     </row>
     <row r="126">
@@ -1750,7 +1750,7 @@
         <v>3.710074415195339</v>
       </c>
       <c r="C126" t="n">
-        <v>0.0001903031107461844</v>
+        <v>0.0001903485868828663</v>
       </c>
     </row>
     <row r="127">
@@ -1761,7 +1761,7 @@
         <v>3.711060250248938</v>
       </c>
       <c r="C127" t="n">
-        <v>0.0001865476236170595</v>
+        <v>0.0001866213147185633</v>
       </c>
     </row>
     <row r="128">
@@ -1772,7 +1772,7 @@
         <v>3.712046085302537</v>
       </c>
       <c r="C128" t="n">
-        <v>0.0001812509312598293</v>
+        <v>0.0001813098208513724</v>
       </c>
     </row>
     <row r="129">
@@ -1783,7 +1783,7 @@
         <v>3.713031920356137</v>
       </c>
       <c r="C129" t="n">
-        <v>0.000173916328719287</v>
+        <v>0.0001739331261402752</v>
       </c>
     </row>
     <row r="130">
@@ -1794,7 +1794,7 @@
         <v>3.714017755409736</v>
       </c>
       <c r="C130" t="n">
-        <v>0.0001641132308123363</v>
+        <v>0.0001640792838978004</v>
       </c>
     </row>
     <row r="131">
@@ -1805,7 +1805,7 @@
         <v>3.715003590463335</v>
       </c>
       <c r="C131" t="n">
-        <v>0.0001514307220850576</v>
+        <v>0.0001513561148500852</v>
       </c>
     </row>
     <row r="132">
@@ -1816,7 +1816,7 @@
         <v>3.715989425516934</v>
       </c>
       <c r="C132" t="n">
-        <v>0.0001361901465140436</v>
+        <v>0.0001361060723804175</v>
       </c>
     </row>
     <row r="133">
@@ -1827,7 +1827,7 @@
         <v>3.716975260570534</v>
       </c>
       <c r="C133" t="n">
-        <v>0.000119664035417673</v>
+        <v>0.0001196258799780443</v>
       </c>
     </row>
     <row r="134">
@@ -1838,7 +1838,7 @@
         <v>3.717961095624133</v>
       </c>
       <c r="C134" t="n">
-        <v>0.0001031884851840174</v>
+        <v>0.0001032760322140239</v>
       </c>
     </row>
     <row r="135">
@@ -1849,7 +1849,7 @@
         <v>3.718946930677732</v>
       </c>
       <c r="C135" t="n">
-        <v>8.793846926224397e-05</v>
+        <v>8.823966340450645e-05</v>
       </c>
     </row>
     <row r="136">
@@ -1860,7 +1860,7 @@
         <v>3.719932765731332</v>
       </c>
       <c r="C136" t="n">
-        <v>7.402637435989191e-05</v>
+        <v>7.453023794377095e-05</v>
       </c>
     </row>
     <row r="137">
@@ -1871,7 +1871,7 @@
         <v>3.720918600784931</v>
       </c>
       <c r="C137" t="n">
-        <v>6.113611858523062e-05</v>
+        <v>6.168994170807348e-05</v>
       </c>
     </row>
     <row r="138">
@@ -1882,7 +1882,7 @@
         <v>3.72190443583853</v>
       </c>
       <c r="C138" t="n">
-        <v>4.923483954013667e-05</v>
+        <v>4.962896972084862e-05</v>
       </c>
     </row>
     <row r="139">
@@ -1893,7 +1893,7 @@
         <v>3.722890270892129</v>
       </c>
       <c r="C139" t="n">
-        <v>3.887668422288841e-05</v>
+        <v>3.901976423703073e-05</v>
       </c>
     </row>
     <row r="140">
@@ -1904,7 +1904,7 @@
         <v>3.723876105945729</v>
       </c>
       <c r="C140" t="n">
-        <v>3.06625188159783e-05</v>
+        <v>3.059899888879657e-05</v>
       </c>
     </row>
     <row r="141">
@@ -1915,7 +1915,7 @@
         <v>3.724861940999328</v>
       </c>
       <c r="C141" t="n">
-        <v>2.468258288186995e-05</v>
+        <v>2.451080409239885e-05</v>
       </c>
     </row>
     <row r="142">
@@ -1926,7 +1926,7 @@
         <v>3.725847776052927</v>
       </c>
       <c r="C142" t="n">
-        <v>2.055880910771176e-05</v>
+        <v>2.035587588160268e-05</v>
       </c>
     </row>
     <row r="143">
@@ -1937,7 +1937,7 @@
         <v>3.726833611106527</v>
       </c>
       <c r="C143" t="n">
-        <v>1.789579785668972e-05</v>
+        <v>1.771479745120727e-05</v>
       </c>
     </row>
     <row r="144">
@@ -1948,7 +1948,7 @@
         <v>3.727819446160126</v>
       </c>
       <c r="C144" t="n">
-        <v>1.629814949199297e-05</v>
+        <v>1.616815199601498e-05</v>
       </c>
     </row>
     <row r="145">
@@ -1959,7 +1959,7 @@
         <v>3.728805281213725</v>
       </c>
       <c r="C145" t="n">
-        <v>1.537046437680694e-05</v>
+        <v>1.529652271082447e-05</v>
       </c>
     </row>
     <row r="146">
@@ -1970,7 +1970,7 @@
         <v>3.729791116267324</v>
       </c>
       <c r="C146" t="n">
-        <v>1.473267455418388e-05</v>
+        <v>1.469694982233611e-05</v>
       </c>
     </row>
     <row r="147">
@@ -1981,7 +1981,7 @@
         <v>3.730776951320924</v>
       </c>
       <c r="C147" t="n">
-        <v>1.4215333568027e-05</v>
+        <v>1.419255476875587e-05</v>
       </c>
     </row>
     <row r="148">
@@ -1992,7 +1992,7 @@
         <v>3.731762786374523</v>
       </c>
       <c r="C148" t="n">
-        <v>1.38020307954859e-05</v>
+        <v>1.377072771890045e-05</v>
       </c>
     </row>
     <row r="149">
@@ -2003,7 +2003,7 @@
         <v>3.732748621428122</v>
       </c>
       <c r="C149" t="n">
-        <v>1.347980060190734e-05</v>
+        <v>1.342255669343022e-05</v>
       </c>
     </row>
     <row r="150">
@@ -2014,7 +2014,7 @@
         <v>3.733734456481722</v>
       </c>
       <c r="C150" t="n">
-        <v>1.32356773526382e-05</v>
+        <v>1.313912971300574e-05</v>
       </c>
     </row>
     <row r="151">
@@ -2025,7 +2025,7 @@
         <v>3.734720291535321</v>
       </c>
       <c r="C151" t="n">
-        <v>1.305669541302571e-05</v>
+        <v>1.291153479828788e-05</v>
       </c>
     </row>
     <row r="152">
@@ -2036,7 +2036,7 @@
         <v>3.73570612658892</v>
       </c>
       <c r="C152" t="n">
-        <v>1.292988914841676e-05</v>
+        <v>1.273085996993716e-05</v>
       </c>
     </row>
     <row r="153">
@@ -2047,7 +2047,7 @@
         <v>3.736691961642519</v>
       </c>
       <c r="C153" t="n">
-        <v>1.284229292415834e-05</v>
+        <v>1.258819324861421e-05</v>
       </c>
     </row>
     <row r="154">
@@ -2058,7 +2058,7 @@
         <v>3.737677796696119</v>
       </c>
       <c r="C154" t="n">
-        <v>1.278094110559742e-05</v>
+        <v>1.247462265497964e-05</v>
       </c>
     </row>
     <row r="155">
@@ -2069,7 +2069,7 @@
         <v>3.738663631749718</v>
       </c>
       <c r="C155" t="n">
-        <v>1.273457309001585e-05</v>
+        <v>1.238235566041123e-05</v>
       </c>
     </row>
     <row r="156">
@@ -2080,7 +2080,7 @@
         <v>3.739649466803317</v>
       </c>
       <c r="C156" t="n">
-        <v>1.270037500369813e-05</v>
+        <v>1.230914549566269e-05</v>
       </c>
     </row>
     <row r="157">
@@ -2091,7 +2091,7 @@
         <v>3.740635301856917</v>
       </c>
       <c r="C157" t="n">
-        <v>1.267814386494059e-05</v>
+        <v>1.225445959101399e-05</v>
       </c>
     </row>
     <row r="158">
@@ -2102,7 +2102,7 @@
         <v>3.741621136910516</v>
       </c>
       <c r="C158" t="n">
-        <v>1.266767745639449e-05</v>
+        <v>1.221776587858771e-05</v>
       </c>
     </row>
     <row r="159">
@@ -2113,7 +2113,7 @@
         <v>3.742606971964115</v>
       </c>
       <c r="C159" t="n">
-        <v>1.266877356071102e-05</v>
+        <v>1.219853229050638e-05</v>
       </c>
     </row>
     <row r="160">
@@ -2124,7 +2124,7 @@
         <v>3.743592807017714</v>
       </c>
       <c r="C160" t="n">
-        <v>1.268122996054142e-05</v>
+        <v>1.219622675889253e-05</v>
       </c>
     </row>
     <row r="161">
@@ -2135,7 +2135,7 @@
         <v>3.744578642071314</v>
       </c>
       <c r="C161" t="n">
-        <v>1.27048444385369e-05</v>
+        <v>1.221031721586873e-05</v>
       </c>
     </row>
     <row r="162">
@@ -2146,7 +2146,7 @@
         <v>3.745564477124913</v>
       </c>
       <c r="C162" t="n">
-        <v>1.273941477734869e-05</v>
+        <v>1.22402715935575e-05</v>
       </c>
     </row>
     <row r="163">
@@ -2157,7 +2157,7 @@
         <v>3.746550312178512</v>
       </c>
       <c r="C163" t="n">
-        <v>1.278473875962799e-05</v>
+        <v>1.228555782408138e-05</v>
       </c>
     </row>
     <row r="164">
@@ -2168,7 +2168,7 @@
         <v>3.747536147232112</v>
       </c>
       <c r="C164" t="n">
-        <v>1.284061416802606e-05</v>
+        <v>1.234564383956296e-05</v>
       </c>
     </row>
     <row r="165">
@@ -2179,7 +2179,7 @@
         <v>3.748521982285711</v>
       </c>
       <c r="C165" t="n">
-        <v>1.290683878519408e-05</v>
+        <v>1.241999757212472e-05</v>
       </c>
     </row>
     <row r="166">
@@ -2190,7 +2190,7 @@
         <v>3.74950781733931</v>
       </c>
       <c r="C166" t="n">
-        <v>1.298321039378328e-05</v>
+        <v>1.250808695388924e-05</v>
       </c>
     </row>
     <row r="167">
@@ -2201,7 +2201,7 @@
         <v>3.75049365239291</v>
       </c>
       <c r="C167" t="n">
-        <v>1.306952677644489e-05</v>
+        <v>1.260937991697906e-05</v>
       </c>
     </row>
     <row r="168">
@@ -2212,7 +2212,7 @@
         <v>3.751479487446509</v>
       </c>
       <c r="C168" t="n">
-        <v>1.316558571583017e-05</v>
+        <v>1.272334439351676e-05</v>
       </c>
     </row>
     <row r="169">
@@ -2223,7 +2223,7 @@
         <v>3.752465322500108</v>
       </c>
       <c r="C169" t="n">
-        <v>1.327118499459026e-05</v>
+        <v>1.28494483156248e-05</v>
       </c>
     </row>
     <row r="170">
@@ -2234,7 +2234,7 @@
         <v>3.753451157553708</v>
       </c>
       <c r="C170" t="n">
-        <v>1.338612239537642e-05</v>
+        <v>1.298715961542578e-05</v>
       </c>
     </row>
     <row r="171">
@@ -2245,7 +2245,7 @@
         <v>3.754436992607307</v>
       </c>
       <c r="C171" t="n">
-        <v>1.351019570083993e-05</v>
+        <v>1.313594622504229e-05</v>
       </c>
     </row>
     <row r="172">
@@ -2256,7 +2256,7 @@
         <v>3.755422827660906</v>
       </c>
       <c r="C172" t="n">
-        <v>1.364320269363189e-05</v>
+        <v>1.329527607659676e-05</v>
       </c>
     </row>
     <row r="173">
@@ -2267,7 +2267,7 @@
         <v>3.756408662714505</v>
       </c>
       <c r="C173" t="n">
-        <v>1.378494115640358e-05</v>
+        <v>1.346461710221179e-05</v>
       </c>
     </row>
     <row r="174">
@@ -2278,7 +2278,7 @@
         <v>3.757394497768105</v>
       </c>
       <c r="C174" t="n">
-        <v>1.393520887180623e-05</v>
+        <v>1.364343723400992e-05</v>
       </c>
     </row>
     <row r="175">
@@ -2289,7 +2289,7 @@
         <v>3.758380332821704</v>
       </c>
       <c r="C175" t="n">
-        <v>1.409380362249112e-05</v>
+        <v>1.383120440411379e-05</v>
       </c>
     </row>
     <row r="176">
@@ -2300,7 +2300,7 @@
         <v>3.759366167875303</v>
       </c>
       <c r="C176" t="n">
-        <v>1.426052319110933e-05</v>
+        <v>1.402738654464578e-05</v>
       </c>
     </row>
     <row r="177">
@@ -2311,7 +2311,7 @@
         <v>3.760352002928903</v>
       </c>
       <c r="C177" t="n">
-        <v>1.443516536031217e-05</v>
+        <v>1.42314515877285e-05</v>
       </c>
     </row>
     <row r="178">
@@ -2322,7 +2322,7 @@
         <v>3.761337837982502</v>
       </c>
       <c r="C178" t="n">
-        <v>1.461752791275092e-05</v>
+        <v>1.444286746548461e-05</v>
       </c>
     </row>
     <row r="179">
@@ -2333,7 +2333,7 @@
         <v>3.762323673036101</v>
       </c>
       <c r="C179" t="n">
-        <v>1.480740863107665e-05</v>
+        <v>1.466110211003645e-05</v>
       </c>
     </row>
     <row r="180">
@@ -2344,7 +2344,7 @@
         <v>3.763309508089701</v>
       </c>
       <c r="C180" t="n">
-        <v>1.500460529794066e-05</v>
+        <v>1.488562345350665e-05</v>
       </c>
     </row>
     <row r="181">
@@ -2355,7 +2355,7 @@
         <v>3.7642953431433</v>
       </c>
       <c r="C181" t="n">
-        <v>1.520891569599416e-05</v>
+        <v>1.511589942801778e-05</v>
       </c>
     </row>
     <row r="182">
@@ -2366,7 +2366,7 @@
         <v>3.765281178196899</v>
       </c>
       <c r="C182" t="n">
-        <v>1.542013760788848e-05</v>
+        <v>1.535139796569247e-05</v>
       </c>
     </row>
     <row r="183">
@@ -2377,7 +2377,7 @@
         <v>3.766267013250499</v>
       </c>
       <c r="C183" t="n">
-        <v>1.563806881627465e-05</v>
+        <v>1.559158699865305e-05</v>
       </c>
     </row>
     <row r="184">
@@ -2388,7 +2388,7 @@
         <v>3.767252848304098</v>
       </c>
       <c r="C184" t="n">
-        <v>1.586250710380398e-05</v>
+        <v>1.58359344590222e-05</v>
       </c>
     </row>
     <row r="185">
@@ -2399,7 +2399,7 @@
         <v>3.768238683357697</v>
       </c>
       <c r="C185" t="n">
-        <v>1.609325025312769e-05</v>
+        <v>1.608390827892243e-05</v>
       </c>
     </row>
     <row r="186">
@@ -2410,7 +2410,7 @@
         <v>3.769224518411296</v>
       </c>
       <c r="C186" t="n">
-        <v>1.633009604689711e-05</v>
+        <v>1.633497639047641e-05</v>
       </c>
     </row>
     <row r="187">
@@ -2421,7 +2421,7 @@
         <v>3.770210353464896</v>
       </c>
       <c r="C187" t="n">
-        <v>1.657284226776325e-05</v>
+        <v>1.658860672580646e-05</v>
       </c>
     </row>
     <row r="188">
@@ -2432,7 +2432,7 @@
         <v>3.771196188518495</v>
       </c>
       <c r="C188" t="n">
-        <v>1.682128669837743e-05</v>
+        <v>1.684426721703524e-05</v>
       </c>
     </row>
     <row r="189">
@@ -2443,7 +2443,7 @@
         <v>3.772182023572094</v>
       </c>
       <c r="C189" t="n">
-        <v>1.70752272412117e-05</v>
+        <v>1.710142595660561e-05</v>
       </c>
     </row>
     <row r="190">
@@ -2454,7 +2454,7 @@
         <v>3.773167858625694</v>
       </c>
       <c r="C190" t="n">
-        <v>1.733488992250227e-05</v>
+        <v>1.736012386696597e-05</v>
       </c>
     </row>
     <row r="191">
@@ -2465,7 +2465,7 @@
         <v>3.774153693679293</v>
       </c>
       <c r="C191" t="n">
-        <v>1.760189047325351e-05</v>
+        <v>1.762226129687172e-05</v>
       </c>
     </row>
     <row r="192">
@@ -2476,7 +2476,7 @@
         <v>3.775139528732892</v>
       </c>
       <c r="C192" t="n">
-        <v>1.787812610802421e-05</v>
+        <v>1.789011522034295e-05</v>
       </c>
     </row>
     <row r="193">
@@ -2487,7 +2487,7 @@
         <v>3.776125363786492</v>
       </c>
       <c r="C193" t="n">
-        <v>1.816549404137279e-05</v>
+        <v>1.816596261139937e-05</v>
       </c>
     </row>
     <row r="194">
@@ -2498,7 +2498,7 @@
         <v>3.777111198840091</v>
       </c>
       <c r="C194" t="n">
-        <v>1.846589148785802e-05</v>
+        <v>1.845208044406107e-05</v>
       </c>
     </row>
     <row r="195">
@@ -2509,7 +2509,7 @@
         <v>3.77809703389369</v>
       </c>
       <c r="C195" t="n">
-        <v>1.878121566203859e-05</v>
+        <v>1.8750745692348e-05</v>
       </c>
     </row>
     <row r="196">
@@ -2520,7 +2520,7 @@
         <v>3.77908286894729</v>
       </c>
       <c r="C196" t="n">
-        <v>1.91133637784733e-05</v>
+        <v>1.906423533028029e-05</v>
       </c>
     </row>
     <row r="197">
@@ -2531,7 +2531,7 @@
         <v>3.780068704000889</v>
       </c>
       <c r="C197" t="n">
-        <v>1.946423305172053e-05</v>
+        <v>1.939482633187759e-05</v>
       </c>
     </row>
     <row r="198">
@@ -2542,7 +2542,7 @@
         <v>3.781054539054488</v>
       </c>
       <c r="C198" t="n">
-        <v>1.983572069633909e-05</v>
+        <v>1.974479567116001e-05</v>
       </c>
     </row>
     <row r="199">
@@ -2553,7 +2553,7 @@
         <v>3.782040374108087</v>
       </c>
       <c r="C199" t="n">
-        <v>2.022972392688765e-05</v>
+        <v>2.011642032214753e-05</v>
       </c>
     </row>
     <row r="200">
@@ -2564,7 +2564,7 @@
         <v>3.783026209161687</v>
       </c>
       <c r="C200" t="n">
-        <v>2.064813995792505e-05</v>
+        <v>2.051197725886027e-05</v>
       </c>
     </row>
     <row r="201">
@@ -2575,7 +2575,7 @@
         <v>3.784012044215286</v>
       </c>
       <c r="C201" t="n">
-        <v>2.10928660040096e-05</v>
+        <v>2.093374345531785e-05</v>
       </c>
     </row>
     <row r="202">
@@ -2586,7 +2586,7 @@
         <v>3.784997879268885</v>
       </c>
       <c r="C202" t="n">
-        <v>2.156579927970014e-05</v>
+        <v>2.13839958855404e-05</v>
       </c>
     </row>
     <row r="203">
@@ -2597,7 +2597,7 @@
         <v>3.785983714322485</v>
       </c>
       <c r="C203" t="n">
-        <v>2.206883699955558e-05</v>
+        <v>2.186501152354811e-05</v>
       </c>
     </row>
     <row r="204">
@@ -2608,7 +2608,7 @@
         <v>3.786969549376084</v>
       </c>
       <c r="C204" t="n">
-        <v>2.260387637813412e-05</v>
+        <v>2.237906734336049e-05</v>
       </c>
     </row>
     <row r="205">
@@ -2619,7 +2619,7 @@
         <v>3.787955384429683</v>
       </c>
       <c r="C205" t="n">
-        <v>2.317281462999465e-05</v>
+        <v>2.292844031899774e-05</v>
       </c>
     </row>
     <row r="206">
@@ -2630,7 +2630,7 @@
         <v>3.788941219483282</v>
       </c>
       <c r="C206" t="n">
-        <v>2.377754896969584e-05</v>
+        <v>2.35154074244798e-05</v>
       </c>
     </row>
     <row r="207">
@@ -2641,7 +2641,7 @@
         <v>3.789927054536882</v>
       </c>
       <c r="C207" t="n">
-        <v>2.441997661179665e-05</v>
+        <v>2.414224563382694e-05</v>
       </c>
     </row>
     <row r="208">
@@ -2652,7 +2652,7 @@
         <v>3.790912889590481</v>
       </c>
       <c r="C208" t="n">
-        <v>2.510199477085516e-05</v>
+        <v>2.481123192105854e-05</v>
       </c>
     </row>
     <row r="209">
@@ -2663,7 +2663,7 @@
         <v>3.79189872464408</v>
       </c>
       <c r="C209" t="n">
-        <v>2.582550066143034e-05</v>
+        <v>2.552464326019485e-05</v>
       </c>
     </row>
     <row r="210">
@@ -2674,7 +2674,7 @@
         <v>3.79288455969768</v>
       </c>
       <c r="C210" t="n">
-        <v>2.659239149808119e-05</v>
+        <v>2.628475662525618e-05</v>
       </c>
     </row>
     <row r="211">
@@ -2685,7 +2685,7 @@
         <v>3.793870394751279</v>
       </c>
       <c r="C211" t="n">
-        <v>2.740456449536568e-05</v>
+        <v>2.70938489902618e-05</v>
       </c>
     </row>
     <row r="212">
@@ -2696,7 +2696,7 @@
         <v>3.794856229804878</v>
       </c>
       <c r="C212" t="n">
-        <v>2.826391686784284e-05</v>
+        <v>2.795419732923201e-05</v>
       </c>
     </row>
     <row r="213">
@@ -2707,7 +2707,7 @@
         <v>3.795842064858477</v>
       </c>
       <c r="C213" t="n">
-        <v>2.917234583007131e-05</v>
+        <v>2.886807861618676e-05</v>
       </c>
     </row>
     <row r="214">
@@ -2718,7 +2718,7 @@
         <v>3.796827899912077</v>
       </c>
       <c r="C214" t="n">
-        <v>3.013174859661022e-05</v>
+        <v>2.983776982514649e-05</v>
       </c>
     </row>
     <row r="215">
@@ -2729,7 +2729,7 @@
         <v>3.797813734965676</v>
       </c>
       <c r="C215" t="n">
-        <v>3.114402238201735e-05</v>
+        <v>3.086554793013026e-05</v>
       </c>
     </row>
     <row r="216">
@@ -2740,7 +2740,7 @@
         <v>3.798799570019275</v>
       </c>
       <c r="C216" t="n">
-        <v>3.22126798133722e-05</v>
+        <v>3.1955170049204e-05</v>
       </c>
     </row>
     <row r="217">
@@ -2751,7 +2751,7 @@
         <v>3.799785405072875</v>
       </c>
       <c r="C217" t="n">
-        <v>3.334986445523568e-05</v>
+        <v>3.311830151617372e-05</v>
       </c>
     </row>
     <row r="218">
@@ -2762,7 +2762,7 @@
         <v>3.800771240126474</v>
       </c>
       <c r="C218" t="n">
-        <v>3.457059057610617e-05</v>
+        <v>3.436923798699884e-05</v>
       </c>
     </row>
     <row r="219">
@@ -2773,7 +2773,7 @@
         <v>3.801757075180073</v>
       </c>
       <c r="C219" t="n">
-        <v>3.588987437773684e-05</v>
+        <v>3.572227688901032e-05</v>
       </c>
     </row>
     <row r="220">
@@ -2784,7 +2784,7 @@
         <v>3.802742910233672</v>
       </c>
       <c r="C220" t="n">
-        <v>3.732273206188031e-05</v>
+        <v>3.719171564953858e-05</v>
       </c>
     </row>
     <row r="221">
@@ -2795,7 +2795,7 @@
         <v>3.803728745287272</v>
       </c>
       <c r="C221" t="n">
-        <v>3.888417983028995e-05</v>
+        <v>3.879185169591483e-05</v>
       </c>
     </row>
     <row r="222">
@@ -2806,7 +2806,7 @@
         <v>3.804714580340871</v>
       </c>
       <c r="C222" t="n">
-        <v>4.058923388471702e-05</v>
+        <v>4.053698245546808e-05</v>
       </c>
     </row>
     <row r="223">
@@ -2817,7 +2817,7 @@
         <v>3.80570041539447</v>
       </c>
       <c r="C223" t="n">
-        <v>4.245291042691482e-05</v>
+        <v>4.244140535552945e-05</v>
       </c>
     </row>
     <row r="224">
@@ -2828,7 +2828,7 @@
         <v>3.80668625044807</v>
       </c>
       <c r="C224" t="n">
-        <v>4.449022565863693e-05</v>
+        <v>4.451941782343037e-05</v>
       </c>
     </row>
     <row r="225">
@@ -2839,7 +2839,7 @@
         <v>3.807672085501669</v>
       </c>
       <c r="C225" t="n">
-        <v>4.671619578163418e-05</v>
+        <v>4.67853172864994e-05</v>
       </c>
     </row>
     <row r="226">
@@ -2850,7 +2850,7 @@
         <v>3.808657920555268</v>
       </c>
       <c r="C226" t="n">
-        <v>4.914583699766009e-05</v>
+        <v>4.92534011720679e-05</v>
       </c>
     </row>
     <row r="227">
@@ -2861,7 +2861,7 @@
         <v>3.809643755608867</v>
       </c>
       <c r="C227" t="n">
-        <v>5.179416550846729e-05</v>
+        <v>5.19379669074663e-05</v>
       </c>
     </row>
     <row r="228">
@@ -2872,7 +2872,7 @@
         <v>3.810629590662467</v>
       </c>
       <c r="C228" t="n">
-        <v>5.467619751580978e-05</v>
+        <v>5.485331192002641e-05</v>
       </c>
     </row>
     <row r="229">
@@ -2883,7 +2883,7 @@
         <v>3.811615425716066</v>
       </c>
       <c r="C229" t="n">
-        <v>5.780694922143759e-05</v>
+        <v>5.801373363707603e-05</v>
       </c>
     </row>
     <row r="230">
@@ -2894,7 +2894,7 @@
         <v>3.812601260769665</v>
       </c>
       <c r="C230" t="n">
-        <v>6.120143682710463e-05</v>
+        <v>6.143352948594691e-05</v>
       </c>
     </row>
     <row r="231">
@@ -2905,7 +2905,7 @@
         <v>3.813587095823265</v>
       </c>
       <c r="C231" t="n">
-        <v>6.487467653456524e-05</v>
+        <v>6.512699689397119e-05</v>
       </c>
     </row>
     <row r="232">
@@ -2916,7 +2916,7 @@
         <v>3.814572930876864</v>
       </c>
       <c r="C232" t="n">
-        <v>6.884168454556876e-05</v>
+        <v>6.9108433288476e-05</v>
       </c>
     </row>
     <row r="233">
@@ -2927,7 +2927,7 @@
         <v>3.815558765930463</v>
       </c>
       <c r="C233" t="n">
-        <v>7.312808901986371e-05</v>
+        <v>7.340285867927575e-05</v>
       </c>
     </row>
     <row r="234">
@@ -2938,7 +2938,7 @@
         <v>3.816544600984062</v>
       </c>
       <c r="C234" t="n">
-        <v>7.787224469078074e-05</v>
+        <v>7.814919476933605e-05</v>
       </c>
     </row>
     <row r="235">
@@ -2949,7 +2949,7 @@
         <v>3.817530436037662</v>
       </c>
       <c r="C235" t="n">
-        <v>8.32804812888746e-05</v>
+        <v>8.355504686505067e-05</v>
       </c>
     </row>
     <row r="236">
@@ -2960,7 +2960,7 @@
         <v>3.818516271091261</v>
       </c>
       <c r="C236" t="n">
-        <v>8.956006590820037e-05</v>
+        <v>8.982896740787132e-05</v>
       </c>
     </row>
     <row r="237">
@@ -2971,7 +2971,7 @@
         <v>3.81950210614486</v>
       </c>
       <c r="C237" t="n">
-        <v>9.691826564282009e-05</v>
+        <v>9.717950883925683e-05</v>
       </c>
     </row>
     <row r="238">
@@ -2982,7 +2982,7 @@
         <v>3.82048794119846</v>
       </c>
       <c r="C238" t="n">
-        <v>0.0001055623475867937</v>
+        <v>0.0001058152236006637</v>
       </c>
     </row>
     <row r="239">
@@ -2993,7 +2993,7 @@
         <v>3.821473776252059</v>
       </c>
       <c r="C239" t="n">
-        <v>0.0001156995788341859</v>
+        <v>0.0001159446641335533</v>
       </c>
     </row>
     <row r="240">
@@ -3004,7 +3004,7 @@
         <v>3.822459611305658</v>
       </c>
       <c r="C240" t="n">
-        <v>0.0001275372264790476</v>
+        <v>0.0001277763828793732</v>
       </c>
     </row>
     <row r="241">
@@ -3015,7 +3015,7 @@
         <v>3.823445446359258</v>
       </c>
       <c r="C241" t="n">
-        <v>0.0001412825576154428</v>
+        <v>0.0001415189322795842</v>
       </c>
     </row>
     <row r="242">
@@ -3026,7 +3026,7 @@
         <v>3.824431281412857</v>
       </c>
       <c r="C242" t="n">
-        <v>0.000157142839337439</v>
+        <v>0.0001573808647756503</v>
       </c>
     </row>
     <row r="243">
@@ -3037,7 +3037,7 @@
         <v>3.825417116466456</v>
       </c>
       <c r="C243" t="n">
-        <v>0.0001753253387390818</v>
+        <v>0.0001755707328090139</v>
       </c>
     </row>
     <row r="244">
@@ -3048,7 +3048,7 @@
         <v>3.826402951520055</v>
       </c>
       <c r="C244" t="n">
-        <v>0.0001960373229144379</v>
+        <v>0.0001962970888211382</v>
       </c>
     </row>
     <row r="245">
@@ -3059,7 +3059,7 @@
         <v>3.827388786573655</v>
       </c>
       <c r="C245" t="n">
-        <v>0.0002194860589575782</v>
+        <v>0.0002197684852534908</v>
       </c>
     </row>
     <row r="246">
@@ -3070,7 +3070,7 @@
         <v>3.828374621627254</v>
       </c>
       <c r="C246" t="n">
-        <v>0.0002458291228468405</v>
+        <v>0.0002461436094171373</v>
       </c>
     </row>
     <row r="247">
@@ -3081,7 +3081,7 @@
         <v>3.829360456680853</v>
       </c>
       <c r="C247" t="n">
-        <v>0.0002746153922689899</v>
+        <v>0.0002749703187144756</v>
       </c>
     </row>
     <row r="248">
@@ -3092,7 +3092,7 @@
         <v>3.830346291734453</v>
       </c>
       <c r="C248" t="n">
-        <v>0.0003049857769820183</v>
+        <v>0.0003053870739451497</v>
       </c>
     </row>
     <row r="249">
@@ -3103,7 +3103,7 @@
         <v>3.831332126788052</v>
       </c>
       <c r="C249" t="n">
-        <v>0.0003360736676317152</v>
+        <v>0.0003365247904652177</v>
       </c>
     </row>
     <row r="250">
@@ -3114,7 +3114,7 @@
         <v>3.832317961841651</v>
       </c>
       <c r="C250" t="n">
-        <v>0.0003670124548638275</v>
+        <v>0.0003675143836306955</v>
       </c>
     </row>
     <row r="251">
@@ -3125,7 +3125,7 @@
         <v>3.833303796895251</v>
       </c>
       <c r="C251" t="n">
-        <v>0.0003969355293241443</v>
+        <v>0.0003974867687976409</v>
       </c>
     </row>
     <row r="252">
@@ -3136,7 +3136,7 @@
         <v>3.83428963194885</v>
       </c>
       <c r="C252" t="n">
-        <v>0.0004249762816584412</v>
+        <v>0.0004255728613220982</v>
       </c>
     </row>
     <row r="253">
@@ -3147,7 +3147,7 @@
         <v>3.835275467002449</v>
       </c>
       <c r="C253" t="n">
-        <v>0.0004502681025125039</v>
+        <v>0.0004509035765601219</v>
       </c>
     </row>
     <row r="254">
@@ -3158,7 +3158,7 @@
         <v>3.836261302056049</v>
       </c>
       <c r="C254" t="n">
-        <v>0.0004719443825320848</v>
+        <v>0.000472609829867733</v>
       </c>
     </row>
     <row r="255">
@@ -3169,7 +3169,7 @@
         <v>3.837247137109648</v>
       </c>
       <c r="C255" t="n">
-        <v>0.0004891385123629712</v>
+        <v>0.0004898225366009878</v>
       </c>
     </row>
     <row r="256">
@@ -3180,7 +3180,7 @@
         <v>3.838232972163247</v>
       </c>
       <c r="C256" t="n">
-        <v>0.0005009838826509426</v>
+        <v>0.0005016726121159342</v>
       </c>
     </row>
     <row r="257">
@@ -3191,7 +3191,7 @@
         <v>3.839218807216846</v>
       </c>
       <c r="C257" t="n">
-        <v>0.0005066138840417629</v>
+        <v>0.0005072909717686054</v>
       </c>
     </row>
     <row r="258">
@@ -3202,7 +3202,7 @@
         <v>3.840204642270446</v>
       </c>
       <c r="C258" t="n">
-        <v>0.0005051619071812144</v>
+        <v>0.0005058085309150521</v>
       </c>
     </row>
     <row r="259">
@@ -3213,7 +3213,7 @@
         <v>3.841190477324045</v>
       </c>
       <c r="C259" t="n">
-        <v>0.0004958417646193108</v>
+        <v>0.0004964369537758417</v>
       </c>
     </row>
     <row r="260">
@@ -3224,7 +3224,7 @@
         <v>3.842176312377644</v>
       </c>
       <c r="C260" t="n">
-        <v>0.0004790113959396782</v>
+        <v>0.000479536683125215</v>
       </c>
     </row>
     <row r="261">
@@ -3235,7 +3235,7 @@
         <v>3.843162147431244</v>
       </c>
       <c r="C261" t="n">
-        <v>0.0004558801523730112</v>
+        <v>0.0004563230348518187</v>
       </c>
     </row>
     <row r="262">
@@ -3246,7 +3246,7 @@
         <v>3.844147982484843</v>
       </c>
       <c r="C262" t="n">
-        <v>0.0004276776567722067</v>
+        <v>0.0004280316788820506</v>
       </c>
     </row>
     <row r="263">
@@ -3257,7 +3257,7 @@
         <v>3.845133817538442</v>
       </c>
       <c r="C263" t="n">
-        <v>0.0003956335319901527</v>
+        <v>0.0003958982851422991</v>
       </c>
     </row>
     <row r="264">
@@ -3268,7 +3268,7 @@
         <v>3.846119652592042</v>
       </c>
       <c r="C264" t="n">
-        <v>0.0003609774008797817</v>
+        <v>0.000361158523558998</v>
       </c>
     </row>
     <row r="265">
@@ -3279,7 +3279,7 @@
         <v>3.847105487645641</v>
       </c>
       <c r="C265" t="n">
-        <v>0.000324938886293983</v>
+        <v>0.0003250480640585371</v>
       </c>
     </row>
     <row r="266">
@@ -3290,7 +3290,7 @@
         <v>3.84809132269924</v>
       </c>
       <c r="C266" t="n">
-        <v>0.0002887476110856593</v>
+        <v>0.0002888025765673201</v>
       </c>
     </row>
     <row r="267">
@@ -3301,7 +3301,7 @@
         <v>3.84907715775284</v>
       </c>
       <c r="C267" t="n">
-        <v>0.0002536331981076985</v>
+        <v>0.0002536577310117355</v>
       </c>
     </row>
     <row r="268">
@@ -3312,7 +3312,7 @@
         <v>3.850062992806439</v>
       </c>
       <c r="C268" t="n">
-        <v>0.0002208252702130356</v>
+        <v>0.0002208491973182193</v>
       </c>
     </row>
     <row r="269">
@@ -3323,7 +3323,7 @@
         <v>3.851048827860038</v>
       </c>
       <c r="C269" t="n">
-        <v>0.0001915534502545574</v>
+        <v>0.0001916126454131591</v>
       </c>
     </row>
     <row r="270">
@@ -3334,7 +3334,7 @@
         <v>3.852034662913637</v>
       </c>
       <c r="C270" t="n">
-        <v>0.0001670473610851572</v>
+        <v>0.0001671837452229489</v>
       </c>
     </row>
     <row r="271">
@@ -3345,7 +3345,7 @@
         <v>3.853020497967237</v>
       </c>
       <c r="C271" t="n">
-        <v>0.0001485366255577605</v>
+        <v>0.0001487981666740151</v>
       </c>
     </row>
     <row r="272">
@@ -3356,7 +3356,7 @@
         <v>3.854006333020836</v>
       </c>
       <c r="C272" t="n">
-        <v>0.0001372508665252582</v>
+        <v>0.0001376915796927494</v>
       </c>
     </row>
     <row r="273">
@@ -3367,7 +3367,7 @@
         <v>3.854992168074435</v>
       </c>
       <c r="C273" t="n">
-        <v>0.0001340374280765711</v>
+        <v>0.0001347110160547575</v>
       </c>
     </row>
     <row r="274">
@@ -3378,7 +3378,7 @@
         <v>3.855978003128035</v>
       </c>
       <c r="C274" t="n">
-        <v>0.0001343943035496</v>
+        <v>0.0001352651678220018</v>
       </c>
     </row>
     <row r="275">
@@ -3389,7 +3389,7 @@
         <v>3.856963838181634</v>
       </c>
       <c r="C275" t="n">
-        <v>0.0001298832553703091</v>
+        <v>0.0001307610150942273</v>
       </c>
     </row>
     <row r="276">
@@ -3400,7 +3400,7 @@
         <v>3.857949673235233</v>
       </c>
       <c r="C276" t="n">
-        <v>0.0001119889626654035</v>
+        <v>0.000112527284726181</v>
       </c>
     </row>
     <row r="277">
@@ -3411,7 +3411,7 @@
         <v>3.858935508288833</v>
       </c>
       <c r="C277" t="n">
-        <v>7.982182440605509e-05</v>
+        <v>7.970559036156126e-05</v>
       </c>
     </row>
     <row r="278">
@@ -3422,7 +3422,7 @@
         <v>3.859921343342432</v>
       </c>
       <c r="C278" t="n">
-        <v>5.250776145205986e-05</v>
+        <v>5.194359423901521e-05</v>
       </c>
     </row>
     <row r="279">
@@ -3433,7 +3433,7 @@
         <v>3.860907178396031</v>
       </c>
       <c r="C279" t="n">
-        <v>4.114218816302448e-05</v>
+        <v>4.061040063987545e-05</v>
       </c>
     </row>
     <row r="280">
@@ -3444,7 +3444,7 @@
         <v>3.86189301344963</v>
       </c>
       <c r="C280" t="n">
-        <v>3.834465855136347e-05</v>
+        <v>3.806269801092552e-05</v>
       </c>
     </row>
     <row r="281">
@@ -3455,7 +3455,7 @@
         <v>3.86287884850323</v>
       </c>
       <c r="C281" t="n">
-        <v>3.611516986587854e-05</v>
+        <v>3.602673152435616e-05</v>
       </c>
     </row>
     <row r="282">
@@ -3466,7 +3466,7 @@
         <v>3.863864683556829</v>
       </c>
       <c r="C282" t="n">
-        <v>3.266665561301308e-05</v>
+        <v>3.266293035567081e-05</v>
       </c>
     </row>
     <row r="283">
@@ -3477,7 +3477,7 @@
         <v>3.864850518610428</v>
       </c>
       <c r="C283" t="n">
-        <v>2.842623745859307e-05</v>
+        <v>2.842476089251303e-05</v>
       </c>
     </row>
     <row r="284">
@@ -3488,7 +3488,7 @@
         <v>3.865836353664028</v>
       </c>
       <c r="C284" t="n">
-        <v>2.382375235601319e-05</v>
+        <v>2.376850150370786e-05</v>
       </c>
     </row>
     <row r="285">
@@ -3499,7 +3499,7 @@
         <v>3.866822188717627</v>
       </c>
       <c r="C285" t="n">
-        <v>1.928345612847644e-05</v>
+        <v>1.914453716149135e-05</v>
       </c>
     </row>
     <row r="286">
@@ -3510,7 +3510,7 @@
         <v>3.867808023771226</v>
       </c>
       <c r="C286" t="n">
-        <v>1.511955177502872e-05</v>
+        <v>1.488704251578302e-05</v>
       </c>
     </row>
     <row r="287">
@@ -3521,7 +3521,7 @@
         <v>3.868793858824825</v>
       </c>
       <c r="C287" t="n">
-        <v>1.154549374000999e-05</v>
+        <v>1.122380674111805e-05</v>
       </c>
     </row>
     <row r="288">
@@ -3532,7 +3532,7 @@
         <v>3.869779693878425</v>
       </c>
       <c r="C288" t="n">
-        <v>8.771020744235644e-06</v>
+        <v>8.378695392335961e-06</v>
       </c>
     </row>
     <row r="289">
@@ -3543,7 +3543,7 @@
         <v>3.870765528932024</v>
       </c>
       <c r="C289" t="n">
-        <v>7.005871508524707e-06</v>
+        <v>6.575574024279986e-06</v>
       </c>
     </row>
     <row r="290">
@@ -3554,7 +3554,7 @@
         <v>3.871751363985623</v>
       </c>
       <c r="C290" t="n">
-        <v>6.459784753692181e-06</v>
+        <v>6.038308191789241e-06</v>
       </c>
     </row>
     <row r="291">
@@ -3565,7 +3565,7 @@
         <v>3.872737199039222</v>
       </c>
       <c r="C291" t="n">
-        <v>7.342499200554508e-06</v>
+        <v>6.990763449704315e-06</v>
       </c>
     </row>
     <row r="292">
@@ -3576,7 +3576,7 @@
         <v>3.873723034092822</v>
       </c>
       <c r="C292" t="n">
-        <v>9.863753569929669e-06</v>
+        <v>9.656805352867423e-06</v>
       </c>
     </row>
     <row r="293">
@@ -3587,7 +3587,7 @@
         <v>3.874708869146421</v>
       </c>
       <c r="C293" t="n">
-        <v>1.423328658263192e-05</v>
+        <v>1.426029945611684e-05</v>
       </c>
     </row>
     <row r="294">
@@ -3598,7 +3598,7 @@
         <v>3.87569470420002</v>
       </c>
       <c r="C294" t="n">
-        <v>2.100630057385778e-05</v>
+        <v>2.135429480111545e-05</v>
       </c>
     </row>
     <row r="295">
@@ -3609,7 +3609,7 @@
         <v>3.87668053925362</v>
       </c>
       <c r="C295" t="n">
-        <v>3.474936585835156e-05</v>
+        <v>3.531417089638075e-05</v>
       </c>
     </row>
     <row r="296">
@@ -3620,7 +3620,7 @@
         <v>3.877666374307219</v>
       </c>
       <c r="C296" t="n">
-        <v>6.027330004768968e-05</v>
+        <v>6.071925024818146e-05</v>
       </c>
     </row>
     <row r="297">
@@ -3631,7 +3631,7 @@
         <v>3.878652209360818</v>
       </c>
       <c r="C297" t="n">
-        <v>9.081364681521293e-05</v>
+        <v>9.09762001551771e-05</v>
       </c>
     </row>
     <row r="298">
@@ -3642,7 +3642,7 @@
         <v>3.879638044414418</v>
       </c>
       <c r="C298" t="n">
-        <v>0.0001161922773378836</v>
+        <v>0.0001161985684707007</v>
       </c>
     </row>
     <row r="299">
@@ -3653,7 +3653,7 @@
         <v>3.880623879468017</v>
       </c>
       <c r="C299" t="n">
-        <v>0.0001330457106143038</v>
+        <v>0.0001331390210691557</v>
       </c>
     </row>
     <row r="300">
@@ -3664,7 +3664,7 @@
         <v>3.881609714521616</v>
       </c>
       <c r="C300" t="n">
-        <v>0.000146693390710216</v>
+        <v>0.0001470094841066784</v>
       </c>
     </row>
     <row r="301">
@@ -3675,7 +3675,7 @@
         <v>3.882595549575215</v>
       </c>
       <c r="C301" t="n">
-        <v>0.000163018175078324</v>
+        <v>0.0001635707840753706</v>
       </c>
     </row>
     <row r="302">
@@ -3686,7 +3686,7 @@
         <v>3.883581384628815</v>
       </c>
       <c r="C302" t="n">
-        <v>0.0001879023853857854</v>
+        <v>0.0001885832195304416</v>
       </c>
     </row>
     <row r="303">
@@ -3697,7 +3697,7 @@
         <v>3.884567219682414</v>
       </c>
       <c r="C303" t="n">
-        <v>0.0002243996045739647</v>
+        <v>0.0002250197881306127</v>
       </c>
     </row>
     <row r="304">
@@ -3708,7 +3708,7 @@
         <v>3.885553054736013</v>
       </c>
       <c r="C304" t="n">
-        <v>0.0002661316287984349</v>
+        <v>0.0002665598657788033</v>
       </c>
     </row>
     <row r="305">
@@ -3719,7 +3719,7 @@
         <v>3.886538889789612</v>
       </c>
       <c r="C305" t="n">
-        <v>0.0003047568817554627</v>
+        <v>0.0003049482171089374</v>
       </c>
     </row>
     <row r="306">
@@ -3730,7 +3730,7 @@
         <v>3.887524724843212</v>
       </c>
       <c r="C306" t="n">
-        <v>0.000331933787141324</v>
+        <v>0.0003319296067549476</v>
       </c>
     </row>
     <row r="307">
@@ -3741,7 +3741,7 @@
         <v>3.888510559896811</v>
       </c>
       <c r="C307" t="n">
-        <v>0.0003402360655233247</v>
+        <v>0.000340158544906115</v>
       </c>
     </row>
     <row r="308">
@@ -3752,7 +3752,7 @@
         <v>3.88949639495041</v>
       </c>
       <c r="C308" t="n">
-        <v>0.0003345464116544048</v>
+        <v>0.0003345238614688519</v>
       </c>
     </row>
     <row r="309">
@@ -3763,7 +3763,7 @@
         <v>3.89048223000401</v>
       </c>
       <c r="C309" t="n">
-        <v>0.0003285604064166138</v>
+        <v>0.0003286738219376353</v>
       </c>
     </row>
     <row r="310">
@@ -3774,7 +3774,7 @@
         <v>3.891468065057609</v>
       </c>
       <c r="C310" t="n">
-        <v>0.0003361651493873409</v>
+        <v>0.0003364470489329909</v>
       </c>
     </row>
     <row r="311">
@@ -3785,7 +3785,7 @@
         <v>3.892453900111208</v>
       </c>
       <c r="C311" t="n">
-        <v>0.000367611192775223</v>
+        <v>0.0003680579367463683</v>
       </c>
     </row>
     <row r="312">
@@ -3796,7 +3796,7 @@
         <v>3.893439735164808</v>
       </c>
       <c r="C312" t="n">
-        <v>0.000417536199980953</v>
+        <v>0.000418160880533036</v>
       </c>
     </row>
     <row r="313">
@@ -3807,7 +3807,7 @@
         <v>3.894425570218407</v>
       </c>
       <c r="C313" t="n">
-        <v>0.0004763886680173796</v>
+        <v>0.0004772353001328028</v>
       </c>
     </row>
     <row r="314">
@@ -3818,7 +3818,7 @@
         <v>3.895411405272006</v>
       </c>
       <c r="C314" t="n">
-        <v>0.0005346170426700054</v>
+        <v>0.0005357605643316673</v>
       </c>
     </row>
     <row r="315">
@@ -3829,7 +3829,7 @@
         <v>3.896397240325606</v>
       </c>
       <c r="C315" t="n">
-        <v>0.0005826697937923199</v>
+        <v>0.0005842160657845932</v>
       </c>
     </row>
     <row r="316">
@@ -3840,7 +3840,7 @@
         <v>3.897383075379205</v>
       </c>
       <c r="C316" t="n">
-        <v>0.0006136099663653033</v>
+        <v>0.0006156741519122983</v>
       </c>
     </row>
     <row r="317">
@@ -3851,7 +3851,7 @@
         <v>3.898368910432804</v>
       </c>
       <c r="C317" t="n">
-        <v>0.0006303087357797149</v>
+        <v>0.0006329341954643078</v>
       </c>
     </row>
     <row r="318">
@@ -3862,7 +3862,7 @@
         <v>3.899354745486403</v>
       </c>
       <c r="C318" t="n">
-        <v>0.0006379367542589696</v>
+        <v>0.0006410760312618941</v>
       </c>
     </row>
     <row r="319">
@@ -3873,7 +3873,7 @@
         <v>3.900340580540003</v>
       </c>
       <c r="C319" t="n">
-        <v>0.0006416646740264636</v>
+        <v>0.0006451794941263114</v>
       </c>
     </row>
     <row r="320">
@@ -3884,7 +3884,7 @@
         <v>3.901326415593602</v>
       </c>
       <c r="C320" t="n">
-        <v>0.0006464970897497733</v>
+        <v>0.0006501633158623731</v>
       </c>
     </row>
     <row r="321">
@@ -3895,7 +3895,7 @@
         <v>3.902312250647201</v>
       </c>
       <c r="C321" t="n">
-        <v>0.0006548315735897131</v>
+        <v>0.0006584169896160616</v>
       </c>
     </row>
     <row r="322">
@@ -3906,7 +3906,7 @@
         <v>3.903298085700801</v>
       </c>
       <c r="C322" t="n">
-        <v>0.0006669943524630864</v>
+        <v>0.0006703204645216207</v>
       </c>
     </row>
     <row r="323">
@@ -3917,7 +3917,7 @@
         <v>3.9042839207544</v>
       </c>
       <c r="C323" t="n">
-        <v>0.0006832545111027991</v>
+        <v>0.0006861982524394732</v>
       </c>
     </row>
     <row r="324">
@@ -3928,7 +3928,7 @@
         <v>3.905269755807999</v>
       </c>
       <c r="C324" t="n">
-        <v>0.0007038811342417344</v>
+        <v>0.0007063748652300199</v>
       </c>
     </row>
     <row r="325">
@@ -3939,7 +3939,7 @@
         <v>3.906255590861599</v>
       </c>
       <c r="C325" t="n">
-        <v>0.0007291433066127969</v>
+        <v>0.0007311748147536821</v>
       </c>
     </row>
     <row r="326">
@@ -3950,7 +3950,7 @@
         <v>3.907241425915198</v>
       </c>
       <c r="C326" t="n">
-        <v>0.000759310112948884</v>
+        <v>0.0007609226128708751</v>
       </c>
     </row>
     <row r="327">
@@ -3961,7 +3961,7 @@
         <v>3.908227260968797</v>
       </c>
       <c r="C327" t="n">
-        <v>0.0007946506379829107</v>
+        <v>0.0007959427714420306</v>
       </c>
     </row>
     <row r="328">
@@ -3972,7 +3972,7 @@
         <v>3.909213096022397</v>
       </c>
       <c r="C328" t="n">
-        <v>0.0008354294625044622</v>
+        <v>0.0008365550807732927</v>
       </c>
     </row>
     <row r="329">
@@ -3983,7 +3983,7 @@
         <v>3.910198931075996</v>
       </c>
       <c r="C329" t="n">
-        <v>0.0008813245063858817</v>
+        <v>0.0008824643253485267</v>
       </c>
     </row>
     <row r="330">
@@ -3994,7 +3994,7 @@
         <v>3.911184766129595</v>
       </c>
       <c r="C330" t="n">
-        <v>0.0009308511690935363</v>
+        <v>0.0009321566013136209</v>
       </c>
     </row>
     <row r="331">
@@ -4005,7 +4005,7 @@
         <v>3.912170601183194</v>
       </c>
       <c r="C331" t="n">
-        <v>0.000982387997094255</v>
+        <v>0.000983974539672954</v>
       </c>
     </row>
     <row r="332">
@@ -4016,7 +4016,7 @@
         <v>3.913156436236794</v>
       </c>
       <c r="C332" t="n">
-        <v>0.001034313536854933</v>
+        <v>0.001036260771430971</v>
       </c>
     </row>
     <row r="333">
@@ -4027,7 +4027,7 @@
         <v>3.914142271290393</v>
       </c>
       <c r="C333" t="n">
-        <v>0.001085006334842445</v>
+        <v>0.001087357927592097</v>
       </c>
     </row>
     <row r="334">
@@ -4038,7 +4038,7 @@
         <v>3.915128106343992</v>
       </c>
       <c r="C334" t="n">
-        <v>0.001132844937523685</v>
+        <v>0.001135608639160776</v>
       </c>
     </row>
     <row r="335">
@@ -4049,7 +4049,7 @@
         <v>3.916113941397592</v>
       </c>
       <c r="C335" t="n">
-        <v>0.001176207891365484</v>
+        <v>0.001179355537141389</v>
       </c>
     </row>
     <row r="336">
@@ -4060,7 +4060,7 @@
         <v>3.917099776451191</v>
       </c>
       <c r="C336" t="n">
-        <v>0.001213473742834739</v>
+        <v>0.001216941252538381</v>
       </c>
     </row>
     <row r="337">
@@ -4071,7 +4071,7 @@
         <v>3.91808561150479</v>
       </c>
       <c r="C337" t="n">
-        <v>0.001243023237974937</v>
+        <v>0.00124671068613722</v>
       </c>
     </row>
     <row r="338">
@@ -4082,7 +4082,7 @@
         <v>3.91907144655839</v>
       </c>
       <c r="C338" t="n">
-        <v>0.001263691961115808</v>
+        <v>0.001267478094195306</v>
       </c>
     </row>
     <row r="339">
@@ -4093,7 +4093,7 @@
         <v>3.920057281611989</v>
       </c>
       <c r="C339" t="n">
-        <v>0.001275324724139749</v>
+        <v>0.001279099172287261</v>
       </c>
     </row>
     <row r="340">
@@ -4104,7 +4104,7 @@
         <v>3.921043116665588</v>
       </c>
       <c r="C340" t="n">
-        <v>0.001277902033899471</v>
+        <v>0.001281569641967835</v>
       </c>
     </row>
     <row r="341">
@@ -4115,7 +4115,7 @@
         <v>3.922028951719188</v>
       </c>
       <c r="C341" t="n">
-        <v>0.001271404397247682</v>
+        <v>0.001274885224791775</v>
       </c>
     </row>
     <row r="342">
@@ -4126,7 +4126,7 @@
         <v>3.923014786772787</v>
       </c>
       <c r="C342" t="n">
-        <v>0.001255812321037099</v>
+        <v>0.001259041642313838</v>
       </c>
     </row>
     <row r="343">
@@ -4137,7 +4137,7 @@
         <v>3.924000621826386</v>
       </c>
       <c r="C343" t="n">
-        <v>0.001231106312120433</v>
+        <v>0.001234034616088773</v>
       </c>
     </row>
     <row r="344">
@@ -4148,7 +4148,7 @@
         <v>3.924986456879985</v>
       </c>
       <c r="C344" t="n">
-        <v>0.00119726687735038</v>
+        <v>0.001199859867671316</v>
       </c>
     </row>
     <row r="345">
@@ -4159,7 +4159,7 @@
         <v>3.925972291933585</v>
       </c>
       <c r="C345" t="n">
-        <v>0.001154274523579682</v>
+        <v>0.001156513118616248</v>
       </c>
     </row>
     <row r="346">
@@ -4170,7 +4170,7 @@
         <v>3.926958126987184</v>
       </c>
       <c r="C346" t="n">
-        <v>0.001102183269850332</v>
+        <v>0.001104063257798691</v>
       </c>
     </row>
     <row r="347">
@@ -4181,7 +4181,7 @@
         <v>3.927943962040783</v>
       </c>
       <c r="C347" t="n">
-        <v>0.001042165188537222</v>
+        <v>0.001043691982285157</v>
       </c>
     </row>
     <row r="348">
@@ -4192,7 +4192,7 @@
         <v>3.928929797094383</v>
       </c>
       <c r="C348" t="n">
-        <v>0.0009762623802863772</v>
+        <v>0.0009774469358357315</v>
       </c>
     </row>
     <row r="349">
@@ -4203,7 +4203,7 @@
         <v>3.929915632147982</v>
       </c>
       <c r="C349" t="n">
-        <v>0.0009065398726121499</v>
+        <v>0.0009073985815216436</v>
       </c>
     </row>
     <row r="350">
@@ -4214,7 +4214,7 @@
         <v>3.930901467201581</v>
       </c>
       <c r="C350" t="n">
-        <v>0.0008350626930288036</v>
+        <v>0.0008356173824140311</v>
       </c>
     </row>
     <row r="351">
@@ -4225,7 +4225,7 @@
         <v>3.931887302255181</v>
       </c>
       <c r="C351" t="n">
-        <v>0.0007638958690505991</v>
+        <v>0.0007641738015840307</v>
       </c>
     </row>
     <row r="352">
@@ -4236,7 +4236,7 @@
         <v>3.93287313730878</v>
       </c>
       <c r="C352" t="n">
-        <v>0.0006951044281918933</v>
+        <v>0.0006951383021028753</v>
       </c>
     </row>
     <row r="353">
@@ -4247,7 +4247,7 @@
         <v>3.933858972362379</v>
       </c>
       <c r="C353" t="n">
-        <v>0.0006307533979669461</v>
+        <v>0.0006305813470416998</v>
       </c>
     </row>
     <row r="354">
@@ -4258,7 +4258,7 @@
         <v>3.934844807415978</v>
       </c>
       <c r="C354" t="n">
-        <v>0.0005729078058900497</v>
+        <v>0.000572573399471672</v>
       </c>
     </row>
     <row r="355">
@@ -4269,7 +4269,7 @@
         <v>3.935830642469578</v>
       </c>
       <c r="C355" t="n">
-        <v>0.0005231195027047804</v>
+        <v>0.0005226703487326111</v>
       </c>
     </row>
     <row r="356">
@@ -4280,7 +4280,7 @@
         <v>3.936816477523177</v>
       </c>
       <c r="C356" t="n">
-        <v>0.0004808239650858172</v>
+        <v>0.0004803059489397758</v>
       </c>
     </row>
     <row r="357">
@@ -4291,7 +4291,7 @@
         <v>3.937802312576776</v>
       </c>
       <c r="C357" t="n">
-        <v>0.0004449111688614044</v>
+        <v>0.0004443669684093359</v>
       </c>
     </row>
     <row r="358">
@@ -4302,7 +4302,7 @@
         <v>3.938788147630375</v>
       </c>
       <c r="C358" t="n">
-        <v>0.0004142710893013779</v>
+        <v>0.0004137401748975331</v>
       </c>
     </row>
     <row r="359">
@@ -4313,7 +4313,7 @@
         <v>3.939773982683975</v>
       </c>
       <c r="C359" t="n">
-        <v>0.0003877937016755626</v>
+        <v>0.0003873123361605977</v>
       </c>
     </row>
     <row r="360">
@@ -4324,7 +4324,7 @@
         <v>3.940759817737574</v>
       </c>
       <c r="C360" t="n">
-        <v>0.0003643689812538176</v>
+        <v>0.0003639702199547947</v>
       </c>
     </row>
     <row r="361">
@@ -4335,7 +4335,7 @@
         <v>3.941745652791173</v>
       </c>
       <c r="C361" t="n">
-        <v>0.0003428869033059665</v>
+        <v>0.0003426005940363531</v>
       </c>
     </row>
     <row r="362">
@@ -4346,7 +4346,7 @@
         <v>3.942731487844773</v>
       </c>
       <c r="C362" t="n">
-        <v>0.0003222374431018358</v>
+        <v>0.0003220902261615051</v>
       </c>
     </row>
     <row r="363">
@@ -4357,7 +4357,7 @@
         <v>3.943717322898372</v>
       </c>
       <c r="C363" t="n">
-        <v>0.0003013145258648167</v>
+        <v>0.0003013298196782401</v>
       </c>
     </row>
     <row r="364">
@@ -4368,7 +4368,7 @@
         <v>3.944703157951971</v>
       </c>
       <c r="C364" t="n">
-        <v>0.0002797528996819035</v>
+        <v>0.0002799482072081874</v>
       </c>
     </row>
     <row r="365">
@@ -4379,7 +4379,7 @@
         <v>3.945688993005571</v>
       </c>
       <c r="C365" t="n">
-        <v>0.000258795106638171</v>
+        <v>0.000259176169523164</v>
       </c>
     </row>
     <row r="366">
@@ -4390,7 +4390,7 @@
         <v>3.94667482805917</v>
       </c>
       <c r="C366" t="n">
-        <v>0.0002398944145755246</v>
+        <v>0.0002404544469649029</v>
       </c>
     </row>
     <row r="367">
@@ -4401,7 +4401,7 @@
         <v>3.947660663112769</v>
       </c>
       <c r="C367" t="n">
-        <v>0.0002245040913358404</v>
+        <v>0.0002252237798751085</v>
       </c>
     </row>
     <row r="368">
@@ -4412,7 +4412,7 @@
         <v>3.948646498166368</v>
       </c>
       <c r="C368" t="n">
-        <v>0.0002140774047610039</v>
+        <v>0.0002149249085954946</v>
       </c>
     </row>
     <row r="369">
@@ -4423,7 +4423,7 @@
         <v>3.949632333219968</v>
       </c>
       <c r="C369" t="n">
-        <v>0.0002100676226929009</v>
+        <v>0.000210998573467775</v>
       </c>
     </row>
     <row r="370">
@@ -4434,7 +4434,7 @@
         <v>3.950618168273567</v>
       </c>
       <c r="C370" t="n">
-        <v>0.0002139280129734213</v>
+        <v>0.0002148855148336677</v>
       </c>
     </row>
     <row r="371">
@@ -4445,7 +4445,7 @@
         <v>3.951604003327166</v>
       </c>
       <c r="C371" t="n">
-        <v>0.0002271118434444475</v>
+        <v>0.0002280264730348832</v>
       </c>
     </row>
     <row r="372">
@@ -4456,7 +4456,7 @@
         <v>3.952589838380765</v>
       </c>
       <c r="C372" t="n">
-        <v>0.0002510437911857682</v>
+        <v>0.0002518338178550556</v>
       </c>
     </row>
     <row r="373">
@@ -4467,7 +4467,7 @@
         <v>3.953575673434365</v>
       </c>
       <c r="C373" t="n">
-        <v>0.0002855469197318025</v>
+        <v>0.0002861306410461128</v>
       </c>
     </row>
     <row r="374">
@@ -4478,7 +4478,7 @@
         <v>3.954561508487964</v>
       </c>
       <c r="C374" t="n">
-        <v>0.0003280251225965329</v>
+        <v>0.0003283394966150586</v>
       </c>
     </row>
     <row r="375">
@@ -4489,7 +4489,7 @@
         <v>3.955547343541563</v>
       </c>
       <c r="C375" t="n">
-        <v>0.0003756814225320868</v>
+        <v>0.0003756836148993693</v>
       </c>
     </row>
     <row r="376">
@@ -4500,7 +4500,7 @@
         <v>3.956533178595163</v>
       </c>
       <c r="C376" t="n">
-        <v>0.0004257188422906012</v>
+        <v>0.0004253862262365306</v>
       </c>
     </row>
     <row r="377">
@@ -4511,7 +4511,7 @@
         <v>3.957519013648762</v>
       </c>
       <c r="C377" t="n">
-        <v>0.0004753404046241438</v>
+        <v>0.0004746705609639595</v>
       </c>
     </row>
     <row r="378">
@@ -4522,7 +4522,7 @@
         <v>3.958504848702361</v>
       </c>
       <c r="C378" t="n">
-        <v>0.0005217491322848512</v>
+        <v>0.0005207598494191412</v>
       </c>
     </row>
     <row r="379">
@@ -4533,7 +4533,7 @@
         <v>3.959490683755961</v>
       </c>
       <c r="C379" t="n">
-        <v>0.0005621480480248538</v>
+        <v>0.0005608773219395551</v>
       </c>
     </row>
     <row r="380">
@@ -4544,7 +4544,7 @@
         <v>3.96047651880956</v>
       </c>
       <c r="C380" t="n">
-        <v>0.0005937401745962284</v>
+        <v>0.0005922462088626271</v>
       </c>
     </row>
     <row r="381">
@@ -4555,7 +4555,7 @@
         <v>3.961462353863159</v>
       </c>
       <c r="C381" t="n">
-        <v>0.0006142561147464187</v>
+        <v>0.0006126136024573218</v>
       </c>
     </row>
     <row r="382">
@@ -4566,7 +4566,7 @@
         <v>3.962448188916758</v>
       </c>
       <c r="C382" t="n">
-        <v>0.0006241876132880835</v>
+        <v>0.0006224682782031867</v>
       </c>
     </row>
     <row r="383">
@@ -4577,7 +4577,7 @@
         <v>3.963434023970358</v>
       </c>
       <c r="C383" t="n">
-        <v>0.0006249266739425169</v>
+        <v>0.0006231929260096264</v>
       </c>
     </row>
     <row r="384">
@@ -4588,7 +4588,7 @@
         <v>3.964419859023957</v>
       </c>
       <c r="C384" t="n">
-        <v>0.0006178657958734964</v>
+        <v>0.0006161707277369511</v>
       </c>
     </row>
     <row r="385">
@@ -4599,7 +4599,7 @@
         <v>3.965405694077556</v>
       </c>
       <c r="C385" t="n">
-        <v>0.0006043974782448027</v>
+        <v>0.0006027848652454741</v>
       </c>
     </row>
     <row r="386">
@@ -4610,7 +4610,7 @@
         <v>3.966391529131156</v>
       </c>
       <c r="C386" t="n">
-        <v>0.000585914220220214</v>
+        <v>0.0005844185203955059</v>
       </c>
     </row>
     <row r="387">
@@ -4621,7 +4621,7 @@
         <v>3.967377364184755</v>
       </c>
       <c r="C387" t="n">
-        <v>0.0005638085209634974</v>
+        <v>0.0005624548750473467</v>
       </c>
     </row>
     <row r="388">
@@ -4632,7 +4632,7 @@
         <v>3.968363199238354</v>
       </c>
       <c r="C388" t="n">
-        <v>0.0005394728796384516</v>
+        <v>0.0005382771110613277</v>
       </c>
     </row>
     <row r="389">
@@ -4643,7 +4643,7 @@
         <v>3.969349034291954</v>
       </c>
       <c r="C389" t="n">
-        <v>0.0005142997760698</v>
+        <v>0.0005132683910815719</v>
       </c>
     </row>
     <row r="390">
@@ -4654,7 +4654,7 @@
         <v>3.970334869345553</v>
       </c>
       <c r="C390" t="n">
-        <v>0.0004894224815487027</v>
+        <v>0.0004885543160557036</v>
       </c>
     </row>
     <row r="391">
@@ -4665,7 +4665,7 @@
         <v>3.971320704399152</v>
       </c>
       <c r="C391" t="n">
-        <v>0.0004650652426687212</v>
+        <v>0.000464357237566619</v>
       </c>
     </row>
     <row r="392">
@@ -4676,7 +4676,7 @@
         <v>3.972306539452751</v>
       </c>
       <c r="C392" t="n">
-        <v>0.0004412531477831278</v>
+        <v>0.0004407016142747261</v>
       </c>
     </row>
     <row r="393">
@@ -4687,7 +4687,7 @@
         <v>3.973292374506351</v>
       </c>
       <c r="C393" t="n">
-        <v>0.0004180112852452056</v>
+        <v>0.0004176119048404438</v>
       </c>
     </row>
     <row r="394">
@@ -4698,7 +4698,7 @@
         <v>3.97427820955995</v>
       </c>
       <c r="C394" t="n">
-        <v>0.0003953647434082281</v>
+        <v>0.0003951125679241814</v>
       </c>
     </row>
     <row r="395">
@@ -4709,7 +4709,7 @@
         <v>3.975264044613549</v>
       </c>
       <c r="C395" t="n">
-        <v>0.0003733386106254991</v>
+        <v>0.000373228062186378</v>
       </c>
     </row>
     <row r="396">
@@ -4720,7 +4720,7 @@
         <v>3.976249879667149</v>
       </c>
       <c r="C396" t="n">
-        <v>0.0003519579752502915</v>
+        <v>0.0003519828462874426</v>
       </c>
     </row>
     <row r="397">
@@ -4731,7 +4731,7 @@
         <v>3.977235714720748</v>
       </c>
       <c r="C397" t="n">
-        <v>0.0003312479256358886</v>
+        <v>0.000331401378887794</v>
       </c>
     </row>
     <row r="398">
@@ -4742,7 +4742,7 @@
         <v>3.978221549774347</v>
       </c>
       <c r="C398" t="n">
-        <v>0.0003112335501355651</v>
+        <v>0.0003115081186478427</v>
       </c>
     </row>
     <row r="399">
@@ -4753,7 +4753,7 @@
         <v>3.979207384827947</v>
       </c>
       <c r="C399" t="n">
-        <v>0.0002919399371026223</v>
+        <v>0.0002923275242280257</v>
       </c>
     </row>
     <row r="400">
@@ -4764,7 +4764,7 @@
         <v>3.980193219881546</v>
       </c>
       <c r="C400" t="n">
-        <v>0.0002733921748903343</v>
+        <v>0.0002738840542887526</v>
       </c>
     </row>
     <row r="401">
@@ -4775,7 +4775,7 @@
         <v>3.981179054935145</v>
       </c>
       <c r="C401" t="n">
-        <v>0.0002556153518519766</v>
+        <v>0.0002562021674904351</v>
       </c>
     </row>
     <row r="402">
@@ -4786,7 +4786,7 @@
         <v>3.982164889988745</v>
       </c>
       <c r="C402" t="n">
-        <v>0.0002386345563408488</v>
+        <v>0.000239306322493508</v>
       </c>
     </row>
     <row r="403">
@@ -4797,7 +4797,7 @@
         <v>3.983150725042344</v>
       </c>
       <c r="C403" t="n">
-        <v>0.000222474876710226</v>
+        <v>0.0002232209779583822</v>
       </c>
     </row>
     <row r="404">
@@ -4808,7 +4808,7 @@
         <v>3.984136560095943</v>
       </c>
       <c r="C404" t="n">
-        <v>0.0002071614013133848</v>
+        <v>0.0002079705925454701</v>
       </c>
     </row>
     <row r="405">
@@ -4819,7 +4819,7 @@
         <v>3.985122395149542</v>
       </c>
       <c r="C405" t="n">
-        <v>0.0001927192185036224</v>
+        <v>0.0001935796249152047</v>
       </c>
     </row>
     <row r="406">
@@ -4830,7 +4830,7 @@
         <v>3.986108230203142</v>
       </c>
       <c r="C406" t="n">
-        <v>0.0001791734166342149</v>
+        <v>0.0001800725337279977</v>
       </c>
     </row>
     <row r="407">
@@ -4841,7 +4841,7 @@
         <v>3.987094065256741</v>
       </c>
       <c r="C407" t="n">
-        <v>0.0001665431634860165</v>
+        <v>0.0001674679956330015</v>
       </c>
     </row>
     <row r="408">
@@ -4852,7 +4852,7 @@
         <v>3.98807990031034</v>
       </c>
       <c r="C408" t="n">
-        <v>0.000154808076024679</v>
+        <v>0.0001557460620852955</v>
       </c>
     </row>
     <row r="409">
@@ -4863,7 +4863,7 @@
         <v>3.98906573536394</v>
       </c>
       <c r="C409" t="n">
-        <v>0.000143931566089807</v>
+        <v>0.0001448709586679675</v>
       </c>
     </row>
     <row r="410">
@@ -4874,7 +4874,7 @@
         <v>3.990051570417539</v>
       </c>
       <c r="C410" t="n">
-        <v>0.000133876996563191</v>
+        <v>0.0001348068631520674</v>
       </c>
     </row>
     <row r="411">
@@ -4885,7 +4885,7 @@
         <v>3.991037405471138</v>
       </c>
       <c r="C411" t="n">
-        <v>0.0001246077303266271</v>
+        <v>0.0001255179533086505</v>
       </c>
     </row>
     <row r="412">
@@ -4896,7 +4896,7 @@
         <v>3.992023240524738</v>
       </c>
       <c r="C412" t="n">
-        <v>0.0001160871302619078</v>
+        <v>0.0001169684069087686</v>
       </c>
     </row>
     <row r="413">
@@ -4907,7 +4907,7 @@
         <v>3.993009075578337</v>
       </c>
       <c r="C413" t="n">
-        <v>0.0001082785592508366</v>
+        <v>0.0001091224017234847</v>
       </c>
     </row>
     <row r="414">
@@ -4918,7 +4918,7 @@
         <v>3.993994910631936</v>
       </c>
       <c r="C414" t="n">
-        <v>0.0001011453801752058</v>
+        <v>0.0001019441155238502</v>
       </c>
     </row>
     <row r="415">
@@ -4929,7 +4929,7 @@
         <v>3.994980745685536</v>
       </c>
       <c r="C415" t="n">
-        <v>9.465095591680847e-05</v>
+        <v>9.539772608091755e-05</v>
       </c>
     </row>
     <row r="416">
@@ -4940,7 +4940,7 @@
         <v>3.995966580739135</v>
       </c>
       <c r="C416" t="n">
-        <v>8.875864935744658e-05</v>
+        <v>8.944741116574803e-05</v>
       </c>
     </row>
     <row r="417">
@@ -4951,7 +4951,7 @@
         <v>3.996952415792734</v>
       </c>
       <c r="C417" t="n">
-        <v>8.343182337891313e-05</v>
+        <v>8.405734854939391e-05</v>
       </c>
     </row>
     <row r="418">
@@ -4962,7 +4962,7 @@
         <v>3.997938250846333</v>
       </c>
       <c r="C418" t="n">
-        <v>7.86338408630021e-05</v>
+        <v>7.919171600290847e-05</v>
       </c>
     </row>
     <row r="419">
@@ -4973,7 +4973,7 @@
         <v>3.998924085899933</v>
       </c>
       <c r="C419" t="n">
-        <v>7.432806469151389e-05</v>
+        <v>7.481469129735148e-05</v>
       </c>
     </row>
     <row r="420">
@@ -4984,7 +4984,7 @@
         <v>3.999909920953532</v>
       </c>
       <c r="C420" t="n">
-        <v>7.047785774624226e-05</v>
+        <v>7.089045220377595e-05</v>
       </c>
     </row>
     <row r="421">
@@ -4995,7 +4995,7 @@
         <v>4.000895756007131</v>
       </c>
       <c r="C421" t="n">
-        <v>6.704658290898182e-05</v>
+        <v>6.738317649323576e-05</v>
       </c>
     </row>
     <row r="422">
@@ -5006,7 +5006,7 @@
         <v>4.00188159106073</v>
       </c>
       <c r="C422" t="n">
-        <v>6.399760306153298e-05</v>
+        <v>6.425704193679076e-05</v>
       </c>
     </row>
     <row r="423">
@@ -5017,7 +5017,7 @@
         <v>4.00286742611433</v>
       </c>
       <c r="C423" t="n">
-        <v>6.12942810856863e-05</v>
+        <v>6.147622630549063e-05</v>
       </c>
     </row>
     <row r="424">
@@ -5028,7 +5028,7 @@
         <v>4.003853261167929</v>
       </c>
       <c r="C424" t="n">
-        <v>5.88999798632407e-05</v>
+        <v>5.900490737039367e-05</v>
       </c>
     </row>
     <row r="425">
@@ -5039,7 +5039,7 @@
         <v>4.004839096221528</v>
       </c>
       <c r="C425" t="n">
-        <v>5.677806227599399e-05</v>
+        <v>5.680726290255711e-05</v>
       </c>
     </row>
     <row r="426">
@@ -5050,7 +5050,7 @@
         <v>4.005824931275128</v>
       </c>
       <c r="C426" t="n">
-        <v>5.489189120573837e-05</v>
+        <v>5.484747067303226e-05</v>
       </c>
     </row>
     <row r="427">
@@ -5061,7 +5061,7 @@
         <v>4.006810766328726</v>
       </c>
       <c r="C427" t="n">
-        <v>5.320482953427333e-05</v>
+        <v>5.308970845287807e-05</v>
       </c>
     </row>
     <row r="428">
@@ -5072,7 +5072,7 @@
         <v>4.007796601382326</v>
       </c>
       <c r="C428" t="n">
-        <v>5.168024014339185e-05</v>
+        <v>5.149815401314672e-05</v>
       </c>
     </row>
     <row r="429">
@@ -5083,7 +5083,7 @@
         <v>4.008782436435926</v>
       </c>
       <c r="C429" t="n">
-        <v>5.028148591489158e-05</v>
+        <v>5.003698512489516e-05</v>
       </c>
     </row>
     <row r="430">
@@ -5094,7 +5094,7 @@
         <v>4.009768271489524</v>
       </c>
       <c r="C430" t="n">
-        <v>4.897192973056962e-05</v>
+        <v>4.867037955917991e-05</v>
       </c>
     </row>
     <row r="431">
@@ -5105,7 +5105,7 @@
         <v>4.010754106543124</v>
       </c>
       <c r="C431" t="n">
-        <v>4.771493447221969e-05</v>
+        <v>4.736251508705387e-05</v>
       </c>
     </row>
     <row r="432">
@@ -5116,7 +5116,7 @@
         <v>4.011739941596724</v>
       </c>
       <c r="C432" t="n">
-        <v>4.647386302163902e-05</v>
+        <v>4.607756947957361e-05</v>
       </c>
     </row>
     <row r="433">
@@ -5127,7 +5127,7 @@
         <v>4.012725776650322</v>
       </c>
       <c r="C433" t="n">
-        <v>4.521416399727979e-05</v>
+        <v>4.478173859793575e-05</v>
       </c>
     </row>
     <row r="434">
@@ -5138,7 +5138,7 @@
         <v>4.013711611703922</v>
       </c>
       <c r="C434" t="n">
-        <v>4.392560430927066e-05</v>
+        <v>4.346474788198133e-05</v>
       </c>
     </row>
     <row r="435">
@@ -5149,7 +5149,7 @@
         <v>4.014697446757522</v>
       </c>
       <c r="C435" t="n">
-        <v>4.261367415515122e-05</v>
+        <v>4.213153610695399e-05</v>
       </c>
     </row>
     <row r="436">
@@ -5160,7 +5160,7 @@
         <v>4.01568328181112</v>
       </c>
       <c r="C436" t="n">
-        <v>4.128412732205591e-05</v>
+        <v>4.078729708871393e-05</v>
       </c>
     </row>
     <row r="437">
@@ -5171,7 +5171,7 @@
         <v>4.01666911686472</v>
       </c>
       <c r="C437" t="n">
-        <v>3.99427175971156e-05</v>
+        <v>3.943722464311769e-05</v>
       </c>
     </row>
     <row r="438">
@@ -5182,7 +5182,7 @@
         <v>4.01765495191832</v>
       </c>
       <c r="C438" t="n">
-        <v>3.859519876746478e-05</v>
+        <v>3.808651258602551e-05</v>
       </c>
     </row>
     <row r="439">
@@ -5193,7 +5193,7 @@
         <v>4.018640786971918</v>
       </c>
       <c r="C439" t="n">
-        <v>3.724732462023794e-05</v>
+        <v>3.674035473329758e-05</v>
       </c>
     </row>
     <row r="440">
@@ -5204,7 +5204,7 @@
         <v>4.019626622025518</v>
       </c>
       <c r="C440" t="n">
-        <v>3.59048489425659e-05</v>
+        <v>3.540394490079044e-05</v>
       </c>
     </row>
     <row r="441">
@@ -5215,7 +5215,7 @@
         <v>4.020612457079118</v>
       </c>
       <c r="C441" t="n">
-        <v>3.457352552158317e-05</v>
+        <v>3.408247690436433e-05</v>
       </c>
     </row>
     <row r="442">
@@ -5226,7 +5226,7 @@
         <v>4.021598292132716</v>
       </c>
       <c r="C442" t="n">
-        <v>3.325910814442419e-05</v>
+        <v>3.278114455987937e-05</v>
       </c>
     </row>
     <row r="443">
@@ -5237,7 +5237,7 @@
         <v>4.022584127186316</v>
       </c>
       <c r="C443" t="n">
-        <v>3.196735059821988e-05</v>
+        <v>3.150514168319224e-05</v>
       </c>
     </row>
     <row r="444">
@@ -5248,7 +5248,7 @@
         <v>4.023569962239915</v>
       </c>
       <c r="C444" t="n">
-        <v>3.070400667010582e-05</v>
+        <v>3.02596620901642e-05</v>
       </c>
     </row>
     <row r="445">
@@ -5259,7 +5259,7 @@
         <v>4.024555797293514</v>
       </c>
       <c r="C445" t="n">
-        <v>2.947483014721299e-05</v>
+        <v>2.904989959665199e-05</v>
       </c>
     </row>
     <row r="446">
@@ -5270,7 +5270,7 @@
         <v>4.025541632347114</v>
       </c>
       <c r="C446" t="n">
-        <v>2.828557481667584e-05</v>
+        <v>2.788104801851575e-05</v>
       </c>
     </row>
     <row r="447">
@@ -5281,7 +5281,7 @@
         <v>4.026527467400713</v>
       </c>
       <c r="C447" t="n">
-        <v>2.714199446562866e-05</v>
+        <v>2.675830117161546e-05</v>
       </c>
     </row>
     <row r="448">
@@ -5292,7 +5292,7 @@
         <v>4.027513302454312</v>
       </c>
       <c r="C448" t="n">
-        <v>2.604984288120263e-05</v>
+        <v>2.568685287180807e-05</v>
       </c>
     </row>
     <row r="449">
@@ -5303,7 +5303,7 @@
         <v>4.028499137507912</v>
       </c>
       <c r="C449" t="n">
-        <v>2.501487385053211e-05</v>
+        <v>2.467189693495364e-05</v>
       </c>
     </row>
     <row r="450">
@@ -5314,7 +5314,7 @@
         <v>4.029484972561511</v>
       </c>
       <c r="C450" t="n">
-        <v>2.4042722370723e-05</v>
+        <v>2.371851806824726e-05</v>
       </c>
     </row>
     <row r="451">
@@ -5325,7 +5325,7 @@
         <v>4.03047080761511</v>
       </c>
       <c r="C451" t="n">
-        <v>2.313559123080491e-05</v>
+        <v>2.282864849507836e-05</v>
       </c>
     </row>
     <row r="452">
@@ -5336,7 +5336,7 @@
         <v>4.03145664266871</v>
       </c>
       <c r="C452" t="n">
-        <v>2.229181016683231e-05</v>
+        <v>2.200066303890317e-05</v>
       </c>
     </row>
     <row r="453">
@@ -5347,7 +5347,7 @@
         <v>4.032442477722308</v>
       </c>
       <c r="C453" t="n">
-        <v>2.150950155206397e-05</v>
+        <v>2.123274606040846e-05</v>
       </c>
     </row>
     <row r="454">
@@ -5358,7 +5358,7 @@
         <v>4.033428312775908</v>
       </c>
       <c r="C454" t="n">
-        <v>2.078678775975654e-05</v>
+        <v>2.052308192027895e-05</v>
       </c>
     </row>
     <row r="455">
@@ -5369,7 +5369,7 @@
         <v>4.034414147829507</v>
       </c>
       <c r="C455" t="n">
-        <v>2.012179116316938e-05</v>
+        <v>1.986985497920204e-05</v>
       </c>
     </row>
     <row r="456">
@@ -5380,7 +5380,7 @@
         <v>4.035399982883106</v>
       </c>
       <c r="C456" t="n">
-        <v>1.951263413555939e-05</v>
+        <v>1.927124959786265e-05</v>
       </c>
     </row>
     <row r="457">
@@ -5391,7 +5391,7 @@
         <v>4.036385817936706</v>
       </c>
       <c r="C457" t="n">
-        <v>1.895743905018523e-05</v>
+        <v>1.872545013694753e-05</v>
       </c>
     </row>
     <row r="458">
@@ -5402,7 +5402,7 @@
         <v>4.037371652990305</v>
       </c>
       <c r="C458" t="n">
-        <v>1.845432828030542e-05</v>
+        <v>1.82306409571432e-05</v>
       </c>
     </row>
     <row r="459">
@@ -5413,7 +5413,7 @@
         <v>4.038357488043904</v>
       </c>
       <c r="C459" t="n">
-        <v>1.800142419917711e-05</v>
+        <v>1.778500641913488e-05</v>
       </c>
     </row>
     <row r="460">
@@ -5424,7 +5424,7 @@
         <v>4.039343323097504</v>
       </c>
       <c r="C460" t="n">
-        <v>1.759684918005885e-05</v>
+        <v>1.738673088360913e-05</v>
       </c>
     </row>
     <row r="461">
@@ -5435,7 +5435,7 @@
         <v>4.040329158151103</v>
       </c>
       <c r="C461" t="n">
-        <v>1.7238725596209e-05</v>
+        <v>1.703399871125239e-05</v>
       </c>
     </row>
     <row r="462">
@@ -5446,7 +5446,7 @@
         <v>4.041314993204702</v>
       </c>
       <c r="C462" t="n">
-        <v>1.692517582088499e-05</v>
+        <v>1.672499426275012e-05</v>
       </c>
     </row>
     <row r="463">
@@ -5457,7 +5457,7 @@
         <v>4.042300828258302</v>
       </c>
       <c r="C463" t="n">
-        <v>1.665432222734523e-05</v>
+        <v>1.645790189878876e-05</v>
       </c>
     </row>
     <row r="464">
@@ -5468,7 +5468,7 @@
         <v>4.043286663311901</v>
       </c>
       <c r="C464" t="n">
-        <v>1.642428718884798e-05</v>
+        <v>1.623090598005462e-05</v>
       </c>
     </row>
     <row r="465">
@@ -5479,7 +5479,7 @@
         <v>4.0442724983655</v>
       </c>
       <c r="C465" t="n">
-        <v>1.623319307865088e-05</v>
+        <v>1.60421908672334e-05</v>
       </c>
     </row>
     <row r="466">
@@ -5490,7 +5490,7 @@
         <v>4.0452583334191</v>
       </c>
       <c r="C466" t="n">
-        <v>1.607916227001224e-05</v>
+        <v>1.588994092101143e-05</v>
       </c>
     </row>
     <row r="467">
@@ -5501,7 +5501,7 @@
         <v>4.046244168472699</v>
       </c>
       <c r="C467" t="n">
-        <v>1.596031713619021e-05</v>
+        <v>1.577234050207491e-05</v>
       </c>
     </row>
     <row r="468">
@@ -5512,7 +5512,7 @@
         <v>4.047230003526298</v>
       </c>
       <c r="C468" t="n">
-        <v>1.587478005044264e-05</v>
+        <v>1.568757397110974e-05</v>
       </c>
     </row>
     <row r="469">
@@ -5523,7 +5523,7 @@
         <v>4.048215838579897</v>
       </c>
       <c r="C469" t="n">
-        <v>1.582067338602776e-05</v>
+        <v>1.563382568880219e-05</v>
       </c>
     </row>
     <row r="470">
@@ -5534,7 +5534,7 @@
         <v>4.049201673633497</v>
       </c>
       <c r="C470" t="n">
-        <v>1.579611951620355e-05</v>
+        <v>1.560928001583827e-05</v>
       </c>
     </row>
     <row r="471">
@@ -5545,7 +5545,7 @@
         <v>4.050187508687096</v>
       </c>
       <c r="C471" t="n">
-        <v>1.579924081422812e-05</v>
+        <v>1.561212131290416e-05</v>
       </c>
     </row>
     <row r="472">
@@ -5556,7 +5556,7 @@
         <v>4.051173343740695</v>
       </c>
       <c r="C472" t="n">
-        <v>1.582815965335951e-05</v>
+        <v>1.564053394068592e-05</v>
       </c>
     </row>
     <row r="473">
@@ -5567,7 +5567,7 @@
         <v>4.052159178794295</v>
       </c>
       <c r="C473" t="n">
-        <v>1.588099840685584e-05</v>
+        <v>1.569270225986972e-05</v>
       </c>
     </row>
     <row r="474">
@@ -5578,7 +5578,7 @@
         <v>4.053145013847894</v>
       </c>
       <c r="C474" t="n">
-        <v>1.595587944797517e-05</v>
+        <v>1.576681063114166e-05</v>
       </c>
     </row>
     <row r="475">
@@ -5589,7 +5589,7 @@
         <v>4.054130848901493</v>
       </c>
       <c r="C475" t="n">
-        <v>1.605092514997546e-05</v>
+        <v>1.586104341518775e-05</v>
       </c>
     </row>
     <row r="476">
@@ -5600,7 +5600,7 @@
         <v>4.055116683955093</v>
       </c>
       <c r="C476" t="n">
-        <v>1.616425788611496e-05</v>
+        <v>1.597358497269427e-05</v>
       </c>
     </row>
     <row r="477">
@@ -5611,7 +5611,7 @@
         <v>4.056102519008692</v>
       </c>
       <c r="C477" t="n">
-        <v>1.629400002965165e-05</v>
+        <v>1.610261966434726e-05</v>
       </c>
     </row>
     <row r="478">
@@ -5622,7 +5622,7 @@
         <v>4.057088354062291</v>
       </c>
       <c r="C478" t="n">
-        <v>1.643827395384347e-05</v>
+        <v>1.62463318508327e-05</v>
       </c>
     </row>
     <row r="479">
@@ -5633,7 +5633,7 @@
         <v>4.05807418911589</v>
       </c>
       <c r="C479" t="n">
-        <v>1.659520203194875e-05</v>
+        <v>1.640290589283694e-05</v>
       </c>
     </row>
     <row r="480">
@@ -5644,7 +5644,7 @@
         <v>4.05906002416949</v>
       </c>
       <c r="C480" t="n">
-        <v>1.676290663722542e-05</v>
+        <v>1.657052615104598e-05</v>
       </c>
     </row>
     <row r="481">
@@ -5655,7 +5655,7 @@
         <v>4.060045859223089</v>
       </c>
       <c r="C481" t="n">
-        <v>1.693951014293139e-05</v>
+        <v>1.674737698614576e-05</v>
       </c>
     </row>
     <row r="482">
@@ -5666,7 +5666,7 @@
         <v>4.061031694276688</v>
       </c>
       <c r="C482" t="n">
-        <v>1.712313492232505e-05</v>
+        <v>1.693164275882273e-05</v>
       </c>
     </row>
     <row r="483">
@@ -5677,7 +5677,7 @@
         <v>4.062017529330287</v>
       </c>
       <c r="C483" t="n">
-        <v>1.731190334866414e-05</v>
+        <v>1.712150782976265e-05</v>
       </c>
     </row>
     <row r="484">
@@ -5688,7 +5688,7 @@
         <v>4.063003364383887</v>
       </c>
       <c r="C484" t="n">
-        <v>1.750393779520706e-05</v>
+        <v>1.731515655965198e-05</v>
       </c>
     </row>
     <row r="485">
@@ -5699,7 +5699,7 @@
         <v>4.063989199437486</v>
       </c>
       <c r="C485" t="n">
-        <v>1.769759597515159e-05</v>
+        <v>1.751100664729659e-05</v>
       </c>
     </row>
     <row r="486">
@@ -5710,7 +5710,7 @@
         <v>4.064975034491085</v>
       </c>
       <c r="C486" t="n">
-        <v>1.789483108985067e-05</v>
+        <v>1.771104069615408e-05</v>
       </c>
     </row>
     <row r="487">
@@ -5721,7 +5721,7 @@
         <v>4.065960869544685</v>
       </c>
       <c r="C487" t="n">
-        <v>1.810040255205865e-05</v>
+        <v>1.792002365122983e-05</v>
       </c>
     </row>
     <row r="488">
@@ -5732,7 +5732,7 @@
         <v>4.066946704598284</v>
       </c>
       <c r="C488" t="n">
-        <v>1.831914421323199e-05</v>
+        <v>1.814279426304982e-05</v>
       </c>
     </row>
     <row r="489">
@@ -5743,7 +5743,7 @@
         <v>4.067932539651883</v>
       </c>
       <c r="C489" t="n">
-        <v>1.855588992482705e-05</v>
+        <v>1.838419128214004e-05</v>
       </c>
     </row>
     <row r="490">
@@ -5754,7 +5754,7 @@
         <v>4.068918374705483</v>
       </c>
       <c r="C490" t="n">
-        <v>1.881547353830089e-05</v>
+        <v>1.864905345902709e-05</v>
       </c>
     </row>
     <row r="491">
@@ -5765,7 +5765,7 @@
         <v>4.069904209759082</v>
       </c>
       <c r="C491" t="n">
-        <v>1.910272890510991e-05</v>
+        <v>1.894221954423696e-05</v>
       </c>
     </row>
     <row r="492">
@@ -5776,7 +5776,7 @@
         <v>4.070890044812681</v>
       </c>
       <c r="C492" t="n">
-        <v>1.942248987671043e-05</v>
+        <v>1.926852828829553e-05</v>
       </c>
     </row>
     <row r="493">
@@ -5787,7 +5787,7 @@
         <v>4.071875879866281</v>
       </c>
       <c r="C493" t="n">
-        <v>1.977959030455962e-05</v>
+        <v>1.963281844172957e-05</v>
       </c>
     </row>
     <row r="494">
@@ -5798,7 +5798,7 @@
         <v>4.072861714919879</v>
       </c>
       <c r="C494" t="n">
-        <v>2.017886404011346e-05</v>
+        <v>2.003992875506461e-05</v>
       </c>
     </row>
     <row r="495">
@@ -5809,7 +5809,7 @@
         <v>4.073847549973479</v>
       </c>
       <c r="C495" t="n">
-        <v>2.062514493482926e-05</v>
+        <v>2.049469797882755e-05</v>
       </c>
     </row>
     <row r="496">
@@ -5820,7 +5820,7 @@
         <v>4.074833385027079</v>
       </c>
       <c r="C496" t="n">
-        <v>2.11232668401633e-05</v>
+        <v>2.100196486354425e-05</v>
       </c>
     </row>
     <row r="497">
@@ -5831,7 +5831,7 @@
         <v>4.075819220080677</v>
       </c>
       <c r="C497" t="n">
-        <v>2.167806360757168e-05</v>
+        <v>2.156656815974036e-05</v>
       </c>
     </row>
     <row r="498">
@@ -5842,7 +5842,7 @@
         <v>4.076805055134277</v>
       </c>
       <c r="C498" t="n">
-        <v>2.2294369088512e-05</v>
+        <v>2.219334661794308e-05</v>
       </c>
     </row>
     <row r="499">
@@ -5853,7 +5853,7 @@
         <v>4.077790890187877</v>
       </c>
       <c r="C499" t="n">
-        <v>2.29770171344404e-05</v>
+        <v>2.288713898867811e-05</v>
       </c>
     </row>
     <row r="500">
@@ -5864,7 +5864,7 @@
         <v>4.078776725241475</v>
       </c>
       <c r="C500" t="n">
-        <v>2.373084159681278e-05</v>
+        <v>2.365278402247092e-05</v>
       </c>
     </row>
     <row r="501">
@@ -5875,7 +5875,7 @@
         <v>4.079762560295075</v>
       </c>
       <c r="C501" t="n">
-        <v>2.456067632708711e-05</v>
+        <v>2.449512046984908e-05</v>
       </c>
     </row>
     <row r="502">
@@ -5886,7 +5886,7 @@
         <v>4.080748395348675</v>
       </c>
       <c r="C502" t="n">
-        <v>2.547135517671936e-05</v>
+        <v>2.541898708133812e-05</v>
       </c>
     </row>
     <row r="503">
@@ -5897,7 +5897,7 @@
         <v>4.081734230402273</v>
       </c>
       <c r="C503" t="n">
-        <v>2.64677119971652e-05</v>
+        <v>2.642922260746328e-05</v>
       </c>
     </row>
     <row r="504">
@@ -5908,7 +5908,7 @@
         <v>4.082720065455873</v>
       </c>
       <c r="C504" t="n">
-        <v>2.755458063988304e-05</v>
+        <v>2.753066579875256e-05</v>
       </c>
     </row>
     <row r="505">
@@ -5919,7 +5919,7 @@
         <v>4.083705900509472</v>
       </c>
       <c r="C505" t="n">
-        <v>2.873679495632865e-05</v>
+        <v>2.872815540573128e-05</v>
       </c>
     </row>
     <row r="506">
@@ -5930,7 +5930,7 @@
         <v>4.084691735563071</v>
       </c>
       <c r="C506" t="n">
-        <v>3.001918879795742e-05</v>
+        <v>3.002653017892442e-05</v>
       </c>
     </row>
     <row r="507">
@@ -5941,7 +5941,7 @@
         <v>4.085677570616671</v>
       </c>
       <c r="C507" t="n">
-        <v>3.14074901587854e-05</v>
+        <v>3.143151253676988e-05</v>
       </c>
     </row>
     <row r="508">
@@ -5952,7 +5952,7 @@
         <v>4.08666340567027</v>
       </c>
       <c r="C508" t="n">
-        <v>3.291704272445861e-05</v>
+        <v>3.295832794400633e-05</v>
       </c>
     </row>
     <row r="509">
@@ -5963,7 +5963,7 @@
         <v>4.087649240723869</v>
       </c>
       <c r="C509" t="n">
-        <v>3.456904305133106e-05</v>
+        <v>3.462798617122081e-05</v>
       </c>
     </row>
     <row r="510">
@@ -5974,7 +5974,7 @@
         <v>4.088635075777469</v>
       </c>
       <c r="C510" t="n">
-        <v>3.638477062841748e-05</v>
+        <v>3.646157895012656e-05</v>
       </c>
     </row>
     <row r="511">
@@ -5985,7 +5985,7 @@
         <v>4.089620910831067</v>
       </c>
       <c r="C511" t="n">
-        <v>3.838550494472633e-05</v>
+        <v>3.848019801243051e-05</v>
       </c>
     </row>
     <row r="512">
@@ -5996,7 +5996,7 @@
         <v>4.090606745884667</v>
       </c>
       <c r="C512" t="n">
-        <v>4.059252548927297e-05</v>
+        <v>4.070493508984656e-05</v>
       </c>
     </row>
     <row r="513">
@@ -6007,7 +6007,7 @@
         <v>4.091592580938267</v>
       </c>
       <c r="C513" t="n">
-        <v>4.302711175106748e-05</v>
+        <v>4.315688191408326e-05</v>
       </c>
     </row>
     <row r="514">
@@ -6018,7 +6018,7 @@
         <v>4.092578415991865</v>
       </c>
       <c r="C514" t="n">
-        <v>4.571054321911907e-05</v>
+        <v>4.58571302168483e-05</v>
       </c>
     </row>
     <row r="515">
@@ -6029,7 +6029,7 @@
         <v>4.093564251045465</v>
       </c>
       <c r="C515" t="n">
-        <v>4.866409938244435e-05</v>
+        <v>4.882677172985681e-05</v>
       </c>
     </row>
     <row r="516">
@@ -6040,7 +6040,7 @@
         <v>4.094550086099065</v>
       </c>
       <c r="C516" t="n">
-        <v>5.190905973005278e-05</v>
+        <v>5.208689818481677e-05</v>
       </c>
     </row>
     <row r="517">
@@ -6051,7 +6051,7 @@
         <v>4.095535921152663</v>
       </c>
       <c r="C517" t="n">
-        <v>5.546670375095278e-05</v>
+        <v>5.565860131343504e-05</v>
       </c>
     </row>
     <row r="518">
@@ -6062,7 +6062,7 @@
         <v>4.096521756206263</v>
       </c>
       <c r="C518" t="n">
-        <v>5.935831093416256e-05</v>
+        <v>5.956297284742836e-05</v>
       </c>
     </row>
     <row r="519">
@@ -6073,7 +6073,7 @@
         <v>4.097507591259863</v>
       </c>
       <c r="C519" t="n">
-        <v>6.360516076869078e-05</v>
+        <v>6.382110451850392e-05</v>
       </c>
     </row>
     <row r="520">
@@ -6084,7 +6084,7 @@
         <v>4.098493426313461</v>
       </c>
       <c r="C520" t="n">
-        <v>6.822933391110582e-05</v>
+        <v>6.84548492160336e-05</v>
       </c>
     </row>
     <row r="521">
@@ -6095,7 +6095,7 @@
         <v>4.099479261367061</v>
       </c>
       <c r="C521" t="n">
-        <v>7.325841807469774e-05</v>
+        <v>7.349129186653838e-05</v>
       </c>
     </row>
     <row r="522">
@@ -6106,7 +6106,7 @@
         <v>4.10046509642066</v>
       </c>
       <c r="C522" t="n">
-        <v>7.872231604987588e-05</v>
+        <v>7.895971685989984e-05</v>
       </c>
     </row>
     <row r="523">
@@ -6117,7 +6117,7 @@
         <v>4.101450931474259</v>
       </c>
       <c r="C523" t="n">
-        <v>8.465093863853179e-05</v>
+        <v>8.488941619739348e-05</v>
       </c>
     </row>
     <row r="524">
@@ -6128,7 +6128,7 @@
         <v>4.102436766527859</v>
       </c>
       <c r="C524" t="n">
-        <v>9.107419664254246e-05</v>
+        <v>9.13096818802802e-05</v>
       </c>
     </row>
     <row r="525">
@@ -6139,7 +6139,7 @@
         <v>4.103422601581458</v>
       </c>
       <c r="C525" t="n">
-        <v>9.802200086378312e-05</v>
+        <v>9.824980590981916e-05</v>
       </c>
     </row>
     <row r="526">
@@ -6150,7 +6150,7 @@
         <v>4.104408436635057</v>
       </c>
       <c r="C526" t="n">
-        <v>0.0001055242621041479</v>
+        <v>0.0001057390802872885</v>
       </c>
     </row>
     <row r="527">
@@ -6161,7 +6161,7 @@
         <v>4.105394271688657</v>
       </c>
       <c r="C527" t="n">
-        <v>0.0001136108911655126</v>
+        <v>0.0001138067970139477</v>
       </c>
     </row>
     <row r="528">
@@ -6172,7 +6172,7 @@
         <v>4.106380106742256</v>
       </c>
       <c r="C528" t="n">
-        <v>0.0001223117988497508</v>
+        <v>0.0001224822480910544</v>
       </c>
     </row>
     <row r="529">
@@ -6183,7 +6183,7 @@
         <v>4.107365941795855</v>
       </c>
       <c r="C529" t="n">
-        <v>0.0001316228843964286</v>
+        <v>0.0001317609807181163</v>
       </c>
     </row>
     <row r="530">
@@ -6194,7 +6194,7 @@
         <v>4.108351776849455</v>
       </c>
       <c r="C530" t="n">
-        <v>0.0001413847255749122</v>
+        <v>0.0001414844388466906</v>
       </c>
     </row>
     <row r="531">
@@ -6205,7 +6205,7 @@
         <v>4.109337611903054</v>
       </c>
       <c r="C531" t="n">
-        <v>0.0001513935872222521</v>
+        <v>0.0001514501010526062</v>
       </c>
     </row>
     <row r="532">
@@ -6216,7 +6216,7 @@
         <v>4.110323446956653</v>
       </c>
       <c r="C532" t="n">
-        <v>0.0001614457308316491</v>
+        <v>0.0001614554425940689</v>
       </c>
     </row>
     <row r="533">
@@ -6227,7 +6227,7 @@
         <v>4.111309282010252</v>
       </c>
       <c r="C533" t="n">
-        <v>0.0001713374178962681</v>
+        <v>0.000171297938729249</v>
       </c>
     </row>
     <row r="534">
@@ -6238,7 +6238,7 @@
         <v>4.112295117063852</v>
       </c>
       <c r="C534" t="n">
-        <v>0.0001808649099093099</v>
+        <v>0.0001807750647163523</v>
       </c>
     </row>
     <row r="535">
@@ -6249,7 +6249,7 @@
         <v>4.113280952117451</v>
       </c>
       <c r="C535" t="n">
-        <v>0.0001898244683639481</v>
+        <v>0.0001896842958135576</v>
       </c>
     </row>
     <row r="536">
@@ -6260,7 +6260,7 @@
         <v>4.11426678717105</v>
       </c>
       <c r="C536" t="n">
-        <v>0.0001980123547533582</v>
+        <v>0.0001978231072790457</v>
       </c>
     </row>
     <row r="537">
@@ -6271,7 +6271,7 @@
         <v>4.115252622224649</v>
       </c>
       <c r="C537" t="n">
-        <v>0.0002052248305707381</v>
+        <v>0.0002049889743710194</v>
       </c>
     </row>
     <row r="538">
@@ -6282,7 +6282,7 @@
         <v>4.116238457278249</v>
       </c>
       <c r="C538" t="n">
-        <v>0.0002112581573092626</v>
+        <v>0.0002109793723476587</v>
       </c>
     </row>
     <row r="539">
@@ -6293,7 +6293,7 @@
         <v>4.117224292331848</v>
       </c>
       <c r="C539" t="n">
-        <v>0.0002159085964621107</v>
+        <v>0.000215591776467148</v>
       </c>
     </row>
     <row r="540">
@@ -6304,7 +6304,7 @@
         <v>4.118210127385447</v>
       </c>
       <c r="C540" t="n">
-        <v>0.0002189724095224738</v>
+        <v>0.0002186236619876836</v>
       </c>
     </row>
     <row r="541">
@@ -6315,7 +6315,7 @@
         <v>4.119195962439047</v>
       </c>
       <c r="C541" t="n">
-        <v>0.0002202458579835296</v>
+        <v>0.0002198725041674484</v>
       </c>
     </row>
     <row r="542">
@@ -6326,7 +6326,7 @@
         <v>4.120181797492646</v>
       </c>
       <c r="C542" t="n">
-        <v>0.0002195252033384625</v>
+        <v>0.0002191357782646321</v>
       </c>
     </row>
     <row r="543">
@@ -6337,7 +6337,7 @@
         <v>4.121167632546245</v>
       </c>
       <c r="C543" t="n">
-        <v>0.0002166067070804539</v>
+        <v>0.0002162109595374211</v>
       </c>
     </row>
     <row r="544">
@@ -6348,7 +6348,7 @@
         <v>4.122153467599845</v>
       </c>
       <c r="C544" t="n">
-        <v>0.0002112866307026863</v>
+        <v>0.0002108955232440032</v>
       </c>
     </row>
     <row r="545">
@@ -6359,7 +6359,7 @@
         <v>4.123139302653444</v>
       </c>
       <c r="C545" t="n">
-        <v>0.0002033612356983506</v>
+        <v>0.0002029869446425744</v>
       </c>
     </row>
     <row r="546">
@@ -6370,7 +6370,7 @@
         <v>4.124125137707043</v>
       </c>
       <c r="C546" t="n">
-        <v>0.0001926962069346295</v>
+        <v>0.0001923517442982193</v>
       </c>
     </row>
     <row r="547">
@@ -6381,7 +6381,7 @@
         <v>4.125110972760643</v>
       </c>
       <c r="C547" t="n">
-        <v>0.0001796226486459906</v>
+        <v>0.0001793193275538492</v>
       </c>
     </row>
     <row r="548">
@@ -6392,7 +6392,7 @@
         <v>4.126096807814242</v>
       </c>
       <c r="C548" t="n">
-        <v>0.0001646629749775092</v>
+        <v>0.0001644093678239085</v>
       </c>
     </row>
     <row r="549">
@@ -6403,7 +6403,7 @@
         <v>4.127082642867841</v>
       </c>
       <c r="C549" t="n">
-        <v>0.0001483401881996165</v>
+        <v>0.0001481421234453742</v>
       </c>
     </row>
     <row r="550">
@@ -6414,7 +6414,7 @@
         <v>4.12806847792144</v>
       </c>
       <c r="C550" t="n">
-        <v>0.0001311772905828002</v>
+        <v>0.0001310378527552784</v>
       </c>
     </row>
     <row r="551">
@@ -6425,7 +6425,7 @@
         <v>4.12905431297504</v>
       </c>
       <c r="C551" t="n">
-        <v>0.0001136972843974874</v>
+        <v>0.0001136168140905941</v>
       </c>
     </row>
     <row r="552">
@@ -6436,7 +6436,7 @@
         <v>4.130040148028639</v>
       </c>
       <c r="C552" t="n">
-        <v>9.642317191415242e-05</v>
+        <v>9.639926578834023e-05</v>
       </c>
     </row>
     <row r="553">
@@ -6447,7 +6447,7 @@
         <v>4.131025983082238</v>
       </c>
       <c r="C553" t="n">
-        <v>7.987795540326836e-05</v>
+        <v>7.990546618553527e-05</v>
       </c>
     </row>
     <row r="554">
@@ -6458,7 +6458,7 @@
         <v>4.132011818135838</v>
       </c>
       <c r="C554" t="n">
-        <v>6.458463713526397e-05</v>
+        <v>6.465567361915313e-05</v>
       </c>
     </row>
     <row r="555">
@@ -6469,7 +6469,7 @@
         <v>4.132997653189437</v>
       </c>
       <c r="C555" t="n">
-        <v>5.106621938061338e-05</v>
+        <v>5.117014642621309e-05</v>
       </c>
     </row>
     <row r="556">
@@ -6480,7 +6480,7 @@
         <v>4.133983488243036</v>
       </c>
       <c r="C556" t="n">
-        <v>3.98453000141105e-05</v>
+        <v>3.996874096392162e-05</v>
       </c>
     </row>
     <row r="557">
@@ -6491,7 +6491,7 @@
         <v>4.134969323296636</v>
       </c>
       <c r="C557" t="n">
-        <v>3.122048485644449e-05</v>
+        <v>3.134865966816098e-05</v>
       </c>
     </row>
     <row r="558">
@@ -6502,7 +6502,7 @@
         <v>4.135955158350235</v>
       </c>
       <c r="C558" t="n">
-        <v>2.489481292595791e-05</v>
+        <v>2.501509609984281e-05</v>
       </c>
     </row>
     <row r="559">
@@ -6513,7 +6513,7 @@
         <v>4.136940993403834</v>
       </c>
       <c r="C559" t="n">
-        <v>2.047343395821085e-05</v>
+        <v>2.057593932952873e-05</v>
       </c>
     </row>
     <row r="560">
@@ -6524,7 +6524,7 @@
         <v>4.137926828457434</v>
       </c>
       <c r="C560" t="n">
-        <v>1.756149768875253e-05</v>
+        <v>1.763907842776943e-05</v>
       </c>
     </row>
     <row r="561">
@@ -6535,7 +6535,7 @@
         <v>4.138912663511032</v>
       </c>
       <c r="C561" t="n">
-        <v>1.576415385314584e-05</v>
+        <v>1.581240246512931e-05</v>
       </c>
     </row>
     <row r="562">
@@ -6546,7 +6546,7 @@
         <v>4.139898498564632</v>
       </c>
       <c r="C562" t="n">
-        <v>1.468655218694468e-05</v>
+        <v>1.470380051216375e-05</v>
       </c>
     </row>
     <row r="563">
@@ -6557,7 +6557,7 @@
         <v>4.140884333618231</v>
       </c>
       <c r="C563" t="n">
-        <v>1.393514627045421e-05</v>
+        <v>1.392245604447166e-05</v>
       </c>
     </row>
     <row r="564">
@@ -6568,7 +6568,7 @@
         <v>4.14187016867183</v>
       </c>
       <c r="C564" t="n">
-        <v>1.324592238608705e-05</v>
+        <v>1.320614743573279e-05</v>
       </c>
     </row>
     <row r="565">
@@ -6579,7 +6579,7 @@
         <v>4.14285600372543</v>
       </c>
       <c r="C565" t="n">
-        <v>1.25925251283241e-05</v>
+        <v>1.252859074888409e-05</v>
       </c>
     </row>
     <row r="566">
@@ -6590,7 +6590,7 @@
         <v>4.143841838779029</v>
       </c>
       <c r="C566" t="n">
-        <v>1.197405796451225e-05</v>
+        <v>1.188877659999236e-05</v>
       </c>
     </row>
     <row r="567">
@@ -6601,7 +6601,7 @@
         <v>4.144827673832628</v>
       </c>
       <c r="C567" t="n">
-        <v>1.13896243619983e-05</v>
+        <v>1.128569560512429e-05</v>
       </c>
     </row>
     <row r="568">
@@ -6612,7 +6612,7 @@
         <v>4.145813508886228</v>
       </c>
       <c r="C568" t="n">
-        <v>1.083832778812746e-05</v>
+        <v>1.071833838034493e-05</v>
       </c>
     </row>
     <row r="569">
@@ -6623,7 +6623,7 @@
         <v>4.146799343939827</v>
       </c>
       <c r="C569" t="n">
-        <v>1.031927171024657e-05</v>
+        <v>1.0185695541721e-05</v>
       </c>
     </row>
     <row r="570">
@@ -6634,7 +6634,7 @@
         <v>4.147785178993426</v>
       </c>
       <c r="C570" t="n">
-        <v>9.831559595702321e-06</v>
+        <v>9.686757705319079e-06</v>
       </c>
     </row>
     <row r="571">
@@ -6645,7 +6645,7 @@
         <v>4.148771014047026</v>
       </c>
       <c r="C571" t="n">
-        <v>9.374294911840108e-06</v>
+        <v>9.22051548720442e-06</v>
       </c>
     </row>
     <row r="572">
@@ -6656,7 +6656,7 @@
         <v>4.149756849100625</v>
       </c>
       <c r="C572" t="n">
-        <v>8.946581126006662e-06</v>
+        <v>8.785959503443636e-06</v>
       </c>
     </row>
     <row r="573">
@@ -6667,7 +6667,7 @@
         <v>4.150742684154224</v>
       </c>
       <c r="C573" t="n">
-        <v>8.547521705548614e-06</v>
+        <v>8.382080370103229e-06</v>
       </c>
     </row>
     <row r="574">
@@ -6678,7 +6678,7 @@
         <v>4.151728519207824</v>
       </c>
       <c r="C574" t="n">
-        <v>8.176220117811512e-06</v>
+        <v>8.007868703248619e-06</v>
       </c>
     </row>
     <row r="575">
@@ -6689,7 +6689,7 @@
         <v>4.152714354261423</v>
       </c>
       <c r="C575" t="n">
-        <v>7.831779830142005e-06</v>
+        <v>7.662315118946332e-06</v>
       </c>
     </row>
     <row r="576">
@@ -6700,7 +6700,7 @@
         <v>4.153700189315022</v>
       </c>
       <c r="C576" t="n">
-        <v>7.513304309886651e-06</v>
+        <v>7.344410233262798e-06</v>
       </c>
     </row>
     <row r="577">
@@ -6711,7 +6711,7 @@
         <v>4.154686024368622</v>
       </c>
       <c r="C577" t="n">
-        <v>7.219897024391148e-06</v>
+        <v>7.053144662263589e-06</v>
       </c>
     </row>
     <row r="578">
@@ -6722,7 +6722,7 @@
         <v>4.15567185942222</v>
       </c>
       <c r="C578" t="n">
-        <v>6.950661441002306e-06</v>
+        <v>6.787509022015384e-06</v>
       </c>
     </row>
     <row r="579">
@@ -6733,7 +6733,7 @@
         <v>4.15665769447582</v>
       </c>
       <c r="C579" t="n">
-        <v>6.704701027065914e-06</v>
+        <v>6.546493928583853e-06</v>
       </c>
     </row>
     <row r="580">
@@ -6744,7 +6744,7 @@
         <v>4.15764352952942</v>
       </c>
       <c r="C580" t="n">
-        <v>6.481119249928502e-06</v>
+        <v>6.329089998035398e-06</v>
       </c>
     </row>
     <row r="581">
@@ -6755,7 +6755,7 @@
         <v>4.158629364583018</v>
       </c>
       <c r="C581" t="n">
-        <v>6.279019576936521e-06</v>
+        <v>6.134287846436335e-06</v>
       </c>
     </row>
     <row r="582">
@@ -6766,7 +6766,7 @@
         <v>4.159615199636618</v>
       </c>
       <c r="C582" t="n">
-        <v>6.097505475435882e-06</v>
+        <v>5.961078089852461e-06</v>
       </c>
     </row>
     <row r="583">
@@ -6777,7 +6777,7 @@
         <v>4.160601034690218</v>
       </c>
       <c r="C583" t="n">
-        <v>5.935680412773051e-06</v>
+        <v>5.808451344350113e-06</v>
       </c>
     </row>
     <row r="584">
@@ -6788,7 +6788,7 @@
         <v>4.161586869743816</v>
       </c>
       <c r="C584" t="n">
-        <v>5.792647856294426e-06</v>
+        <v>5.675398225995548e-06</v>
       </c>
     </row>
     <row r="585">
@@ -6799,7 +6799,7 @@
         <v>4.162572704797416</v>
       </c>
       <c r="C585" t="n">
-        <v>5.66751127334603e-06</v>
+        <v>5.560909350854682e-06</v>
       </c>
     </row>
     <row r="586">
@@ -6810,7 +6810,7 @@
         <v>4.163558539851016</v>
       </c>
       <c r="C586" t="n">
-        <v>5.559374131274273e-06</v>
+        <v>5.463975334993793e-06</v>
       </c>
     </row>
     <row r="587">
@@ -6821,7 +6821,7 @@
         <v>4.164544374904614</v>
       </c>
       <c r="C587" t="n">
-        <v>5.467339897425505e-06</v>
+        <v>5.383586794479092e-06</v>
       </c>
     </row>
     <row r="588">
@@ -6832,7 +6832,7 @@
         <v>4.165530209958214</v>
       </c>
       <c r="C588" t="n">
-        <v>5.39051203914584e-06</v>
+        <v>5.318734345376587e-06</v>
       </c>
     </row>
     <row r="589">
@@ -6843,7 +6843,7 @@
         <v>4.166516045011813</v>
       </c>
       <c r="C589" t="n">
-        <v>5.327994023781692e-06</v>
+        <v>5.268408603752544e-06</v>
       </c>
     </row>
     <row r="590">
@@ -6854,7 +6854,7 @@
         <v>4.167501880065412</v>
       </c>
       <c r="C590" t="n">
-        <v>5.278889318679231e-06</v>
+        <v>5.231600185673028e-06</v>
       </c>
     </row>
     <row r="591">
@@ -6865,7 +6865,7 @@
         <v>4.168487715119012</v>
       </c>
       <c r="C591" t="n">
-        <v>5.24230139118479e-06</v>
+        <v>5.207299707204234e-06</v>
       </c>
     </row>
     <row r="592">
@@ -6876,7 +6876,7 @@
         <v>4.169473550172611</v>
       </c>
       <c r="C592" t="n">
-        <v>5.217333708644665e-06</v>
+        <v>5.194497784412323e-06</v>
       </c>
     </row>
     <row r="593">
@@ -6887,7 +6887,7 @@
         <v>4.17045938522621</v>
       </c>
       <c r="C593" t="n">
-        <v>5.203089738405088e-06</v>
+        <v>5.192185033363421e-06</v>
       </c>
     </row>
     <row r="594">
@@ -6898,7 +6898,7 @@
         <v>4.17144522027981</v>
       </c>
       <c r="C594" t="n">
-        <v>5.198672947812361e-06</v>
+        <v>5.199352070123693e-06</v>
       </c>
     </row>
     <row r="595">
@@ -6909,7 +6909,7 @@
         <v>4.172431055333409</v>
       </c>
       <c r="C595" t="n">
-        <v>5.203186804212753e-06</v>
+        <v>5.214989510759271e-06</v>
       </c>
     </row>
     <row r="596">
@@ -6920,7 +6920,7 @@
         <v>4.173416890387008</v>
       </c>
       <c r="C596" t="n">
-        <v>5.215734774952549e-06</v>
+        <v>5.238087971336336e-06</v>
       </c>
     </row>
     <row r="597">
@@ -6931,7 +6931,7 @@
         <v>4.174402725440608</v>
       </c>
       <c r="C597" t="n">
-        <v>5.235420327378028e-06</v>
+        <v>5.267638067921025e-06</v>
       </c>
     </row>
     <row r="598">
@@ -6942,7 +6942,7 @@
         <v>4.175388560494206</v>
       </c>
       <c r="C598" t="n">
-        <v>5.261346928835437e-06</v>
+        <v>5.302630416579455e-06</v>
       </c>
     </row>
     <row r="599">
@@ -6953,7 +6953,7 @@
         <v>4.176374395547806</v>
       </c>
       <c r="C599" t="n">
-        <v>5.2926180466711e-06</v>
+        <v>5.342055633377838e-06</v>
       </c>
     </row>
     <row r="600">
@@ -6964,7 +6964,7 @@
         <v>4.177360230601405</v>
       </c>
       <c r="C600" t="n">
-        <v>5.328337148231239e-06</v>
+        <v>5.384904334382257e-06</v>
       </c>
     </row>
     <row r="601">
@@ -6975,7 +6975,7 @@
         <v>4.178346065655004</v>
       </c>
       <c r="C601" t="n">
-        <v>5.367607700862194e-06</v>
+        <v>5.430167135658937e-06</v>
       </c>
     </row>
     <row r="602">
@@ -6986,7 +6986,7 @@
         <v>4.179331900708604</v>
       </c>
       <c r="C602" t="n">
-        <v>5.409533171910215e-06</v>
+        <v>5.476834653273993e-06</v>
       </c>
     </row>
     <row r="603">
@@ -6997,7 +6997,7 @@
         <v>4.180317735762203</v>
       </c>
       <c r="C603" t="n">
-        <v>5.453217395308182e-06</v>
+        <v>5.523897915852091e-06</v>
       </c>
     </row>
     <row r="604">
@@ -7008,7 +7008,7 @@
         <v>4.181303570815802</v>
       </c>
       <c r="C604" t="n">
-        <v>5.498147689931034e-06</v>
+        <v>5.570779528007677e-06</v>
       </c>
     </row>
     <row r="605">
@@ -7019,7 +7019,7 @@
         <v>4.182289405869402</v>
       </c>
       <c r="C605" t="n">
-        <v>5.544920893586716e-06</v>
+        <v>5.618150752853068e-06</v>
       </c>
     </row>
     <row r="606">
@@ -7030,7 +7030,7 @@
         <v>4.183275240923001</v>
       </c>
       <c r="C606" t="n">
-        <v>5.594333337886807e-06</v>
+        <v>5.666907364886355e-06</v>
       </c>
     </row>
     <row r="607">
@@ -7041,7 +7041,7 @@
         <v>4.1842610759766</v>
       </c>
       <c r="C607" t="n">
-        <v>5.647181354443025e-06</v>
+        <v>5.717945138605757e-06</v>
       </c>
     </row>
     <row r="608">
@@ -7052,7 +7052,7 @@
         <v>4.1852469110302</v>
       </c>
       <c r="C608" t="n">
-        <v>5.704261274866957e-06</v>
+        <v>5.772159848509368e-06</v>
       </c>
     </row>
     <row r="609">
@@ -7063,7 +7063,7 @@
         <v>4.186232746083799</v>
       </c>
       <c r="C609" t="n">
-        <v>5.766369430770165e-06</v>
+        <v>5.830447269095264e-06</v>
       </c>
     </row>
     <row r="610">
@@ -7074,7 +7074,7 @@
         <v>4.187218581137398</v>
       </c>
       <c r="C610" t="n">
-        <v>5.834302153764391e-06</v>
+        <v>5.893703174861683e-06</v>
       </c>
     </row>
     <row r="611">
@@ -7085,7 +7085,7 @@
         <v>4.188204416190998</v>
       </c>
       <c r="C611" t="n">
-        <v>5.908855775461211e-06</v>
+        <v>5.962823340306711e-06</v>
       </c>
     </row>
     <row r="612">
@@ -7096,7 +7096,7 @@
         <v>4.189190251244597</v>
       </c>
       <c r="C612" t="n">
-        <v>5.99082662747217e-06</v>
+        <v>6.038703539928406e-06</v>
       </c>
     </row>
     <row r="613">
@@ -7107,7 +7107,7 @@
         <v>4.190176086298196</v>
       </c>
       <c r="C613" t="n">
-        <v>6.081011041409047e-06</v>
+        <v>6.122239548225041e-06</v>
       </c>
     </row>
     <row r="614">
@@ -7118,7 +7118,7 @@
         <v>4.191161921351796</v>
       </c>
       <c r="C614" t="n">
-        <v>6.180205348883394e-06</v>
+        <v>6.214327139694683e-06</v>
       </c>
     </row>
     <row r="615">
@@ -7129,7 +7129,7 @@
         <v>4.192147756405395</v>
       </c>
       <c r="C615" t="n">
-        <v>6.289205881506741e-06</v>
+        <v>6.315862088835371e-06</v>
       </c>
     </row>
     <row r="616">
@@ -7140,7 +7140,7 @@
         <v>4.193133591458994</v>
       </c>
       <c r="C616" t="n">
-        <v>6.408808970890906e-06</v>
+        <v>6.42774017014542e-06</v>
       </c>
     </row>
     <row r="617">
@@ -7151,7 +7151,7 @@
         <v>4.194119426512593</v>
       </c>
       <c r="C617" t="n">
-        <v>6.539810948647303e-06</v>
+        <v>6.550857158122763e-06</v>
       </c>
     </row>
     <row r="618">
@@ -7162,7 +7162,7 @@
         <v>4.195105261566193</v>
       </c>
       <c r="C618" t="n">
-        <v>6.683008146387794e-06</v>
+        <v>6.686108827265751e-06</v>
       </c>
     </row>
     <row r="619">
@@ -7173,7 +7173,7 @@
         <v>4.196091096619792</v>
       </c>
       <c r="C619" t="n">
-        <v>6.839196895723889e-06</v>
+        <v>6.834390952072413e-06</v>
       </c>
     </row>
     <row r="620">
@@ -7184,7 +7184,7 @@
         <v>4.197076931673391</v>
       </c>
       <c r="C620" t="n">
-        <v>7.009173528267062e-06</v>
+        <v>6.996599307040733e-06</v>
       </c>
     </row>
     <row r="621">
@@ -7195,7 +7195,7 @@
         <v>4.198062766726991</v>
       </c>
       <c r="C621" t="n">
-        <v>7.193734375629241e-06</v>
+        <v>7.173629666669132e-06</v>
       </c>
     </row>
     <row r="622">
@@ -7206,7 +7206,7 @@
         <v>4.19904860178059</v>
       </c>
       <c r="C622" t="n">
-        <v>7.39367576942191e-06</v>
+        <v>7.366377805455609e-06</v>
       </c>
     </row>
     <row r="623">
@@ -7217,7 +7217,7 @@
         <v>4.200034436834189</v>
       </c>
       <c r="C623" t="n">
-        <v>7.609794041256489e-06</v>
+        <v>7.575739497898094e-06</v>
       </c>
     </row>
     <row r="624">
@@ -7228,7 +7228,7 @@
         <v>4.201020271887788</v>
       </c>
       <c r="C624" t="n">
-        <v>7.842885522745002e-06</v>
+        <v>7.802610518495106e-06</v>
       </c>
     </row>
     <row r="625">
@@ -7239,7 +7239,7 @@
         <v>4.202006106941388</v>
       </c>
       <c r="C625" t="n">
-        <v>8.09374654549888e-06</v>
+        <v>8.047886641744588e-06</v>
       </c>
     </row>
     <row r="626">
@@ -7250,7 +7250,7 @@
         <v>4.202991941994987</v>
       </c>
       <c r="C626" t="n">
-        <v>8.363173441129507e-06</v>
+        <v>8.312463642144438e-06</v>
       </c>
     </row>
     <row r="627">
@@ -7261,7 +7261,7 @@
         <v>4.203977777048586</v>
       </c>
       <c r="C627" t="n">
-        <v>8.651962541248989e-06</v>
+        <v>8.597237294193258e-06</v>
       </c>
     </row>
     <row r="628">
@@ -7272,7 +7272,7 @@
         <v>4.204963612102185</v>
       </c>
       <c r="C628" t="n">
-        <v>8.960910177468434e-06</v>
+        <v>8.903103372388666e-06</v>
       </c>
     </row>
     <row r="629">
@@ -7283,7 +7283,7 @@
         <v>4.205949447155785</v>
       </c>
       <c r="C629" t="n">
-        <v>9.290812681400027e-06</v>
+        <v>9.230957651229355e-06</v>
       </c>
     </row>
     <row r="630">
@@ -7294,7 +7294,7 @@
         <v>4.206935282209384</v>
       </c>
       <c r="C630" t="n">
-        <v>9.642466384655122e-06</v>
+        <v>9.58169590521318e-06</v>
       </c>
     </row>
     <row r="631">
@@ -7305,7 +7305,7 @@
         <v>4.207921117262983</v>
       </c>
       <c r="C631" t="n">
-        <v>1.0016667618845e-05</v>
+        <v>9.956213908837938e-06</v>
       </c>
     </row>
     <row r="632">
@@ -7316,7 +7316,7 @@
         <v>4.208906952316583</v>
       </c>
       <c r="C632" t="n">
-        <v>1.041421271558196e-05</v>
+        <v>1.035540743660243e-05</v>
       </c>
     </row>
     <row r="633">
@@ -7327,7 +7327,7 @@
         <v>4.209892787370182</v>
       </c>
       <c r="C633" t="n">
-        <v>1.083589800647731e-05</v>
+        <v>1.078017226300446e-05</v>
       </c>
     </row>
     <row r="634">
@@ -7338,7 +7338,7 @@
         <v>4.210878622423781</v>
       </c>
       <c r="C634" t="n">
-        <v>1.128251982314226e-05</v>
+        <v>1.123140416254175e-05</v>
       </c>
     </row>
     <row r="635">
@@ -7349,7 +7349,7 @@
         <v>4.211864457477381</v>
       </c>
       <c r="C635" t="n">
-        <v>1.175487449718924e-05</v>
+        <v>1.170999890971325e-05</v>
       </c>
     </row>
     <row r="636">
@@ -7360,7 +7360,7 @@
         <v>4.21285029253098</v>
       </c>
       <c r="C636" t="n">
-        <v>1.225375836022948e-05</v>
+        <v>1.221685227901669e-05</v>
       </c>
     </row>
     <row r="637">
@@ -7371,7 +7371,7 @@
         <v>4.213836127584579</v>
       </c>
       <c r="C637" t="n">
-        <v>1.277996774387413e-05</v>
+        <v>1.275286004494971e-05</v>
       </c>
     </row>
     <row r="638">
@@ -7382,7 +7382,7 @@
         <v>4.214821962638179</v>
       </c>
       <c r="C638" t="n">
-        <v>1.333429897973576e-05</v>
+        <v>1.331891798201142e-05</v>
       </c>
     </row>
     <row r="639">
@@ -7393,7 +7393,7 @@
         <v>4.215807797691777</v>
       </c>
       <c r="C639" t="n">
-        <v>1.3917548399425e-05</v>
+        <v>1.391592186469891e-05</v>
       </c>
     </row>
     <row r="640">
@@ -7404,7 +7404,7 @@
         <v>4.216793632745377</v>
       </c>
       <c r="C640" t="n">
-        <v>1.453051233455453e-05</v>
+        <v>1.45447674675114e-05</v>
       </c>
     </row>
     <row r="641">
@@ -7415,7 +7415,7 @@
         <v>4.217779467798977</v>
       </c>
       <c r="C641" t="n">
-        <v>1.517398705916429e-05</v>
+        <v>1.520635050320338e-05</v>
       </c>
     </row>
     <row r="642">
@@ -7426,7 +7426,7 @@
         <v>4.218765302852576</v>
       </c>
       <c r="C642" t="n">
-        <v>1.584711651042218e-05</v>
+        <v>1.589979460904998e-05</v>
       </c>
     </row>
     <row r="643">
@@ -7437,7 +7437,7 @@
         <v>4.219751137906175</v>
       </c>
       <c r="C643" t="n">
-        <v>1.654307116532075e-05</v>
+        <v>1.661781708807196e-05</v>
       </c>
     </row>
     <row r="644">
@@ -7448,7 +7448,7 @@
         <v>4.220736972959775</v>
       </c>
       <c r="C644" t="n">
-        <v>1.725367207770945e-05</v>
+        <v>1.735168803255251e-05</v>
       </c>
     </row>
     <row r="645">
@@ -7459,7 +7459,7 @@
         <v>4.221722808013373</v>
       </c>
       <c r="C645" t="n">
-        <v>1.797074030143514e-05</v>
+        <v>1.809267753477221e-05</v>
       </c>
     </row>
     <row r="646">
@@ -7470,7 +7470,7 @@
         <v>4.222708643066973</v>
       </c>
       <c r="C646" t="n">
-        <v>1.868609689034728e-05</v>
+        <v>1.883205568701428e-05</v>
       </c>
     </row>
     <row r="647">
@@ -7481,7 +7481,7 @@
         <v>4.223694478120573</v>
       </c>
       <c r="C647" t="n">
-        <v>1.939156289829338e-05</v>
+        <v>1.956109258155994e-05</v>
       </c>
     </row>
     <row r="648">
@@ -7492,7 +7492,7 @@
         <v>4.224680313174171</v>
       </c>
       <c r="C648" t="n">
-        <v>2.007895937912098e-05</v>
+        <v>2.027105831069044e-05</v>
       </c>
     </row>
     <row r="649">
@@ -7503,7 +7503,7 @@
         <v>4.225666148227771</v>
       </c>
       <c r="C649" t="n">
-        <v>2.074010738667947e-05</v>
+        <v>2.095322296668896e-05</v>
       </c>
     </row>
     <row r="650">
@@ -7514,7 +7514,7 @@
         <v>4.22665198328137</v>
       </c>
       <c r="C650" t="n">
-        <v>2.136682797481637e-05</v>
+        <v>2.159885664183672e-05</v>
       </c>
     </row>
     <row r="651">
@@ -7525,7 +7525,7 @@
         <v>4.227637818334969</v>
       </c>
       <c r="C651" t="n">
-        <v>2.195094219737935e-05</v>
+        <v>2.219922942841511e-05</v>
       </c>
     </row>
     <row r="652">
@@ -7536,7 +7536,7 @@
         <v>4.228623653388569</v>
       </c>
       <c r="C652" t="n">
-        <v>2.24842711082176e-05</v>
+        <v>2.274561141870707e-05</v>
       </c>
     </row>
     <row r="653">
@@ -7547,7 +7547,7 @@
         <v>4.229609488442168</v>
       </c>
       <c r="C653" t="n">
-        <v>2.295863576117872e-05</v>
+        <v>2.322927270499393e-05</v>
       </c>
     </row>
     <row r="654">
@@ -7558,7 +7558,7 @@
         <v>4.230595323495767</v>
       </c>
       <c r="C654" t="n">
-        <v>2.336585721011054e-05</v>
+        <v>2.364148337955725e-05</v>
       </c>
     </row>
     <row r="655">
@@ -7569,7 +7569,7 @@
         <v>4.231581158549367</v>
       </c>
       <c r="C655" t="n">
-        <v>2.369775650886195e-05</v>
+        <v>2.397351353467965e-05</v>
       </c>
     </row>
     <row r="656">
@@ -7580,7 +7580,7 @@
         <v>4.232566993602966</v>
       </c>
       <c r="C656" t="n">
-        <v>2.394615471128052e-05</v>
+        <v>2.421663326264244e-05</v>
       </c>
     </row>
     <row r="657">
@@ -7591,7 +7591,7 @@
         <v>4.233552828656565</v>
       </c>
       <c r="C657" t="n">
-        <v>2.410287287121485e-05</v>
+        <v>2.436211265572793e-05</v>
       </c>
     </row>
     <row r="658">
@@ -7602,7 +7602,7 @@
         <v>4.234538663710165</v>
       </c>
       <c r="C658" t="n">
-        <v>2.415973204251282e-05</v>
+        <v>2.440122180621776e-05</v>
       </c>
     </row>
     <row r="659">
@@ -7613,7 +7613,7 @@
         <v>4.235524498763763</v>
       </c>
       <c r="C659" t="n">
-        <v>2.410932074257486e-05</v>
+        <v>2.432606051427897e-05</v>
       </c>
     </row>
     <row r="660">
@@ -7624,7 +7624,7 @@
         <v>4.236510333817363</v>
       </c>
       <c r="C660" t="n">
-        <v>2.395770155449551e-05</v>
+        <v>2.414329544585131e-05</v>
       </c>
     </row>
     <row r="661">
@@ -7635,7 +7635,7 @@
         <v>4.237496168870963</v>
       </c>
       <c r="C661" t="n">
-        <v>2.372243219281481e-05</v>
+        <v>2.387202069899555e-05</v>
       </c>
     </row>
     <row r="662">
@@ -7646,7 +7646,7 @@
         <v>4.238482003924561</v>
       </c>
       <c r="C662" t="n">
-        <v>2.342143891570268e-05</v>
+        <v>2.353172880574994e-05</v>
       </c>
     </row>
     <row r="663">
@@ -7657,7 +7657,7 @@
         <v>4.239467838978161</v>
       </c>
       <c r="C663" t="n">
-        <v>2.307264798132817e-05</v>
+        <v>2.314191229815178e-05</v>
       </c>
     </row>
     <row r="664">
@@ -7668,7 +7668,7 @@
         <v>4.240453674031761</v>
       </c>
       <c r="C664" t="n">
-        <v>2.26939856478611e-05</v>
+        <v>2.272206370823924e-05</v>
       </c>
     </row>
     <row r="665">
@@ -7679,7 +7679,7 @@
         <v>4.241439509085359</v>
       </c>
       <c r="C665" t="n">
-        <v>2.230337817347144e-05</v>
+        <v>2.229167556805061e-05</v>
       </c>
     </row>
     <row r="666">
@@ -7690,7 +7690,7 @@
         <v>4.242425344138959</v>
       </c>
       <c r="C666" t="n">
-        <v>2.191875181632806e-05</v>
+        <v>2.187024040962304e-05</v>
       </c>
     </row>
     <row r="667">
@@ -7701,7 +7701,7 @@
         <v>4.243411179192558</v>
       </c>
       <c r="C667" t="n">
-        <v>2.155803283460123e-05</v>
+        <v>2.147725076499514e-05</v>
       </c>
     </row>
     <row r="668">
@@ -7712,7 +7712,7 @@
         <v>4.244397014246157</v>
       </c>
       <c r="C668" t="n">
-        <v>2.123914748645989e-05</v>
+        <v>2.11321991662041e-05</v>
       </c>
     </row>
     <row r="669">
@@ -7723,7 +7723,7 @@
         <v>4.245382849299757</v>
       </c>
       <c r="C669" t="n">
-        <v>2.098002203007396e-05</v>
+        <v>2.085457814528821e-05</v>
       </c>
     </row>
     <row r="670">
@@ -7734,7 +7734,7 @@
         <v>4.246368684353356</v>
       </c>
       <c r="C670" t="n">
-        <v>2.079858272361317e-05</v>
+        <v>2.066388023428549e-05</v>
       </c>
     </row>
     <row r="671">
@@ -7745,7 +7745,7 @@
         <v>4.247354519406955</v>
       </c>
       <c r="C671" t="n">
-        <v>2.071275582524679e-05</v>
+        <v>2.05795979652335e-05</v>
       </c>
     </row>
     <row r="672">
@@ -7756,7 +7756,7 @@
         <v>4.248340354460555</v>
       </c>
       <c r="C672" t="n">
-        <v>2.07404675931446e-05</v>
+        <v>2.062122387017038e-05</v>
       </c>
     </row>
     <row r="673">
@@ -7767,7 +7767,7 @@
         <v>4.249326189514154</v>
       </c>
       <c r="C673" t="n">
-        <v>2.089955782240126e-05</v>
+        <v>2.080815904474205e-05</v>
       </c>
     </row>
     <row r="674">
@@ -7778,7 +7778,7 @@
         <v>4.250312024567753</v>
       </c>
       <c r="C674" t="n">
-        <v>2.119302395307829e-05</v>
+        <v>2.114410850401077e-05</v>
       </c>
     </row>
     <row r="675">
@@ -7789,7 +7789,7 @@
         <v>4.251297859621353</v>
       </c>
       <c r="C675" t="n">
-        <v>2.159231623891267e-05</v>
+        <v>2.159941549682058e-05</v>
       </c>
     </row>
     <row r="676">
@@ -7800,7 +7800,7 @@
         <v>4.252283694674952</v>
       </c>
       <c r="C676" t="n">
-        <v>2.20648492973091e-05</v>
+        <v>2.214015550770606e-05</v>
       </c>
     </row>
     <row r="677">
@@ -7811,7 +7811,7 @@
         <v>4.253269529728551</v>
       </c>
       <c r="C677" t="n">
-        <v>2.257803774567359e-05</v>
+        <v>2.273240402120326e-05</v>
       </c>
     </row>
     <row r="678">
@@ -7822,7 +7822,7 @@
         <v>4.25425536478215</v>
       </c>
       <c r="C678" t="n">
-        <v>2.309929620141039e-05</v>
+        <v>2.334223652184629e-05</v>
       </c>
     </row>
     <row r="679">
@@ -7833,7 +7833,7 @@
         <v>4.25524119983575</v>
       </c>
       <c r="C679" t="n">
-        <v>2.359603928192559e-05</v>
+        <v>2.393572849417132e-05</v>
       </c>
     </row>
     <row r="680">
@@ -7844,7 +7844,7 @@
         <v>4.256227034889349</v>
       </c>
       <c r="C680" t="n">
-        <v>2.403568160462388e-05</v>
+        <v>2.44789554227129e-05</v>
       </c>
     </row>
     <row r="681">
@@ -7855,7 +7855,7 @@
         <v>4.257212869942949</v>
       </c>
       <c r="C681" t="n">
-        <v>2.438563778691035e-05</v>
+        <v>2.493799279200609e-05</v>
       </c>
     </row>
     <row r="682">
@@ -7866,7 +7866,7 @@
         <v>4.258198704996548</v>
       </c>
       <c r="C682" t="n">
-        <v>2.461444480783394e-05</v>
+        <v>2.527990773613114e-05</v>
       </c>
     </row>
     <row r="683">
@@ -7877,7 +7877,7 @@
         <v>4.259184540050147</v>
       </c>
       <c r="C683" t="n">
-        <v>2.472597534987927e-05</v>
+        <v>2.550298783797706e-05</v>
       </c>
     </row>
     <row r="684">
@@ -7888,7 +7888,7 @@
         <v>4.260170375103746</v>
       </c>
       <c r="C684" t="n">
-        <v>2.476571007855931e-05</v>
+        <v>2.564228292874932e-05</v>
       </c>
     </row>
     <row r="685">
@@ -7899,7 +7899,7 @@
         <v>4.261156210157345</v>
       </c>
       <c r="C685" t="n">
-        <v>2.478151698550039e-05</v>
+        <v>2.573495213380854e-05</v>
       </c>
     </row>
     <row r="686">
@@ -7910,7 +7910,7 @@
         <v>4.262142045210945</v>
       </c>
       <c r="C686" t="n">
-        <v>2.482126406232874e-05</v>
+        <v>2.581815457851497e-05</v>
       </c>
     </row>
     <row r="687">
@@ -7921,7 +7921,7 @@
         <v>4.263127880264544</v>
       </c>
       <c r="C687" t="n">
-        <v>2.493281930067049e-05</v>
+        <v>2.592904938822887e-05</v>
       </c>
     </row>
     <row r="688">
@@ -7932,7 +7932,7 @@
         <v>4.264113715318143</v>
       </c>
       <c r="C688" t="n">
-        <v>2.516405069215213e-05</v>
+        <v>2.610479568831085e-05</v>
       </c>
     </row>
     <row r="689">
@@ -7943,7 +7943,7 @@
         <v>4.265099550371743</v>
       </c>
       <c r="C689" t="n">
-        <v>2.555784762169238e-05</v>
+        <v>2.637923647748243e-05</v>
       </c>
     </row>
     <row r="690">
@@ -7954,7 +7954,7 @@
         <v>4.266085385425342</v>
       </c>
       <c r="C690" t="n">
-        <v>2.607296489032143e-05</v>
+        <v>2.673017479162681e-05</v>
       </c>
     </row>
     <row r="691">
@@ -7965,7 +7965,7 @@
         <v>4.267071220478941</v>
       </c>
       <c r="C691" t="n">
-        <v>2.659807634649626e-05</v>
+        <v>2.708873447958697e-05</v>
       </c>
     </row>
     <row r="692">
@@ -7976,7 +7976,7 @@
         <v>4.268057055532541</v>
       </c>
       <c r="C692" t="n">
-        <v>2.701971742292901e-05</v>
+        <v>2.738461504443353e-05</v>
       </c>
     </row>
     <row r="693">
@@ -7987,7 +7987,7 @@
         <v>4.26904289058614</v>
       </c>
       <c r="C693" t="n">
-        <v>2.722442355233222e-05</v>
+        <v>2.754751598923732e-05</v>
       </c>
     </row>
     <row r="694">
@@ -7998,7 +7998,7 @@
         <v>4.270028725639739</v>
       </c>
       <c r="C694" t="n">
-        <v>2.712985091397751e-05</v>
+        <v>2.752494151599416e-05</v>
       </c>
     </row>
     <row r="695">
@@ -8009,7 +8009,7 @@
         <v>4.271014560693338</v>
       </c>
       <c r="C695" t="n">
-        <v>2.679290284004196e-05</v>
+        <v>2.734406144876068e-05</v>
       </c>
     </row>
     <row r="696">
@@ -8020,7 +8020,7 @@
         <v>4.272000395746938</v>
       </c>
       <c r="C696" t="n">
-        <v>2.630941301775226e-05</v>
+        <v>2.705431831798191e-05</v>
       </c>
     </row>
     <row r="697">
@@ -8031,7 +8031,7 @@
         <v>4.272986230800537</v>
       </c>
       <c r="C697" t="n">
-        <v>2.577521694902892e-05</v>
+        <v>2.670515569231948e-05</v>
       </c>
     </row>
     <row r="698">
@@ -8042,7 +8042,7 @@
         <v>4.273972065854136</v>
       </c>
       <c r="C698" t="n">
-        <v>2.527068809775243e-05</v>
+        <v>2.633836716845451e-05</v>
       </c>
     </row>
     <row r="699">
@@ -8053,7 +8053,7 @@
         <v>4.274957900907736</v>
       </c>
       <c r="C699" t="n">
-        <v>2.480726931855655e-05</v>
+        <v>2.59616423505681e-05</v>
       </c>
     </row>
     <row r="700">
@@ -8064,7 +8064,7 @@
         <v>4.275943735961335</v>
       </c>
       <c r="C700" t="n">
-        <v>2.437720202715768e-05</v>
+        <v>2.557317077116118e-05</v>
       </c>
     </row>
     <row r="701">
@@ -8075,7 +8075,7 @@
         <v>4.276929571014934</v>
       </c>
       <c r="C701" t="n">
-        <v>2.397272682617101e-05</v>
+        <v>2.517114156044621e-05</v>
       </c>
     </row>
     <row r="702">
@@ -8086,7 +8086,7 @@
         <v>4.277915406068534</v>
       </c>
       <c r="C702" t="n">
-        <v>2.35860843182106e-05</v>
+        <v>2.475374384863453e-05</v>
       </c>
     </row>
     <row r="703">
@@ -8097,7 +8097,7 @@
         <v>4.278901241122133</v>
       </c>
       <c r="C703" t="n">
-        <v>2.320951510589164e-05</v>
+        <v>2.43191667659386e-05</v>
       </c>
     </row>
     <row r="704">
@@ -8108,7 +8108,7 @@
         <v>4.279887076175732</v>
       </c>
       <c r="C704" t="n">
-        <v>2.283525979182927e-05</v>
+        <v>2.386559944257087e-05</v>
       </c>
     </row>
     <row r="705">
@@ -8119,7 +8119,7 @@
         <v>4.280872911229332</v>
       </c>
       <c r="C705" t="n">
-        <v>2.245555897863766e-05</v>
+        <v>2.339123100874263e-05</v>
       </c>
     </row>
     <row r="706">
@@ -8130,7 +8130,7 @@
         <v>4.28185874628293</v>
       </c>
       <c r="C706" t="n">
-        <v>2.206265326893229e-05</v>
+        <v>2.289425059466681e-05</v>
       </c>
     </row>
     <row r="707">
@@ -8141,7 +8141,7 @@
         <v>4.28284458133653</v>
       </c>
       <c r="C707" t="n">
-        <v>2.164878326532728e-05</v>
+        <v>2.237284733055458e-05</v>
       </c>
     </row>
     <row r="708">
@@ -8152,7 +8152,7 @@
         <v>4.28383041639013</v>
       </c>
       <c r="C708" t="n">
-        <v>2.120618957043779e-05</v>
+        <v>2.182521034661848e-05</v>
       </c>
     </row>
     <row r="709">
@@ -8163,7 +8163,7 @@
         <v>4.284816251443729</v>
       </c>
       <c r="C709" t="n">
-        <v>2.072711278687861e-05</v>
+        <v>2.124952877307056e-05</v>
       </c>
     </row>
     <row r="710">
@@ -8174,7 +8174,7 @@
         <v>4.285802086497328</v>
       </c>
       <c r="C710" t="n">
-        <v>2.020379351726507e-05</v>
+        <v>2.064399174012347e-05</v>
       </c>
     </row>
     <row r="711">
@@ -8185,7 +8185,7 @@
         <v>4.286787921550927</v>
       </c>
       <c r="C711" t="n">
-        <v>1.962891565899493e-05</v>
+        <v>2.000704909443517e-05</v>
       </c>
     </row>
     <row r="712">
@@ -8196,7 +8196,7 @@
         <v>4.287773756604526</v>
       </c>
       <c r="C712" t="n">
-        <v>1.900586783421348e-05</v>
+        <v>1.934344648830763e-05</v>
       </c>
     </row>
     <row r="713">
@@ -8207,7 +8207,7 @@
         <v>4.288759591658126</v>
       </c>
       <c r="C713" t="n">
-        <v>1.834903401163576e-05</v>
+        <v>1.866439630407108e-05</v>
       </c>
     </row>
     <row r="714">
@@ -8218,7 +8218,7 @@
         <v>4.289745426711725</v>
       </c>
       <c r="C714" t="n">
-        <v>1.767329959220226e-05</v>
+        <v>1.798140583307184e-05</v>
       </c>
     </row>
     <row r="715">
@@ -8229,7 +8229,7 @@
         <v>4.290731261765324</v>
       </c>
       <c r="C715" t="n">
-        <v>1.699354997685351e-05</v>
+        <v>1.730598236665625e-05</v>
       </c>
     </row>
     <row r="716">
@@ -8240,7 +8240,7 @@
         <v>4.291717096818924</v>
       </c>
       <c r="C716" t="n">
-        <v>1.632467056652821e-05</v>
+        <v>1.664963319616883e-05</v>
       </c>
     </row>
     <row r="717">
@@ -8251,7 +8251,7 @@
         <v>4.292702931872523</v>
       </c>
       <c r="C717" t="n">
-        <v>1.56815467621669e-05</v>
+        <v>1.602386561295592e-05</v>
       </c>
     </row>
     <row r="718">
@@ -8262,7 +8262,7 @@
         <v>4.293688766926122</v>
       </c>
       <c r="C718" t="n">
-        <v>1.507906396471004e-05</v>
+        <v>1.544018690836377e-05</v>
       </c>
     </row>
     <row r="719">
@@ -8273,7 +8273,7 @@
         <v>4.294674601979722</v>
       </c>
       <c r="C719" t="n">
-        <v>1.453210757509646e-05</v>
+        <v>1.491010437373705e-05</v>
       </c>
     </row>
     <row r="720">
@@ -8284,7 +8284,7 @@
         <v>4.295660437033321</v>
       </c>
       <c r="C720" t="n">
-        <v>1.405556299426665e-05</v>
+        <v>1.444512530042206e-05</v>
       </c>
     </row>
     <row r="721">
@@ -8295,7 +8295,7 @@
         <v>4.29664627208692</v>
       </c>
       <c r="C721" t="n">
-        <v>1.366431562316086e-05</v>
+        <v>1.405675697976484e-05</v>
       </c>
     </row>
     <row r="722">
@@ -8306,7 +8306,7 @@
         <v>4.29763210714052</v>
       </c>
       <c r="C722" t="n">
-        <v>1.337325086271829e-05</v>
+        <v>1.375650670311042e-05</v>
       </c>
     </row>
     <row r="723">
@@ -8317,7 +8317,7 @@
         <v>4.298617942194118</v>
       </c>
       <c r="C723" t="n">
-        <v>1.319725411387939e-05</v>
+        <v>1.355588176180506e-05</v>
       </c>
     </row>
     <row r="724">
@@ -8328,7 +8328,7 @@
         <v>4.299603777247718</v>
       </c>
       <c r="C724" t="n">
-        <v>1.314971427544058e-05</v>
+        <v>1.346627809958366e-05</v>
       </c>
     </row>
     <row r="725">
@@ -8339,7 +8339,7 @@
         <v>4.300589612301318</v>
       </c>
       <c r="C725" t="n">
-        <v>1.323554259796884e-05</v>
+        <v>1.349846087867762e-05</v>
       </c>
     </row>
     <row r="726">
@@ -8350,7 +8350,7 @@
         <v>4.301575447354916</v>
       </c>
       <c r="C726" t="n">
-        <v>1.345666850298025e-05</v>
+        <v>1.366297339759313e-05</v>
       </c>
     </row>
     <row r="727">
@@ -8361,7 +8361,7 @@
         <v>4.302561282408516</v>
       </c>
       <c r="C727" t="n">
-        <v>1.381501811648542e-05</v>
+        <v>1.397035870963396e-05</v>
       </c>
     </row>
     <row r="728">
@@ -8372,7 +8372,7 @@
         <v>4.303547117462116</v>
       </c>
       <c r="C728" t="n">
-        <v>1.431251756449436e-05</v>
+        <v>1.443115986810348e-05</v>
       </c>
     </row>
     <row r="729">
@@ -8383,7 +8383,7 @@
         <v>4.304532952515714</v>
       </c>
       <c r="C729" t="n">
-        <v>1.495109297301662e-05</v>
+        <v>1.505591992630452e-05</v>
       </c>
     </row>
     <row r="730">
@@ -8394,7 +8394,7 @@
         <v>4.305518787569314</v>
       </c>
       <c r="C730" t="n">
-        <v>1.573267046806353e-05</v>
+        <v>1.585518193754167e-05</v>
       </c>
     </row>
     <row r="731">
@@ -8405,7 +8405,7 @@
         <v>4.306504622622914</v>
       </c>
       <c r="C731" t="n">
-        <v>1.665917617564475e-05</v>
+        <v>1.683948895511791e-05</v>
       </c>
     </row>
     <row r="732">
@@ -8416,7 +8416,7 @@
         <v>4.307490457676512</v>
       </c>
       <c r="C732" t="n">
-        <v>1.773253716972339e-05</v>
+        <v>1.801938495798096e-05</v>
       </c>
     </row>
     <row r="733">
@@ -8427,7 +8427,7 @@
         <v>4.308476292730112</v>
       </c>
       <c r="C733" t="n">
-        <v>1.912580527027015e-05</v>
+        <v>1.957251152577162e-05</v>
       </c>
     </row>
     <row r="734">
@@ -8438,7 +8438,7 @@
         <v>4.309462127783711</v>
       </c>
       <c r="C734" t="n">
-        <v>2.166053763036151e-05</v>
+        <v>2.230975404258615e-05</v>
       </c>
     </row>
     <row r="735">
@@ -8449,7 +8449,7 @@
         <v>4.31044796283731</v>
       </c>
       <c r="C735" t="n">
-        <v>2.630104948747227e-05</v>
+        <v>2.71810757583609e-05</v>
       </c>
     </row>
     <row r="736">
@@ -8460,7 +8460,7 @@
         <v>4.31143379789091</v>
       </c>
       <c r="C736" t="n">
-        <v>3.331116969835091e-05</v>
+        <v>3.443171532898442e-05</v>
       </c>
     </row>
     <row r="737">
@@ -8471,7 +8471,7 @@
         <v>4.312419632944509</v>
       </c>
       <c r="C737" t="n">
-        <v>4.183908620540503e-05</v>
+        <v>4.318452043730988e-05</v>
       </c>
     </row>
     <row r="738">
@@ -8482,7 +8482,7 @@
         <v>4.313405467998108</v>
       </c>
       <c r="C738" t="n">
-        <v>5.093343768300522e-05</v>
+        <v>5.246218718660949e-05</v>
       </c>
     </row>
     <row r="739">
@@ -8493,7 +8493,7 @@
         <v>4.314391303051708</v>
       </c>
       <c r="C739" t="n">
-        <v>5.964286280549881e-05</v>
+        <v>6.128741168013144e-05</v>
       </c>
     </row>
     <row r="740">
@@ -8504,7 +8504,7 @@
         <v>4.315377138105307</v>
       </c>
       <c r="C740" t="n">
-        <v>6.701600024723462e-05</v>
+        <v>6.868289002112576e-05</v>
       </c>
     </row>
     <row r="741">
@@ -8515,7 +8515,7 @@
         <v>4.316362973158906</v>
       </c>
       <c r="C741" t="n">
-        <v>7.211318297565792e-05</v>
+        <v>7.368361461942318e-05</v>
       </c>
     </row>
     <row r="742">
@@ -8526,7 +8526,7 @@
         <v>4.317348808212506</v>
       </c>
       <c r="C742" t="n">
-        <v>7.474036812075692e-05</v>
+        <v>7.610858622309075e-05</v>
       </c>
     </row>
     <row r="743">
@@ -8537,7 +8537,7 @@
         <v>4.318334643266105</v>
       </c>
       <c r="C743" t="n">
-        <v>7.588524600823086e-05</v>
+        <v>7.70193735193126e-05</v>
       </c>
     </row>
     <row r="744">
@@ -8548,7 +8548,7 @@
         <v>4.319320478319704</v>
       </c>
       <c r="C744" t="n">
-        <v>7.664026407880647e-05</v>
+        <v>7.758769512843806e-05</v>
       </c>
     </row>
     <row r="745">
@@ -8559,7 +8559,7 @@
         <v>4.320306313373303</v>
       </c>
       <c r="C745" t="n">
-        <v>7.809786977320578e-05</v>
+        <v>7.898526967081236e-05</v>
       </c>
     </row>
     <row r="746">
@@ -8570,7 +8570,7 @@
         <v>4.321292148426902</v>
       </c>
       <c r="C746" t="n">
-        <v>8.123718629828353e-05</v>
+        <v>8.226015144791026e-05</v>
       </c>
     </row>
     <row r="747">
@@ -8581,7 +8581,7 @@
         <v>4.322277983480502</v>
       </c>
       <c r="C747" t="n">
-        <v>8.593710867701606e-05</v>
+        <v>8.725977805004533e-05</v>
       </c>
     </row>
     <row r="748">
@@ -8592,7 +8592,7 @@
         <v>4.323263818534102</v>
       </c>
       <c r="C748" t="n">
-        <v>9.145783849056333e-05</v>
+        <v>9.315644195107684e-05</v>
       </c>
     </row>
     <row r="749">
@@ -8603,7 +8603,7 @@
         <v>4.3242496535877</v>
       </c>
       <c r="C749" t="n">
-        <v>9.705268255661799e-05</v>
+        <v>9.911491175994257e-05</v>
       </c>
     </row>
     <row r="750">
@@ -8614,7 +8614,7 @@
         <v>4.3252354886413</v>
       </c>
       <c r="C750" t="n">
-        <v>0.0001019749476928882</v>
+        <v>0.000104299956085597</v>
       </c>
     </row>
     <row r="751">
@@ -8625,7 +8625,7 @@
         <v>4.326221323694899</v>
       </c>
       <c r="C751" t="n">
-        <v>0.0001055242099909958</v>
+        <v>0.0001079301654125125</v>
       </c>
     </row>
     <row r="752">
@@ -8636,7 +8636,7 @@
         <v>4.327207158748498</v>
       </c>
       <c r="C752" t="n">
-        <v>0.0001075205286441182</v>
+        <v>0.000109829572548557</v>
       </c>
     </row>
     <row r="753">
@@ -8647,7 +8647,7 @@
         <v>4.328192993802098</v>
       </c>
       <c r="C753" t="n">
-        <v>0.0001081116779644112</v>
+        <v>0.0001102034188412308</v>
       </c>
     </row>
     <row r="754">
@@ -8658,7 +8658,7 @@
         <v>4.329178828855697</v>
       </c>
       <c r="C754" t="n">
-        <v>0.0001074505423602535</v>
+        <v>0.0001092628898627758</v>
       </c>
     </row>
     <row r="755">
@@ -8669,7 +8669,7 @@
         <v>4.330164663909296</v>
       </c>
       <c r="C755" t="n">
-        <v>0.0001056900062400217</v>
+        <v>0.0001072191711854309</v>
       </c>
     </row>
     <row r="756">
@@ -8680,7 +8680,7 @@
         <v>4.331150498962896</v>
       </c>
       <c r="C756" t="n">
-        <v>0.0001029830387575043</v>
+        <v>0.0001042828896175663</v>
       </c>
     </row>
     <row r="757">
@@ -8691,7 +8691,7 @@
         <v>4.332136334016495</v>
       </c>
       <c r="C757" t="n">
-        <v>9.948649574112461e-05</v>
+        <v>0.0001006390454075074</v>
       </c>
     </row>
     <row r="758">
@@ -8702,7 +8702,7 @@
         <v>4.333122169070094</v>
       </c>
       <c r="C758" t="n">
-        <v>9.536265405311276e-05</v>
+        <v>9.643689553668589e-05</v>
       </c>
     </row>
     <row r="759">
@@ -8713,7 +8713,7 @@
         <v>4.334108004123694</v>
       </c>
       <c r="C759" t="n">
-        <v>9.077419286280568e-05</v>
+        <v>9.182304439841321e-05</v>
       </c>
     </row>
     <row r="760">
@@ -8724,7 +8724,7 @@
         <v>4.335093839177293</v>
       </c>
       <c r="C760" t="n">
-        <v>8.588379133954191e-05</v>
+        <v>8.694409638600206e-05</v>
       </c>
     </row>
     <row r="761">
@@ -8735,7 +8735,7 @@
         <v>4.336079674230892</v>
       </c>
       <c r="C761" t="n">
-        <v>8.085412865264664e-05</v>
+        <v>8.194665589275178e-05</v>
       </c>
     </row>
     <row r="762">
@@ -8746,7 +8746,7 @@
         <v>4.337065509284491</v>
       </c>
       <c r="C762" t="n">
-        <v>7.58478839714627e-05</v>
+        <v>7.697732731197942e-05</v>
       </c>
     </row>
     <row r="763">
@@ -8757,7 +8757,7 @@
         <v>4.338051344338091</v>
       </c>
       <c r="C763" t="n">
-        <v>7.102572356133896e-05</v>
+        <v>7.218092648716088e-05</v>
       </c>
     </row>
     <row r="764">
@@ -8768,7 +8768,7 @@
         <v>4.33903717939169</v>
       </c>
       <c r="C764" t="n">
-        <v>6.647803684631725e-05</v>
+        <v>6.76398253332031e-05</v>
       </c>
     </row>
     <row r="765">
@@ -8779,7 +8779,7 @@
         <v>4.340023014445289</v>
       </c>
       <c r="C765" t="n">
-        <v>6.220828407566697e-05</v>
+        <v>6.335915553794513e-05</v>
       </c>
     </row>
     <row r="766">
@@ -8790,7 +8790,7 @@
         <v>4.341008849498889</v>
       </c>
       <c r="C766" t="n">
-        <v>5.82145348453311e-05</v>
+        <v>5.933925896707276e-05</v>
       </c>
     </row>
     <row r="767">
@@ -8801,7 +8801,7 @@
         <v>4.341994684552488</v>
       </c>
       <c r="C767" t="n">
-        <v>5.449485875126423e-05</v>
+        <v>5.558047748628335e-05</v>
       </c>
     </row>
     <row r="768">
@@ -8812,7 +8812,7 @@
         <v>4.342980519606087</v>
       </c>
       <c r="C768" t="n">
-        <v>5.104732538941999e-05</v>
+        <v>5.208315296127337e-05</v>
       </c>
     </row>
     <row r="769">
@@ -8823,7 +8823,7 @@
         <v>4.343966354659687</v>
       </c>
       <c r="C769" t="n">
-        <v>4.787000435574278e-05</v>
+        <v>4.884762725772997e-05</v>
       </c>
     </row>
     <row r="770">
@@ -8834,7 +8834,7 @@
         <v>4.344952189713286</v>
       </c>
       <c r="C770" t="n">
-        <v>4.496096524618649e-05</v>
+        <v>4.587424224134986e-05</v>
       </c>
     </row>
     <row r="771">
@@ -8845,7 +8845,7 @@
         <v>4.345938024766885</v>
       </c>
       <c r="C771" t="n">
-        <v>4.231827765670402e-05</v>
+        <v>4.31633397778288e-05</v>
       </c>
     </row>
     <row r="772">
@@ -8856,7 +8856,7 @@
         <v>4.346923859820484</v>
       </c>
       <c r="C772" t="n">
-        <v>3.994001118324124e-05</v>
+        <v>4.071526173285534e-05</v>
       </c>
     </row>
     <row r="773">
@@ -8867,7 +8867,7 @@
         <v>4.347909694874083</v>
       </c>
       <c r="C773" t="n">
-        <v>3.782423542175307e-05</v>
+        <v>3.853034997212734e-05</v>
       </c>
     </row>
     <row r="774">
@@ -8878,7 +8878,7 @@
         <v>4.348895529927683</v>
       </c>
       <c r="C774" t="n">
-        <v>3.596901996818635e-05</v>
+        <v>3.660894636133429e-05</v>
       </c>
     </row>
     <row r="775">
@@ -8889,7 +8889,7 @@
         <v>4.349881364981282</v>
       </c>
       <c r="C775" t="n">
-        <v>3.437243441849373e-05</v>
+        <v>3.495139276617172e-05</v>
       </c>
     </row>
     <row r="776">
@@ -8900,7 +8900,7 @@
         <v>4.350867200034882</v>
       </c>
       <c r="C776" t="n">
-        <v>3.303154963528245e-05</v>
+        <v>3.355697925554091e-05</v>
       </c>
     </row>
     <row r="777">
@@ -8911,7 +8911,7 @@
         <v>4.351853035088481</v>
       </c>
       <c r="C777" t="n">
-        <v>3.19163448373815e-05</v>
+        <v>3.239646485528905e-05</v>
       </c>
     </row>
     <row r="778">
@@ -8922,7 +8922,7 @@
         <v>4.35283887014208</v>
       </c>
       <c r="C778" t="n">
-        <v>3.096719892355134e-05</v>
+        <v>3.140943558407327e-05</v>
       </c>
     </row>
     <row r="779">
@@ -8933,7 +8933,7 @@
         <v>4.353824705195679</v>
       </c>
       <c r="C779" t="n">
-        <v>3.012298909007909e-05</v>
+        <v>3.05338959715029e-05</v>
       </c>
     </row>
     <row r="780">
@@ -8944,7 +8944,7 @@
         <v>4.354810540249279</v>
       </c>
       <c r="C780" t="n">
-        <v>2.932259253324859e-05</v>
+        <v>2.970785054718385e-05</v>
       </c>
     </row>
     <row r="781">
@@ -8955,7 +8955,7 @@
         <v>4.355796375302878</v>
       </c>
       <c r="C781" t="n">
-        <v>2.850488644934593e-05</v>
+        <v>2.886930384072437e-05</v>
       </c>
     </row>
     <row r="782">
@@ -8966,7 +8966,7 @@
         <v>4.356782210356477</v>
       </c>
       <c r="C782" t="n">
-        <v>2.760874803465727e-05</v>
+        <v>2.795626038173276e-05</v>
       </c>
     </row>
     <row r="783">
@@ -8977,7 +8977,7 @@
         <v>4.357768045410077</v>
       </c>
       <c r="C783" t="n">
-        <v>2.657305448546635e-05</v>
+        <v>2.690672469981487e-05</v>
       </c>
     </row>
     <row r="784">
@@ -8988,7 +8988,7 @@
         <v>4.358753880463676</v>
       </c>
       <c r="C784" t="n">
-        <v>2.533673203923399e-05</v>
+        <v>2.565875056265609e-05</v>
       </c>
     </row>
     <row r="785">
@@ -8999,7 +8999,7 @@
         <v>4.359739715517275</v>
       </c>
       <c r="C785" t="n">
-        <v>2.387769759176039e-05</v>
+        <v>2.418953894543771e-05</v>
       </c>
     </row>
     <row r="786">
@@ -9010,7 +9010,7 @@
         <v>4.360725550570875</v>
       </c>
       <c r="C786" t="n">
-        <v>2.228291587991018e-05</v>
+        <v>2.258577649613939e-05</v>
       </c>
     </row>
     <row r="787">
@@ -9021,7 +9021,7 @@
         <v>4.361711385624474</v>
       </c>
       <c r="C787" t="n">
-        <v>2.065826952111569e-05</v>
+        <v>2.095314369940597e-05</v>
       </c>
     </row>
     <row r="788">
@@ -9032,7 +9032,7 @@
         <v>4.362697220678073</v>
       </c>
       <c r="C788" t="n">
-        <v>1.910964113280938e-05</v>
+        <v>1.939732103988241e-05</v>
       </c>
     </row>
     <row r="789">
@@ -9043,7 +9043,7 @@
         <v>4.363683055731673</v>
       </c>
       <c r="C789" t="n">
-        <v>1.774291333241946e-05</v>
+        <v>1.802398900220945e-05</v>
       </c>
     </row>
     <row r="790">
@@ -9054,7 +9054,7 @@
         <v>4.364668890785271</v>
       </c>
       <c r="C790" t="n">
-        <v>1.666396873737931e-05</v>
+        <v>1.693882807103297e-05</v>
       </c>
     </row>
     <row r="791">
@@ -9065,7 +9065,7 @@
         <v>4.365654725838871</v>
       </c>
       <c r="C791" t="n">
-        <v>1.597868996511802e-05</v>
+        <v>1.624751873099456e-05</v>
       </c>
     </row>
     <row r="792">
@@ -9076,7 +9076,7 @@
         <v>4.366640560892471</v>
       </c>
       <c r="C792" t="n">
-        <v>1.579295963306781e-05</v>
+        <v>1.605574146673896e-05</v>
       </c>
     </row>
     <row r="793">
@@ -9087,7 +9087,7 @@
         <v>4.367626395946069</v>
       </c>
       <c r="C793" t="n">
-        <v>1.621266035865911e-05</v>
+        <v>1.646917676290912e-05</v>
       </c>
     </row>
     <row r="794">
@@ -9098,7 +9098,7 @@
         <v>4.368612230999669</v>
       </c>
       <c r="C794" t="n">
-        <v>1.734367475932369e-05</v>
+        <v>1.759350510414932e-05</v>
       </c>
     </row>
     <row r="795">
@@ -9109,7 +9109,7 @@
         <v>4.369598066053269</v>
       </c>
       <c r="C795" t="n">
-        <v>1.929188545249258e-05</v>
+        <v>1.95344069751031e-05</v>
       </c>
     </row>
     <row r="796">
@@ -9120,7 +9120,7 @@
         <v>4.370583901106867</v>
       </c>
       <c r="C796" t="n">
-        <v>2.216317505559385e-05</v>
+        <v>2.239756286041105e-05</v>
       </c>
     </row>
     <row r="797">
@@ -9131,7 +9131,7 @@
         <v>4.371569736160467</v>
       </c>
       <c r="C797" t="n">
-        <v>2.606342618606371e-05</v>
+        <v>2.628865324472186e-05</v>
       </c>
     </row>
     <row r="798">
@@ -9142,7 +9142,7 @@
         <v>4.372555571214066</v>
       </c>
       <c r="C798" t="n">
-        <v>3.115807365112841e-05</v>
+        <v>3.13739881071564e-05</v>
       </c>
     </row>
     <row r="799">
@@ -9153,7 +9153,7 @@
         <v>4.373541406267665</v>
       </c>
       <c r="C799" t="n">
-        <v>3.835773379792287e-05</v>
+        <v>3.857853937048198e-05</v>
       </c>
     </row>
     <row r="800">
@@ -9164,7 +9164,7 @@
         <v>4.374527241321265</v>
       </c>
       <c r="C800" t="n">
-        <v>4.908015131247534e-05</v>
+        <v>4.934358129543033e-05</v>
       </c>
     </row>
     <row r="801">
@@ -9175,7 +9175,7 @@
         <v>4.375513076374864</v>
       </c>
       <c r="C801" t="n">
-        <v>6.475279062687416e-05</v>
+        <v>6.512028371990889e-05</v>
       </c>
     </row>
     <row r="802">
@@ -9186,7 +9186,7 @@
         <v>4.376498911428463</v>
       </c>
       <c r="C802" t="n">
-        <v>8.680311617325701e-05</v>
+        <v>8.735981648187467e-05</v>
       </c>
     </row>
     <row r="803">
@@ -9197,7 +9197,7 @@
         <v>4.377484746482063</v>
       </c>
       <c r="C803" t="n">
-        <v>0.0001166585923837226</v>
+        <v>0.0001175133494192455</v>
       </c>
     </row>
     <row r="804">
@@ -9208,7 +9208,7 @@
         <v>4.378470581535661</v>
       </c>
       <c r="C804" t="n">
-        <v>0.00015426644483995</v>
+        <v>0.0001555268013224159</v>
       </c>
     </row>
     <row r="805">
@@ -9219,7 +9219,7 @@
         <v>4.379456416589261</v>
       </c>
       <c r="C805" t="n">
-        <v>0.0001860421960903695</v>
+        <v>0.0001875857372660275</v>
       </c>
     </row>
     <row r="806">
@@ -9230,7 +9230,7 @@
         <v>4.380442251642861</v>
       </c>
       <c r="C806" t="n">
-        <v>0.0001911493556169121</v>
+        <v>0.0001925011690477924</v>
       </c>
     </row>
     <row r="807">
@@ -9241,7 +9241,7 @@
         <v>4.381428086696459</v>
       </c>
       <c r="C807" t="n">
-        <v>0.0001718421502372624</v>
+        <v>0.0001725348577617905</v>
       </c>
     </row>
     <row r="808">
@@ -9252,7 +9252,7 @@
         <v>4.382413921750059</v>
       </c>
       <c r="C808" t="n">
-        <v>0.0001798006720800842</v>
+        <v>0.0001801956580795764</v>
       </c>
     </row>
     <row r="809">
@@ -9263,7 +9263,7 @@
         <v>4.383399756803659</v>
       </c>
       <c r="C809" t="n">
-        <v>0.0002052835791574496</v>
+        <v>0.0002056943075120891</v>
       </c>
     </row>
     <row r="810">
@@ -9274,7 +9274,7 @@
         <v>4.384385591857257</v>
       </c>
       <c r="C810" t="n">
-        <v>0.0002308484090172292</v>
+        <v>0.0002314271192475766</v>
       </c>
     </row>
     <row r="811">
@@ -9285,7 +9285,7 @@
         <v>4.385371426910857</v>
       </c>
       <c r="C811" t="n">
-        <v>0.0002406209896456792</v>
+        <v>0.0002413662559817075</v>
       </c>
     </row>
     <row r="812">
@@ -9296,7 +9296,7 @@
         <v>4.386357261964456</v>
       </c>
       <c r="C812" t="n">
-        <v>0.0002352592495589311</v>
+        <v>0.0002360956647065857</v>
       </c>
     </row>
     <row r="813">
@@ -9307,7 +9307,7 @@
         <v>4.387343097018055</v>
       </c>
       <c r="C813" t="n">
-        <v>0.0002253318949919608</v>
+        <v>0.0002261578395074605</v>
       </c>
     </row>
     <row r="814">
@@ -9318,7 +9318,7 @@
         <v>4.388328932071655</v>
       </c>
       <c r="C814" t="n">
-        <v>0.0002214408000013212</v>
+        <v>0.0002221298829574014</v>
       </c>
     </row>
     <row r="815">
@@ -9329,7 +9329,7 @@
         <v>4.389314767125255</v>
       </c>
       <c r="C815" t="n">
-        <v>0.0002265937535278819</v>
+        <v>0.0002270543439207578</v>
       </c>
     </row>
     <row r="816">
@@ -9340,7 +9340,7 @@
         <v>4.390300602178853</v>
       </c>
       <c r="C816" t="n">
-        <v>0.0002314118742620038</v>
+        <v>0.0002316820380767543</v>
       </c>
     </row>
     <row r="817">
@@ -9351,7 +9351,7 @@
         <v>4.391286437232453</v>
       </c>
       <c r="C817" t="n">
-        <v>0.0002314254255568065</v>
+        <v>0.0002315971315180049</v>
       </c>
     </row>
     <row r="818">
@@ -9362,7 +9362,7 @@
         <v>4.392272272286052</v>
       </c>
       <c r="C818" t="n">
-        <v>0.0002273327584855184</v>
+        <v>0.0002274798941720394</v>
       </c>
     </row>
     <row r="819">
@@ -9373,7 +9373,7 @@
         <v>4.393258107339651</v>
       </c>
       <c r="C819" t="n">
-        <v>0.000219994081893771</v>
+        <v>0.0002201701992973152</v>
       </c>
     </row>
     <row r="820">
@@ -9384,7 +9384,7 @@
         <v>4.394243942393251</v>
       </c>
       <c r="C820" t="n">
-        <v>0.0002102696046272055</v>
+        <v>0.0002105079201522993</v>
       </c>
     </row>
     <row r="821">
@@ -9395,7 +9395,7 @@
         <v>4.39522977744685</v>
       </c>
       <c r="C821" t="n">
-        <v>0.0001990195355314722</v>
+        <v>0.0001993329299954677</v>
       </c>
     </row>
     <row r="822">
@@ -9406,7 +9406,7 @@
         <v>4.396215612500449</v>
       </c>
       <c r="C822" t="n">
-        <v>0.0001871040834521895</v>
+        <v>0.0001874851020852647</v>
       </c>
     </row>
     <row r="823">
@@ -9417,7 +9417,7 @@
         <v>4.397201447554049</v>
       </c>
       <c r="C823" t="n">
-        <v>0.0001753513365064646</v>
+        <v>0.0001757733171965363</v>
       </c>
     </row>
     <row r="824">
@@ -9428,7 +9428,7 @@
         <v>4.398187282607648</v>
       </c>
       <c r="C824" t="n">
-        <v>0.000164128683953489</v>
+        <v>0.0001645619393556044</v>
       </c>
     </row>
     <row r="825">
@@ -9439,7 +9439,7 @@
         <v>4.399173117661247</v>
       </c>
       <c r="C825" t="n">
-        <v>0.0001534587890252206</v>
+        <v>0.0001538827151096611</v>
       </c>
     </row>
     <row r="826">
@@ -9450,7 +9450,7 @@
         <v>4.400158952714847</v>
       </c>
       <c r="C826" t="n">
-        <v>0.0001433560019809458</v>
+        <v>0.0001437593700275114</v>
       </c>
     </row>
     <row r="827">
@@ -9461,7 +9461,7 @@
         <v>4.401144787768446</v>
       </c>
       <c r="C827" t="n">
-        <v>0.0001338346730799492</v>
+        <v>0.0001342156296779587</v>
       </c>
     </row>
     <row r="828">
@@ -9472,7 +9472,7 @@
         <v>4.402130622822045</v>
       </c>
       <c r="C828" t="n">
-        <v>0.0001249091525814893</v>
+        <v>0.0001252752196297807</v>
       </c>
     </row>
     <row r="829">
@@ -9483,7 +9483,7 @@
         <v>4.403116457875644</v>
       </c>
       <c r="C829" t="n">
-        <v>0.0001165937907448585</v>
+        <v>0.0001169618654517883</v>
       </c>
     </row>
     <row r="830">
@@ -9494,7 +9494,7 @@
         <v>4.404102292929243</v>
       </c>
       <c r="C830" t="n">
-        <v>0.0001089029378293176</v>
+        <v>0.0001092992927127614</v>
       </c>
     </row>
     <row r="831">
@@ -9505,7 +9505,7 @@
         <v>4.405088127982843</v>
       </c>
       <c r="C831" t="n">
-        <v>0.0001018510525832943</v>
+        <v>0.00010231130581457</v>
       </c>
     </row>
     <row r="832">
@@ -9516,7 +9516,7 @@
         <v>4.406073963036442</v>
       </c>
       <c r="C832" t="n">
-        <v>9.54833555210738e-05</v>
+        <v>9.604406203485882e-05</v>
       </c>
     </row>
     <row r="833">
@@ -9527,7 +9527,7 @@
         <v>4.407059798090041</v>
       </c>
       <c r="C833" t="n">
-        <v>8.991797277115096e-05</v>
+        <v>9.059669513335153e-05</v>
       </c>
     </row>
     <row r="834">
@@ -9538,7 +9538,7 @@
         <v>4.408045633143641</v>
       </c>
       <c r="C834" t="n">
-        <v>8.528359304650997e-05</v>
+        <v>8.607601411638102e-05</v>
       </c>
     </row>
     <row r="835">
@@ -9549,7 +9549,7 @@
         <v>4.40903146819724</v>
       </c>
       <c r="C835" t="n">
-        <v>8.170890506013165e-05</v>
+        <v>8.258882799027697e-05</v>
       </c>
     </row>
     <row r="836">
@@ -9560,7 +9560,7 @@
         <v>4.410017303250839</v>
       </c>
       <c r="C836" t="n">
-        <v>7.930885084077063e-05</v>
+        <v>8.022918608759444e-05</v>
       </c>
     </row>
     <row r="837">
@@ -9571,7 +9571,7 @@
         <v>4.411003138304439</v>
       </c>
       <c r="C837" t="n">
-        <v>7.796731665794282e-05</v>
+        <v>7.887667176036552e-05</v>
       </c>
     </row>
     <row r="838">
@@ -9582,7 +9582,7 @@
         <v>4.411988973358038</v>
       </c>
       <c r="C838" t="n">
-        <v>7.73763850364907e-05</v>
+        <v>7.823283610423098e-05</v>
       </c>
     </row>
     <row r="839">
@@ -9593,7 +9593,7 @@
         <v>4.412974808411637</v>
       </c>
       <c r="C839" t="n">
-        <v>7.722232762734423e-05</v>
+        <v>7.799383656104209e-05</v>
       </c>
     </row>
     <row r="840">
@@ -9604,7 +9604,7 @@
         <v>4.413960643465236</v>
       </c>
       <c r="C840" t="n">
-        <v>7.71914160814352e-05</v>
+        <v>7.785583057265212e-05</v>
       </c>
     </row>
     <row r="841">
@@ -9615,7 +9615,7 @@
         <v>4.414946478518836</v>
       </c>
       <c r="C841" t="n">
-        <v>7.696992204969461e-05</v>
+        <v>7.751497558091333e-05</v>
       </c>
     </row>
     <row r="842">
@@ -9626,7 +9626,7 @@
         <v>4.415932313572435</v>
       </c>
       <c r="C842" t="n">
-        <v>7.624411718305336e-05</v>
+        <v>7.666742902767801e-05</v>
       </c>
     </row>
     <row r="843">
@@ -9637,7 +9637,7 @@
         <v>4.416918148626034</v>
       </c>
       <c r="C843" t="n">
-        <v>7.473620417452525e-05</v>
+        <v>7.5045138029852e-05</v>
       </c>
     </row>
     <row r="844">
@@ -9648,7 +9648,7 @@
         <v>4.417903983679634</v>
       </c>
       <c r="C844" t="n">
-        <v>7.253444349098412e-05</v>
+        <v>7.274466726113176e-05</v>
       </c>
     </row>
     <row r="845">
@@ -9659,7 +9659,7 @@
         <v>4.418889818733233</v>
       </c>
       <c r="C845" t="n">
-        <v>6.994084950764116e-05</v>
+        <v>7.007549431054601e-05</v>
       </c>
     </row>
     <row r="846">
@@ -9670,7 +9670,7 @@
         <v>4.419875653786832</v>
       </c>
       <c r="C846" t="n">
-        <v>6.726011524396203e-05</v>
+        <v>6.734976487252461e-05</v>
       </c>
     </row>
     <row r="847">
@@ -9681,7 +9681,7 @@
         <v>4.420861488840432</v>
       </c>
       <c r="C847" t="n">
-        <v>6.47969337194049e-05</v>
+        <v>6.487962464148983e-05</v>
       </c>
     </row>
     <row r="848">
@@ -9692,7 +9692,7 @@
         <v>4.421847323894031</v>
       </c>
       <c r="C848" t="n">
-        <v>6.285450661474339e-05</v>
+        <v>6.297564692102215e-05</v>
       </c>
     </row>
     <row r="849">
@@ -9703,7 +9703,7 @@
         <v>4.42283315894763</v>
       </c>
       <c r="C849" t="n">
-        <v>6.150698888468025e-05</v>
+        <v>6.170690992167651e-05</v>
       </c>
     </row>
     <row r="850">
@@ -9714,7 +9714,7 @@
         <v>4.42381899400123</v>
       </c>
       <c r="C850" t="n">
-        <v>6.035481451279775e-05</v>
+        <v>6.0643024815333e-05</v>
       </c>
     </row>
     <row r="851">
@@ -9725,7 +9725,7 @@
         <v>4.424804829054828</v>
       </c>
       <c r="C851" t="n">
-        <v>5.896110218723358e-05</v>
+        <v>5.931467641748477e-05</v>
       </c>
     </row>
     <row r="852">
@@ -9736,7 +9736,7 @@
         <v>4.425790664108428</v>
       </c>
       <c r="C852" t="n">
-        <v>5.718553010658512e-05</v>
+        <v>5.757101269543356e-05</v>
       </c>
     </row>
     <row r="853">
@@ -9747,7 +9747,7 @@
         <v>4.426776499162028</v>
       </c>
       <c r="C853" t="n">
-        <v>5.510474511634766e-05</v>
+        <v>5.549417538905465e-05</v>
       </c>
     </row>
     <row r="854">
@@ -9758,7 +9758,7 @@
         <v>4.427762334215627</v>
       </c>
       <c r="C854" t="n">
-        <v>5.280035862138222e-05</v>
+        <v>5.317163747585757e-05</v>
       </c>
     </row>
     <row r="855">
@@ -9769,7 +9769,7 @@
         <v>4.428748169269226</v>
       </c>
       <c r="C855" t="n">
-        <v>5.035398202655204e-05</v>
+        <v>5.069087193335416e-05</v>
       </c>
     </row>
     <row r="856">
@@ -9780,7 +9780,7 @@
         <v>4.429734004322825</v>
       </c>
       <c r="C856" t="n">
-        <v>4.784722673671363e-05</v>
+        <v>4.813935173904947e-05</v>
       </c>
     </row>
     <row r="857">
@@ -9791,7 +9791,7 @@
         <v>4.430719839376424</v>
       </c>
       <c r="C857" t="n">
-        <v>4.536170415673235e-05</v>
+        <v>4.560454987045745e-05</v>
       </c>
     </row>
     <row r="858">
@@ -9802,7 +9802,7 @@
         <v>4.431705674430024</v>
       </c>
       <c r="C858" t="n">
-        <v>4.297856295901184e-05</v>
+        <v>4.317344406626852e-05</v>
       </c>
     </row>
     <row r="859">
@@ -9813,7 +9813,7 @@
         <v>4.432691509483623</v>
       </c>
       <c r="C859" t="n">
-        <v>4.074766241843835e-05</v>
+        <v>4.08995246275833e-05</v>
       </c>
     </row>
     <row r="860">
@@ -9824,7 +9824,7 @@
         <v>4.433677344537222</v>
       </c>
       <c r="C860" t="n">
-        <v>3.866821955589795e-05</v>
+        <v>3.878208204806694e-05</v>
       </c>
     </row>
     <row r="861">
@@ -9835,7 +9835,7 @@
         <v>4.434663179590822</v>
       </c>
       <c r="C861" t="n">
-        <v>3.673483451511922e-05</v>
+        <v>3.681546561452454e-05</v>
       </c>
     </row>
     <row r="862">
@@ -9846,7 +9846,7 @@
         <v>4.435649014644421</v>
       </c>
       <c r="C862" t="n">
-        <v>3.49421074398365e-05</v>
+        <v>3.499402461376702e-05</v>
       </c>
     </row>
     <row r="863">
@@ -9857,7 +9857,7 @@
         <v>4.43663484969802</v>
       </c>
       <c r="C863" t="n">
-        <v>3.328463847378358e-05</v>
+        <v>3.331210833260477e-05</v>
       </c>
     </row>
     <row r="864">
@@ -9868,7 +9868,7 @@
         <v>4.43762068475162</v>
       </c>
       <c r="C864" t="n">
-        <v>3.175702776068983e-05</v>
+        <v>3.176406605784368e-05</v>
       </c>
     </row>
     <row r="865">
@@ -9879,7 +9879,7 @@
         <v>4.438606519805219</v>
       </c>
       <c r="C865" t="n">
-        <v>3.035387544428919e-05</v>
+        <v>3.034424707629426e-05</v>
       </c>
     </row>
     <row r="866">
@@ -9890,7 +9890,7 @@
         <v>4.439592354858818</v>
       </c>
       <c r="C866" t="n">
-        <v>2.906978166831512e-05</v>
+        <v>2.904700067476656e-05</v>
       </c>
     </row>
     <row r="867">
@@ -9901,7 +9901,7 @@
         <v>4.440578189912418</v>
       </c>
       <c r="C867" t="n">
-        <v>2.789934657649768e-05</v>
+        <v>2.786667614006718e-05</v>
       </c>
     </row>
     <row r="868">
@@ -9912,7 +9912,7 @@
         <v>4.441564024966016</v>
       </c>
       <c r="C868" t="n">
-        <v>2.683717031257136e-05</v>
+        <v>2.67976227590072e-05</v>
       </c>
     </row>
     <row r="869">
@@ -9923,7 +9923,7 @@
         <v>4.442549860019616</v>
       </c>
       <c r="C869" t="n">
-        <v>2.587785302026659e-05</v>
+        <v>2.58341898183936e-05</v>
       </c>
     </row>
     <row r="870">
@@ -9934,7 +9934,7 @@
         <v>4.443535695073216</v>
       </c>
       <c r="C870" t="n">
-        <v>2.501599484331676e-05</v>
+        <v>2.497072660503634e-05</v>
       </c>
     </row>
     <row r="871">
@@ -9945,7 +9945,7 @@
         <v>4.444521530126814</v>
       </c>
       <c r="C871" t="n">
-        <v>2.424619592545489e-05</v>
+        <v>2.4201582405745e-05</v>
       </c>
     </row>
     <row r="872">
@@ -9956,7 +9956,7 @@
         <v>4.445507365180414</v>
       </c>
       <c r="C872" t="n">
-        <v>2.356305641041195e-05</v>
+        <v>2.352110650732714e-05</v>
       </c>
     </row>
     <row r="873">
@@ -9967,7 +9967,7 @@
         <v>4.446493200234014</v>
       </c>
       <c r="C873" t="n">
-        <v>2.296117644192105e-05</v>
+        <v>2.29236481965924e-05</v>
       </c>
     </row>
     <row r="874">
@@ -9978,7 +9978,7 @@
         <v>4.447479035287612</v>
       </c>
       <c r="C874" t="n">
-        <v>2.2435156163715e-05</v>
+        <v>2.240355676035017e-05</v>
       </c>
     </row>
     <row r="875">
@@ -9989,7 +9989,7 @@
         <v>4.448464870341212</v>
       </c>
       <c r="C875" t="n">
-        <v>2.197959571952521e-05</v>
+        <v>2.195518148540844e-05</v>
       </c>
     </row>
     <row r="876">
@@ -10000,7 +10000,7 @@
         <v>4.449450705394812</v>
       </c>
       <c r="C876" t="n">
-        <v>2.158909525308455e-05</v>
+        <v>2.157287165857663e-05</v>
       </c>
     </row>
     <row r="877">
@@ -10011,7 +10011,7 @@
         <v>4.45043654044841</v>
       </c>
       <c r="C877" t="n">
-        <v>2.125825490812568e-05</v>
+        <v>2.125097656666396e-05</v>
       </c>
     </row>
     <row r="878">
@@ -10022,7 +10022,7 @@
         <v>4.45142237550201</v>
       </c>
       <c r="C878" t="n">
-        <v>2.098167482838034e-05</v>
+        <v>2.098384549647876e-05</v>
       </c>
     </row>
     <row r="879">
@@ -10033,7 +10033,7 @@
         <v>4.452408210555609</v>
       </c>
       <c r="C879" t="n">
-        <v>2.075395515758144e-05</v>
+        <v>2.076582773483048e-05</v>
       </c>
     </row>
     <row r="880">
@@ -10044,7 +10044,7 @@
         <v>4.453394045609208</v>
       </c>
       <c r="C880" t="n">
-        <v>2.056969603946091e-05</v>
+        <v>2.059127256852763e-05</v>
       </c>
     </row>
     <row r="881">
@@ -10055,7 +10055,7 @@
         <v>4.454379880662808</v>
       </c>
       <c r="C881" t="n">
-        <v>2.042349761775135e-05</v>
+        <v>2.045452928437939e-05</v>
       </c>
     </row>
     <row r="882">
@@ -10066,7 +10066,7 @@
         <v>4.455365715716407</v>
       </c>
       <c r="C882" t="n">
-        <v>2.030996003618514e-05</v>
+        <v>2.034994716919467e-05</v>
       </c>
     </row>
     <row r="883">
@@ -10077,7 +10077,7 @@
         <v>4.456351550770006</v>
       </c>
       <c r="C883" t="n">
-        <v>2.022368343849469e-05</v>
+        <v>2.027187550978246e-05</v>
       </c>
     </row>
     <row r="884">
@@ -10088,7 +10088,7 @@
         <v>4.457337385823606</v>
       </c>
       <c r="C884" t="n">
-        <v>2.015926796841223e-05</v>
+        <v>2.021466359295157e-05</v>
       </c>
     </row>
     <row r="885">
@@ -10099,7 +10099,7 @@
         <v>4.458323220877205</v>
       </c>
       <c r="C885" t="n">
-        <v>2.011196832258395e-05</v>
+        <v>2.017335347852546e-05</v>
       </c>
     </row>
     <row r="886">
@@ -10110,7 +10110,7 @@
         <v>4.459309055930804</v>
       </c>
       <c r="C886" t="n">
-        <v>2.008068445876706e-05</v>
+        <v>2.014684533844569e-05</v>
       </c>
     </row>
     <row r="887">
@@ -10121,7 +10121,7 @@
         <v>4.460294890984404</v>
       </c>
       <c r="C887" t="n">
-        <v>2.006557785183002e-05</v>
+        <v>2.013537452320636e-05</v>
       </c>
     </row>
     <row r="888">
@@ -10132,7 +10132,7 @@
         <v>4.461280726038003</v>
       </c>
       <c r="C888" t="n">
-        <v>2.006681119566741e-05</v>
+        <v>2.013917767350804e-05</v>
       </c>
     </row>
     <row r="889">
@@ -10143,7 +10143,7 @@
         <v>4.462266561091602</v>
       </c>
       <c r="C889" t="n">
-        <v>2.008454718417382e-05</v>
+        <v>2.015849143005135e-05</v>
       </c>
     </row>
     <row r="890">
@@ -10154,7 +10154,7 @@
         <v>4.463252396145202</v>
       </c>
       <c r="C890" t="n">
-        <v>2.011894851124383e-05</v>
+        <v>2.019355243353687e-05</v>
       </c>
     </row>
     <row r="891">
@@ -10165,7 +10165,7 @@
         <v>4.4642382311988</v>
       </c>
       <c r="C891" t="n">
-        <v>2.017017787077199e-05</v>
+        <v>2.024459732466516e-05</v>
       </c>
     </row>
     <row r="892">
@@ -10176,7 +10176,7 @@
         <v>4.4652240662524</v>
       </c>
       <c r="C892" t="n">
-        <v>2.023839795665297e-05</v>
+        <v>2.031186274413688e-05</v>
       </c>
     </row>
     <row r="893">
@@ -10187,7 +10187,7 @@
         <v>4.466209901306</v>
       </c>
       <c r="C893" t="n">
-        <v>2.032377146278131e-05</v>
+        <v>2.039558533265258e-05</v>
       </c>
     </row>
     <row r="894">
@@ -10198,7 +10198,7 @@
         <v>4.467195736359598</v>
       </c>
       <c r="C894" t="n">
-        <v>2.042646108305151e-05</v>
+        <v>2.049600173091277e-05</v>
       </c>
     </row>
     <row r="895">
@@ -10209,7 +10209,7 @@
         <v>4.468181571413198</v>
       </c>
       <c r="C895" t="n">
-        <v>2.054662951135834e-05</v>
+        <v>2.061334857961822e-05</v>
       </c>
     </row>
     <row r="896">
@@ -10220,7 +10220,7 @@
         <v>4.469167406466797</v>
       </c>
       <c r="C896" t="n">
-        <v>2.068443944159616e-05</v>
+        <v>2.07478625194693e-05</v>
       </c>
     </row>
     <row r="897">
@@ -10231,7 +10231,7 @@
         <v>4.470153241520396</v>
       </c>
       <c r="C897" t="n">
-        <v>2.084005356765982e-05</v>
+        <v>2.089978019116685e-05</v>
       </c>
     </row>
     <row r="898">
@@ -10242,7 +10242,7 @@
         <v>4.471139076573996</v>
       </c>
       <c r="C898" t="n">
-        <v>2.101363458344377e-05</v>
+        <v>2.106933823541134e-05</v>
       </c>
     </row>
     <row r="899">
@@ -10253,7 +10253,7 @@
         <v>4.472124911627595</v>
       </c>
       <c r="C899" t="n">
-        <v>2.120534518284243e-05</v>
+        <v>2.125677329290319e-05</v>
       </c>
     </row>
     <row r="900">
@@ -10264,7 +10264,7 @@
         <v>4.473110746681194</v>
       </c>
       <c r="C900" t="n">
-        <v>2.141534805975072e-05</v>
+        <v>2.146232200434334e-05</v>
       </c>
     </row>
     <row r="901">
@@ -10275,7 +10275,7 @@
         <v>4.474096581734794</v>
       </c>
       <c r="C901" t="n">
-        <v>2.164380590806308e-05</v>
+        <v>2.16862210104322e-05</v>
       </c>
     </row>
     <row r="902">
@@ -10286,7 +10286,7 @@
         <v>4.475082416788393</v>
       </c>
       <c r="C902" t="n">
-        <v>2.189088142167385e-05</v>
+        <v>2.192870695187014e-05</v>
       </c>
     </row>
     <row r="903">
@@ -10297,7 +10297,7 @@
         <v>4.476068251841992</v>
       </c>
       <c r="C903" t="n">
-        <v>2.215673729447806e-05</v>
+        <v>2.219001646935819e-05</v>
       </c>
     </row>
     <row r="904">
@@ -10308,7 +10308,7 @@
         <v>4.477054086895592</v>
       </c>
       <c r="C904" t="n">
-        <v>2.24415362203701e-05</v>
+        <v>2.247038620359674e-05</v>
       </c>
     </row>
     <row r="905">
@@ -10319,7 +10319,7 @@
         <v>4.478039921949191</v>
       </c>
       <c r="C905" t="n">
-        <v>2.274544089324425e-05</v>
+        <v>2.27700527952861e-05</v>
       </c>
     </row>
     <row r="906">
@@ -10330,7 +10330,7 @@
         <v>4.47902575700279</v>
       </c>
       <c r="C906" t="n">
-        <v>2.306861400699567e-05</v>
+        <v>2.308925288512739e-05</v>
       </c>
     </row>
     <row r="907">
@@ -10341,7 +10341,7 @@
         <v>4.480011592056389</v>
       </c>
       <c r="C907" t="n">
-        <v>2.341121825551834e-05</v>
+        <v>2.342822311382063e-05</v>
       </c>
     </row>
     <row r="908">
@@ -10352,7 +10352,7 @@
         <v>4.480997427109989</v>
       </c>
       <c r="C908" t="n">
-        <v>2.377341633270747e-05</v>
+        <v>2.378720012206702e-05</v>
       </c>
     </row>
     <row r="909">
@@ -10363,7 +10363,7 @@
         <v>4.481983262163588</v>
       </c>
       <c r="C909" t="n">
-        <v>2.415537093245735e-05</v>
+        <v>2.416642055056687e-05</v>
       </c>
     </row>
     <row r="910">
@@ -10374,7 +10374,7 @@
         <v>4.482969097217187</v>
       </c>
       <c r="C910" t="n">
-        <v>2.45572447486622e-05</v>
+        <v>2.456612104002038e-05</v>
       </c>
     </row>
     <row r="911">
@@ -10385,7 +10385,7 @@
         <v>4.483954932270787</v>
       </c>
       <c r="C911" t="n">
-        <v>2.497920047521732e-05</v>
+        <v>2.498653823112887e-05</v>
       </c>
     </row>
     <row r="912">
@@ -10396,7 +10396,7 @@
         <v>4.484940767324386</v>
       </c>
       <c r="C912" t="n">
-        <v>2.542140080601696e-05</v>
+        <v>2.54279087645926e-05</v>
       </c>
     </row>
     <row r="913">
@@ -10407,7 +10407,7 @@
         <v>4.485926602377985</v>
       </c>
       <c r="C913" t="n">
-        <v>2.588400843495526e-05</v>
+        <v>2.58904692811117e-05</v>
       </c>
     </row>
     <row r="914">
@@ -10418,7 +10418,7 @@
         <v>4.486912437431585</v>
       </c>
       <c r="C914" t="n">
-        <v>2.636718605592765e-05</v>
+        <v>2.637445642138761e-05</v>
       </c>
     </row>
     <row r="915">
@@ -10429,7 +10429,7 @@
         <v>4.487898272485184</v>
       </c>
       <c r="C915" t="n">
-        <v>2.68710963628283e-05</v>
+        <v>2.688010682612052e-05</v>
       </c>
     </row>
     <row r="916">
@@ -10440,7 +10440,7 @@
         <v>4.488884107538783</v>
       </c>
       <c r="C916" t="n">
-        <v>2.739590204955133e-05</v>
+        <v>2.740765713601053e-05</v>
       </c>
     </row>
     <row r="917">
@@ -10451,7 +10451,7 @@
         <v>4.489869942592382</v>
       </c>
       <c r="C917" t="n">
-        <v>2.794176580999227e-05</v>
+        <v>2.795734399175919e-05</v>
       </c>
     </row>
     <row r="918">
@@ -10462,7 +10462,7 @@
         <v>4.490855777645981</v>
       </c>
       <c r="C918" t="n">
-        <v>2.85088503380447e-05</v>
+        <v>2.852940403406608e-05</v>
       </c>
     </row>
     <row r="919">
@@ -10473,7 +10473,7 @@
         <v>4.491841612699581</v>
       </c>
       <c r="C919" t="n">
-        <v>2.909731832760426e-05</v>
+        <v>2.912407390363285e-05</v>
       </c>
     </row>
     <row r="920">
@@ -10484,7 +10484,7 @@
         <v>4.49282744775318</v>
       </c>
       <c r="C920" t="n">
-        <v>2.97096442827652e-05</v>
+        <v>2.974384523385919e-05</v>
       </c>
     </row>
     <row r="921">
@@ -10495,7 +10495,7 @@
         <v>4.49381328280678</v>
       </c>
       <c r="C921" t="n">
-        <v>3.035922613937567e-05</v>
+        <v>3.040186462404911e-05</v>
       </c>
     </row>
     <row r="922">
@@ -10506,7 +10506,7 @@
         <v>4.494799117860379</v>
       </c>
       <c r="C922" t="n">
-        <v>3.106268502369793e-05</v>
+        <v>3.111442264737285e-05</v>
       </c>
     </row>
     <row r="923">
@@ -10517,7 +10517,7 @@
         <v>4.495784952913978</v>
       </c>
       <c r="C923" t="n">
-        <v>3.183664252917263e-05</v>
+        <v>3.189781033269731e-05</v>
       </c>
     </row>
     <row r="924">
@@ -10528,7 +10528,7 @@
         <v>4.496770787967577</v>
       </c>
       <c r="C924" t="n">
-        <v>3.269772024923771e-05</v>
+        <v>3.276831870888663e-05</v>
       </c>
     </row>
     <row r="925">
@@ -10539,7 +10539,7 @@
         <v>4.497756623021177</v>
       </c>
       <c r="C925" t="n">
-        <v>3.366253977733411e-05</v>
+        <v>3.374223880480801e-05</v>
       </c>
     </row>
     <row r="926">
@@ -10550,7 +10550,7 @@
         <v>4.498742458074776</v>
       </c>
       <c r="C926" t="n">
-        <v>3.474772270690049e-05</v>
+        <v>3.483586164932629e-05</v>
       </c>
     </row>
     <row r="927">
@@ -10561,7 +10561,7 @@
         <v>4.499728293128375</v>
       </c>
       <c r="C927" t="n">
-        <v>3.596989063137508e-05</v>
+        <v>3.60654782713059e-05</v>
       </c>
     </row>
     <row r="928">
@@ -10572,7 +10572,7 @@
         <v>4.500714128181975</v>
       </c>
       <c r="C928" t="n">
-        <v>3.734566514419945e-05</v>
+        <v>3.744737969961467e-05</v>
       </c>
     </row>
     <row r="929">
@@ -10583,7 +10583,7 @@
         <v>4.501699963235574</v>
       </c>
       <c r="C929" t="n">
-        <v>3.889166783881196e-05</v>
+        <v>3.899785696311717e-05</v>
       </c>
     </row>
     <row r="930">
@@ -10594,7 +10594,7 @@
         <v>4.502685798289173</v>
       </c>
       <c r="C930" t="n">
-        <v>4.062452030865034e-05</v>
+        <v>4.073320109067735e-05</v>
       </c>
     </row>
     <row r="931">
@@ -10605,7 +10605,7 @@
         <v>4.503671633342773</v>
       </c>
       <c r="C931" t="n">
-        <v>4.255981791261535e-05</v>
+        <v>4.266868915833923e-05</v>
       </c>
     </row>
     <row r="932">
@@ -10616,7 +10616,7 @@
         <v>4.504657468396372</v>
       </c>
       <c r="C932" t="n">
-        <v>4.469482497300669e-05</v>
+        <v>4.480148658678491e-05</v>
       </c>
     </row>
     <row r="933">
@@ -10627,7 +10627,7 @@
         <v>4.505643303449971</v>
       </c>
       <c r="C933" t="n">
-        <v>4.701099880383379e-05</v>
+        <v>4.711314096270872e-05</v>
       </c>
     </row>
     <row r="934">
@@ -10638,7 +10638,7 @@
         <v>4.506629138503571</v>
       </c>
       <c r="C934" t="n">
-        <v>4.948927876564703e-05</v>
+        <v>4.958468811808292e-05</v>
       </c>
     </row>
     <row r="935">
@@ -10649,7 +10649,7 @@
         <v>4.507614973557169</v>
       </c>
       <c r="C935" t="n">
-        <v>5.211060421898823e-05</v>
+        <v>5.219716388487118e-05</v>
       </c>
     </row>
     <row r="936">
@@ -10660,7 +10660,7 @@
         <v>4.508600808610769</v>
       </c>
       <c r="C936" t="n">
-        <v>5.485591452440835e-05</v>
+        <v>5.493160409504625e-05</v>
       </c>
     </row>
     <row r="937">
@@ -10671,7 +10671,7 @@
         <v>4.509586643664369</v>
       </c>
       <c r="C937" t="n">
-        <v>5.77061490424513e-05</v>
+        <v>5.776904458057396e-05</v>
       </c>
     </row>
     <row r="938">
@@ -10682,7 +10682,7 @@
         <v>4.510572478717967</v>
       </c>
       <c r="C938" t="n">
-        <v>6.064224713366066e-05</v>
+        <v>6.069052117341972e-05</v>
       </c>
     </row>
     <row r="939">
@@ -10693,7 +10693,7 @@
         <v>4.511558313771567</v>
       </c>
       <c r="C939" t="n">
-        <v>6.364514815858796e-05</v>
+        <v>6.367706970555686e-05</v>
       </c>
     </row>
     <row r="940">
@@ -10704,7 +10704,7 @@
         <v>4.512544148825167</v>
       </c>
       <c r="C940" t="n">
-        <v>6.66957914777768e-05</v>
+        <v>6.670972600895088e-05</v>
       </c>
     </row>
     <row r="941">
@@ -10715,7 +10715,7 @@
         <v>4.513529983878765</v>
       </c>
       <c r="C941" t="n">
-        <v>6.977511645177065e-05</v>
+        <v>6.976952591556708e-05</v>
       </c>
     </row>
     <row r="942">
@@ -10726,7 +10726,7 @@
         <v>4.514515818932365</v>
       </c>
       <c r="C942" t="n">
-        <v>7.28640624411213e-05</v>
+        <v>7.283750525737909e-05</v>
       </c>
     </row>
     <row r="943">
@@ -10737,7 +10737,7 @@
         <v>4.515501653985964</v>
       </c>
       <c r="C943" t="n">
-        <v>7.594356880637216e-05</v>
+        <v>7.589469986635218e-05</v>
       </c>
     </row>
     <row r="944">
@@ -10748,7 +10748,7 @@
         <v>4.516487489039563</v>
       </c>
       <c r="C944" t="n">
-        <v>7.899457490806683e-05</v>
+        <v>7.892214557445181e-05</v>
       </c>
     </row>
     <row r="945">
@@ -10759,7 +10759,7 @@
         <v>4.517473324093163</v>
       </c>
       <c r="C945" t="n">
-        <v>8.199802010675695e-05</v>
+        <v>8.190087821365143e-05</v>
       </c>
     </row>
     <row r="946">
@@ -10770,7 +10770,7 @@
         <v>4.518459159146762</v>
       </c>
       <c r="C946" t="n">
-        <v>8.495578364521803e-05</v>
+        <v>8.48329850135398e-05</v>
       </c>
     </row>
     <row r="947">
@@ -10781,7 +10781,7 @@
         <v>4.519444994200361</v>
       </c>
       <c r="C947" t="n">
-        <v>8.796635358818287e-05</v>
+        <v>8.7817676516168e-05</v>
       </c>
     </row>
     <row r="948">
@@ -10792,7 +10792,7 @@
         <v>4.520430829253961</v>
       </c>
       <c r="C948" t="n">
-        <v>9.115606053696572e-05</v>
+        <v>9.098215407566183e-05</v>
       </c>
     </row>
     <row r="949">
@@ -10803,7 +10803,7 @@
         <v>4.52141666430756</v>
       </c>
       <c r="C949" t="n">
-        <v>9.465123769175785e-05</v>
+        <v>9.445362165886433e-05</v>
       </c>
     </row>
     <row r="950">
@@ -10814,7 +10814,7 @@
         <v>4.522402499361159</v>
       </c>
       <c r="C950" t="n">
-        <v>9.857821825275994e-05</v>
+        <v>9.835928323262796e-05</v>
       </c>
     </row>
     <row r="951">
@@ -10825,7 +10825,7 @@
         <v>4.523388334414759</v>
       </c>
       <c r="C951" t="n">
-        <v>0.0001030633354201636</v>
+        <v>0.0001028263427637962</v>
       </c>
     </row>
     <row r="952">
@@ -10836,7 +10836,7 @@
         <v>4.524374169468357</v>
       </c>
       <c r="C952" t="n">
-        <v>0.0001082329223941584</v>
+        <v>0.0001079820042192102</v>
       </c>
     </row>
     <row r="953">
@@ -10847,7 +10847,7 @@
         <v>4.525360004521957</v>
       </c>
       <c r="C953" t="n">
-        <v>0.000114213312374948</v>
+        <v>0.0001139534715657257</v>
       </c>
     </row>
     <row r="954">
@@ -10858,7 +10858,7 @@
         <v>4.526345839575557</v>
       </c>
       <c r="C954" t="n">
-        <v>0.000121130764526012</v>
+        <v>0.0001208678714972255</v>
       </c>
     </row>
     <row r="955">
@@ -10869,7 +10869,7 @@
         <v>4.527331674629155</v>
       </c>
       <c r="C955" t="n">
-        <v>0.000129088603297255</v>
+        <v>0.0001288283934855307</v>
       </c>
     </row>
     <row r="956">
@@ -10880,7 +10880,7 @@
         <v>4.528317509682755</v>
       </c>
       <c r="C956" t="n">
-        <v>0.0001381348651554196</v>
+        <v>0.0001378805223040361</v>
       </c>
     </row>
     <row r="957">
@@ -10891,7 +10891,7 @@
         <v>4.529303344736355</v>
       </c>
       <c r="C957" t="n">
-        <v>0.0001483094229334117</v>
+        <v>0.0001480612222484198</v>
       </c>
     </row>
     <row r="958">
@@ -10902,7 +10902,7 @@
         <v>4.530289179789953</v>
       </c>
       <c r="C958" t="n">
-        <v>0.0001596521494641337</v>
+        <v>0.0001594074576143559</v>
       </c>
     </row>
     <row r="959">
@@ -10913,7 +10913,7 @@
         <v>4.531275014843553</v>
       </c>
       <c r="C959" t="n">
-        <v>0.0001722029175805187</v>
+        <v>0.0001719561926975499</v>
       </c>
     </row>
     <row r="960">
@@ -10924,7 +10924,7 @@
         <v>4.532260849897153</v>
       </c>
       <c r="C960" t="n">
-        <v>0.00018600160011547</v>
+        <v>0.0001857443917936767</v>
       </c>
     </row>
     <row r="961">
@@ -10935,7 +10935,7 @@
         <v>4.533246684950751</v>
       </c>
       <c r="C961" t="n">
-        <v>0.0002010880699018864</v>
+        <v>0.0002008090191984074</v>
       </c>
     </row>
     <row r="962">
@@ -10946,7 +10946,7 @@
         <v>4.534232520004351</v>
       </c>
       <c r="C962" t="n">
-        <v>0.0002175021997727078</v>
+        <v>0.0002171870392074539</v>
       </c>
     </row>
     <row r="963">
@@ -10957,7 +10957,7 @@
         <v>4.53521835505795</v>
       </c>
       <c r="C963" t="n">
-        <v>0.0002352684303053717</v>
+        <v>0.0002349005258145323</v>
       </c>
     </row>
     <row r="964">
@@ -10968,7 +10968,7 @@
         <v>4.536204190111549</v>
       </c>
       <c r="C964" t="n">
-        <v>0.0002542228893868473</v>
+        <v>0.0002537898535313976</v>
       </c>
     </row>
     <row r="965">
@@ -10979,7 +10979,7 @@
         <v>4.537190025165149</v>
       </c>
       <c r="C965" t="n">
-        <v>0.0002740758423026525</v>
+        <v>0.0002735739543402241</v>
       </c>
     </row>
     <row r="966">
@@ -10990,7 +10990,7 @@
         <v>4.538175860218748</v>
       </c>
       <c r="C966" t="n">
-        <v>0.0002945352512318622</v>
+        <v>0.0002939695379977667</v>
       </c>
     </row>
     <row r="967">
@@ -11001,7 +11001,7 @@
         <v>4.539161695272347</v>
       </c>
       <c r="C967" t="n">
-        <v>0.0003153090783536066</v>
+        <v>0.0003146933142608349</v>
       </c>
     </row>
     <row r="968">
@@ -11012,7 +11012,7 @@
         <v>4.540147530325947</v>
       </c>
       <c r="C968" t="n">
-        <v>0.0003361052858469608</v>
+        <v>0.0003354619928861838</v>
       </c>
     </row>
     <row r="969">
@@ -11023,7 +11023,7 @@
         <v>4.541133365379546</v>
       </c>
       <c r="C969" t="n">
-        <v>0.0003566318358910001</v>
+        <v>0.0003559922836305683</v>
       </c>
     </row>
     <row r="970">
@@ -11034,7 +11034,7 @@
         <v>4.542119200433145</v>
       </c>
       <c r="C970" t="n">
-        <v>0.0003765966906648548</v>
+        <v>0.0003760008962507987</v>
       </c>
     </row>
     <row r="971">
@@ -11045,7 +11045,7 @@
         <v>4.543105035486745</v>
       </c>
       <c r="C971" t="n">
-        <v>0.0003957078123475999</v>
+        <v>0.0003952045405036292</v>
       </c>
     </row>
     <row r="972">
@@ -11056,7 +11056,7 @@
         <v>4.544090870540344</v>
       </c>
       <c r="C972" t="n">
-        <v>0.0004136557550791747</v>
+        <v>0.0004133012550064974</v>
       </c>
     </row>
     <row r="973">
@@ -11067,7 +11067,7 @@
         <v>4.545076705593943</v>
       </c>
       <c r="C973" t="n">
-        <v>0.0004298832488206515</v>
+        <v>0.0004297232724618958</v>
       </c>
     </row>
     <row r="974">
@@ -11078,7 +11078,7 @@
         <v>4.546062540647542</v>
       </c>
       <c r="C974" t="n">
-        <v>0.0004436485184429497</v>
+        <v>0.0004437049330804593</v>
       </c>
     </row>
     <row r="975">
@@ -11089,7 +11089,7 @@
         <v>4.547048375701142</v>
       </c>
       <c r="C975" t="n">
-        <v>0.0004542053911777502</v>
+        <v>0.0004544758603477341</v>
       </c>
     </row>
     <row r="976">
@@ -11100,7 +11100,7 @@
         <v>4.548034210754741</v>
       </c>
       <c r="C976" t="n">
-        <v>0.0004608076942566949</v>
+        <v>0.0004612656777492264</v>
       </c>
     </row>
     <row r="977">
@@ -11111,7 +11111,7 @@
         <v>4.54902004580834</v>
       </c>
       <c r="C977" t="n">
-        <v>0.0004627092549114396</v>
+        <v>0.0004633040087704565</v>
       </c>
     </row>
     <row r="978">
@@ -11122,7 +11122,7 @@
         <v>4.550005880861939</v>
       </c>
       <c r="C978" t="n">
-        <v>0.0004591642790115239</v>
+        <v>0.0004598208630138327</v>
       </c>
     </row>
     <row r="979">
@@ -11133,7 +11133,7 @@
         <v>4.550991715915539</v>
       </c>
       <c r="C979" t="n">
-        <v>0.0004500413139367848</v>
+        <v>0.0004506727263058008</v>
       </c>
     </row>
     <row r="980">
@@ -11144,7 +11144,7 @@
         <v>4.551977550969138</v>
       </c>
       <c r="C980" t="n">
-        <v>0.000437072533331259</v>
+        <v>0.0004376165218117231</v>
       </c>
     </row>
     <row r="981">
@@ -11155,7 +11155,7 @@
         <v>4.552963386022737</v>
       </c>
       <c r="C981" t="n">
-        <v>0.0004223421682657821</v>
+        <v>0.0004227681840997212</v>
       </c>
     </row>
     <row r="982">
@@ -11166,7 +11166,7 @@
         <v>4.553949221076337</v>
       </c>
       <c r="C982" t="n">
-        <v>0.0004079344496549654</v>
+        <v>0.0004082436475794433</v>
       </c>
     </row>
     <row r="983">
@@ -11177,7 +11177,7 @@
         <v>4.554935056129936</v>
       </c>
       <c r="C983" t="n">
-        <v>0.000395509795583513</v>
+        <v>0.0003957289298629706</v>
       </c>
     </row>
     <row r="984">
@@ -11188,7 +11188,7 @@
         <v>4.555920891183535</v>
       </c>
       <c r="C984" t="n">
-        <v>0.0003850697068806101</v>
+        <v>0.0003852272387378782</v>
       </c>
     </row>
     <row r="985">
@@ -11199,7 +11199,7 @@
         <v>4.556906726237134</v>
       </c>
       <c r="C985" t="n">
-        <v>0.0003762098447190961</v>
+        <v>0.0003763300972265113</v>
       </c>
     </row>
     <row r="986">
@@ -11210,7 +11210,7 @@
         <v>4.557892561290734</v>
       </c>
       <c r="C986" t="n">
-        <v>0.0003685258702717749</v>
+        <v>0.0003686290283511789</v>
       </c>
     </row>
     <row r="987">
@@ -11221,7 +11221,7 @@
         <v>4.558878396344333</v>
       </c>
       <c r="C987" t="n">
-        <v>0.000361613444711474</v>
+        <v>0.0003617155551342146</v>
       </c>
     </row>
     <row r="988">
@@ -11232,7 +11232,7 @@
         <v>4.559864231397933</v>
       </c>
       <c r="C988" t="n">
-        <v>0.0003550682292110134</v>
+        <v>0.0003551812005979437</v>
       </c>
     </row>
     <row r="989">
@@ -11243,7 +11243,7 @@
         <v>4.560850066451532</v>
       </c>
       <c r="C989" t="n">
-        <v>0.0003484858849432182</v>
+        <v>0.0003486174877646971</v>
       </c>
     </row>
     <row r="990">
@@ -11254,7 +11254,7 @@
         <v>4.561835901505131</v>
       </c>
       <c r="C990" t="n">
-        <v>0.0003414620730808964</v>
+        <v>0.0003416159396567883</v>
       </c>
     </row>
     <row r="991">
@@ -11265,7 +11265,7 @@
         <v>4.56282173655873</v>
       </c>
       <c r="C991" t="n">
-        <v>0.0003335924547968809</v>
+        <v>0.0003337680792965559</v>
       </c>
     </row>
     <row r="992">
@@ -11276,7 +11276,7 @@
         <v>4.56380757161233</v>
       </c>
       <c r="C992" t="n">
-        <v>0.0003245432402346899</v>
+        <v>0.0003247364887757511</v>
       </c>
     </row>
     <row r="993">
@@ -11287,7 +11287,7 @@
         <v>4.564793406665929</v>
       </c>
       <c r="C993" t="n">
-        <v>0.0003143868680247177</v>
+        <v>0.0003145929158758007</v>
       </c>
     </row>
     <row r="994">
@@ -11298,7 +11298,7 @@
         <v>4.565779241719528</v>
       </c>
       <c r="C994" t="n">
-        <v>0.0003033408794041684</v>
+        <v>0.0003035552601378105</v>
       </c>
     </row>
     <row r="995">
@@ -11309,7 +11309,7 @@
         <v>4.566765076773128</v>
       </c>
       <c r="C995" t="n">
-        <v>0.0002916229967038781</v>
+        <v>0.0002918416035059026</v>
       </c>
     </row>
     <row r="996">
@@ -11320,7 +11320,7 @@
         <v>4.567750911826727</v>
       </c>
       <c r="C996" t="n">
-        <v>0.0002794509422547132</v>
+        <v>0.0002796700279242286</v>
       </c>
     </row>
     <row r="997">
@@ -11331,7 +11331,7 @@
         <v>4.568736746880326</v>
       </c>
       <c r="C997" t="n">
-        <v>0.0002670424383875409</v>
+        <v>0.0002672586153369414</v>
       </c>
     </row>
     <row r="998">
@@ -11342,7 +11342,7 @@
         <v>4.569722581933926</v>
       </c>
       <c r="C998" t="n">
-        <v>0.0002546152074331954</v>
+        <v>0.0002548254476881606</v>
       </c>
     </row>
     <row r="999">
@@ -11353,7 +11353,7 @@
         <v>4.570708416987525</v>
       </c>
       <c r="C999" t="n">
-        <v>0.0002423869717225439</v>
+        <v>0.0002425886069220391</v>
       </c>
     </row>
     <row r="1000">
@@ -11364,7 +11364,7 @@
         <v>4.571694252041124</v>
       </c>
       <c r="C1000" t="n">
-        <v>0.0002305743762403066</v>
+        <v>0.0002307650988296377</v>
       </c>
     </row>
     <row r="1001">
@@ -11375,7 +11375,7 @@
         <v>4.572680087094724</v>
       </c>
       <c r="C1001" t="n">
-        <v>0.0002192896075668637</v>
+        <v>0.0002194675864751261</v>
       </c>
     </row>
     <row r="1002">
@@ -11386,7 +11386,7 @@
         <v>4.573665922148322</v>
       </c>
       <c r="C1002" t="n">
-        <v>0.0002084546017232214</v>
+        <v>0.0002086186930471547</v>
       </c>
     </row>
     <row r="1003">
@@ -11397,7 +11397,7 @@
         <v>4.574651757201922</v>
       </c>
       <c r="C1003" t="n">
-        <v>0.0001979711005838324</v>
+        <v>0.0001981208699508594</v>
       </c>
     </row>
     <row r="1004">
@@ -11408,7 +11408,7 @@
         <v>4.575637592255521</v>
       </c>
       <c r="C1004" t="n">
-        <v>0.0001877408460231792</v>
+        <v>0.0001878765685914054</v>
       </c>
     </row>
     <row r="1005">
@@ -11419,7 +11419,7 @@
         <v>4.57662342730912</v>
       </c>
       <c r="C1005" t="n">
-        <v>0.0001776655799157429</v>
+        <v>0.0001777882403739572</v>
       </c>
     </row>
     <row r="1006">
@@ -11430,7 +11430,7 @@
         <v>4.57760926236272</v>
       </c>
       <c r="C1006" t="n">
-        <v>0.0001676470441359779</v>
+        <v>0.0001677583367036521</v>
       </c>
     </row>
     <row r="1007">
@@ -11441,7 +11441,7 @@
         <v>4.578595097416319</v>
       </c>
       <c r="C1007" t="n">
-        <v>0.0001575869805583657</v>
+        <v>0.0001576893089856545</v>
       </c>
     </row>
     <row r="1008">
@@ -11452,7 +11452,7 @@
         <v>4.579580932469918</v>
       </c>
       <c r="C1008" t="n">
-        <v>0.0001473871310573877</v>
+        <v>0.0001474836086251291</v>
       </c>
     </row>
     <row r="1009">
@@ -11463,7 +11463,7 @@
         <v>4.580566767523518</v>
       </c>
       <c r="C1009" t="n">
-        <v>0.0001369545927141824</v>
+        <v>0.0001370489969663426</v>
       </c>
     </row>
     <row r="1010">
@@ -11474,7 +11474,7 @@
         <v>4.581552602577117</v>
       </c>
       <c r="C1010" t="n">
-        <v>0.0001263234380884532</v>
+        <v>0.0001264191375085855</v>
       </c>
     </row>
     <row r="1011">
@@ -11485,7 +11485,7 @@
         <v>4.582538437630716</v>
       </c>
       <c r="C1011" t="n">
-        <v>0.0001156568662034428</v>
+        <v>0.0001157557287088732</v>
       </c>
     </row>
     <row r="1012">
@@ -11496,7 +11496,7 @@
         <v>4.583524272684316</v>
       </c>
       <c r="C1012" t="n">
-        <v>0.0001051238615241048</v>
+        <v>0.0001052262055616005</v>
       </c>
     </row>
     <row r="1013">
@@ -11507,7 +11507,7 @@
         <v>4.584510107737914</v>
       </c>
       <c r="C1013" t="n">
-        <v>9.489340851543047e-05</v>
+        <v>9.499800306120045e-05</v>
       </c>
     </row>
     <row r="1014">
@@ -11518,7 +11518,7 @@
         <v>4.585495942791514</v>
       </c>
       <c r="C1014" t="n">
-        <v>8.513449164237398e-05</v>
+        <v>8.523855620206874e-05</v>
       </c>
     </row>
     <row r="1015">
@@ -11529,7 +11529,7 @@
         <v>4.586481777845114</v>
       </c>
       <c r="C1015" t="n">
-        <v>7.601609536991751e-05</v>
+        <v>7.611529997862912e-05</v>
       </c>
     </row>
     <row r="1016">
@@ -11540,7 +11540,7 @@
         <v>4.587467612898712</v>
       </c>
       <c r="C1016" t="n">
-        <v>6.770720416304081e-05</v>
+        <v>6.779566938530289e-05</v>
       </c>
     </row>
     <row r="1017">
@@ -11551,7 +11551,7 @@
         <v>4.588453447952312</v>
       </c>
       <c r="C1017" t="n">
-        <v>6.037680248670159e-05</v>
+        <v>6.044709941648934e-05</v>
       </c>
     </row>
     <row r="1018">
@@ -11562,7 +11562,7 @@
         <v>4.589439283005912</v>
       </c>
       <c r="C1018" t="n">
-        <v>5.418234203926106e-05</v>
+        <v>5.422639056446234e-05</v>
       </c>
     </row>
     <row r="1019">
@@ -11573,7 +11573,7 @@
         <v>4.59042511805951</v>
       </c>
       <c r="C1019" t="n">
-        <v>4.923146207574929e-05</v>
+        <v>4.92444106712392e-05</v>
       </c>
     </row>
     <row r="1020">
@@ -11584,7 +11584,7 @@
         <v>4.59141095311311</v>
       </c>
       <c r="C1020" t="n">
-        <v>4.561835611891289e-05</v>
+        <v>4.559962910815062e-05</v>
       </c>
     </row>
     <row r="1021">
@@ -11595,7 +11595,7 @@
         <v>4.59239678816671</v>
       </c>
       <c r="C1021" t="n">
-        <v>4.343846719469571e-05</v>
+        <v>4.339178047621328e-05</v>
       </c>
     </row>
     <row r="1022">
@@ -11606,7 +11606,7 @@
         <v>4.593382623220308</v>
       </c>
       <c r="C1022" t="n">
-        <v>4.286790362954017e-05</v>
+        <v>4.280227872714788e-05</v>
       </c>
     </row>
     <row r="1023">
@@ -11617,7 +11617,7 @@
         <v>4.594368458273908</v>
       </c>
       <c r="C1023" t="n">
-        <v>4.414043126870496e-05</v>
+        <v>4.40706573997566e-05</v>
       </c>
     </row>
     <row r="1024">
@@ -11628,7 +11628,7 @@
         <v>4.595354293327507</v>
       </c>
       <c r="C1024" t="n">
-        <v>4.704854953815914e-05</v>
+        <v>4.698795525823168e-05</v>
       </c>
     </row>
     <row r="1025">
@@ -11639,7 +11639,7 @@
         <v>4.596340128381106</v>
       </c>
       <c r="C1025" t="n">
-        <v>5.120639623554902e-05</v>
+        <v>5.116394489700822e-05</v>
       </c>
     </row>
     <row r="1026">
@@ -11650,7 +11650,7 @@
         <v>4.597325963434706</v>
       </c>
       <c r="C1026" t="n">
-        <v>5.622767787919283e-05</v>
+        <v>5.620796060799734e-05</v>
       </c>
     </row>
     <row r="1027">
@@ -11661,7 +11661,7 @@
         <v>4.598311798488306</v>
       </c>
       <c r="C1027" t="n">
-        <v>6.172333878101228e-05</v>
+        <v>6.172664840200568e-05</v>
       </c>
     </row>
     <row r="1028">
@@ -11672,7 +11672,7 @@
         <v>4.599297633541904</v>
       </c>
       <c r="C1028" t="n">
-        <v>6.7240506045512e-05</v>
+        <v>6.726454503071415e-05</v>
       </c>
     </row>
     <row r="1029">
@@ -11683,7 +11683,7 @@
         <v>4.600283468595504</v>
       </c>
       <c r="C1029" t="n">
-        <v>7.226233001836068e-05</v>
+        <v>7.230392270535493e-05</v>
       </c>
     </row>
     <row r="1030">
@@ -11694,7 +11694,7 @@
         <v>4.601269303649103</v>
       </c>
       <c r="C1030" t="n">
-        <v>7.626916692846009e-05</v>
+        <v>7.632433429970624e-05</v>
       </c>
     </row>
     <row r="1031">
@@ -11705,7 +11705,7 @@
         <v>4.602255138702702</v>
       </c>
       <c r="C1031" t="n">
-        <v>7.874137300472757e-05</v>
+        <v>7.880533268756198e-05</v>
       </c>
     </row>
     <row r="1032">
@@ -11716,7 +11716,7 @@
         <v>4.603240973756302</v>
       </c>
       <c r="C1032" t="n">
-        <v>7.915970434792081e-05</v>
+        <v>7.922687012566384e-05</v>
       </c>
     </row>
     <row r="1033">
@@ -11727,7 +11727,7 @@
         <v>4.604226808809901</v>
       </c>
       <c r="C1033" t="n">
-        <v>7.742051667295838e-05</v>
+        <v>7.748399036335273e-05</v>
       </c>
     </row>
     <row r="1034">
@@ -11738,7 +11738,7 @@
         <v>4.6052126438635</v>
       </c>
       <c r="C1034" t="n">
-        <v>7.462168563523816e-05</v>
+        <v>7.467178808478125e-05</v>
       </c>
     </row>
     <row r="1035">
@@ -11749,7 +11749,7 @@
         <v>4.6061984789171</v>
       </c>
       <c r="C1035" t="n">
-        <v>7.207695005601081e-05</v>
+        <v>7.210095722072765e-05</v>
       </c>
     </row>
     <row r="1036">
@@ -11760,7 +11760,7 @@
         <v>4.607184313970698</v>
       </c>
       <c r="C1036" t="n">
-        <v>7.102977517855664e-05</v>
+        <v>7.101243651516022e-05</v>
       </c>
     </row>
     <row r="1037">
@@ -11771,7 +11771,7 @@
         <v>4.608170149024298</v>
       </c>
       <c r="C1037" t="n">
-        <v>7.140515129783824e-05</v>
+        <v>7.133841583401093e-05</v>
       </c>
     </row>
     <row r="1038">
@@ -11782,7 +11782,7 @@
         <v>4.609155984077898</v>
       </c>
       <c r="C1038" t="n">
-        <v>7.195647448040059e-05</v>
+        <v>7.184813338158832e-05</v>
       </c>
     </row>
     <row r="1039">
@@ -11793,7 +11793,7 @@
         <v>4.610141819131496</v>
       </c>
       <c r="C1039" t="n">
-        <v>7.139637188181189e-05</v>
+        <v>7.127035919360383e-05</v>
       </c>
     </row>
     <row r="1040">
@@ -11804,7 +11804,7 @@
         <v>4.611127654185096</v>
       </c>
       <c r="C1040" t="n">
-        <v>6.872852441008396e-05</v>
+        <v>6.86205209898576e-05</v>
       </c>
     </row>
     <row r="1041">
@@ -11815,7 +11815,7 @@
         <v>4.612113489238695</v>
       </c>
       <c r="C1041" t="n">
-        <v>6.418869678314354e-05</v>
+        <v>6.412752093804259e-05</v>
       </c>
     </row>
     <row r="1042">
@@ -11826,7 +11826,7 @@
         <v>4.613099324292294</v>
       </c>
       <c r="C1042" t="n">
-        <v>5.833861942482738e-05</v>
+        <v>5.834130353416404e-05</v>
       </c>
     </row>
     <row r="1043">
@@ -11837,7 +11837,7 @@
         <v>4.614085159345894</v>
       </c>
       <c r="C1043" t="n">
-        <v>5.174002483391079e-05</v>
+        <v>5.181181531782601e-05</v>
       </c>
     </row>
     <row r="1044">
@@ -11848,7 +11848,7 @@
         <v>4.615070994399493</v>
       </c>
       <c r="C1044" t="n">
-        <v>4.495464550917181e-05</v>
+        <v>4.508900282863524e-05</v>
       </c>
     </row>
     <row r="1045">
@@ -11859,7 +11859,7 @@
         <v>4.616056829453092</v>
       </c>
       <c r="C1045" t="n">
-        <v>3.854417630235058e-05</v>
+        <v>3.872277594461883e-05</v>
       </c>
     </row>
     <row r="1046">
@@ -11870,7 +11870,7 @@
         <v>4.617042664506692</v>
       </c>
       <c r="C1046" t="n">
-        <v>3.293532712040692e-05</v>
+        <v>3.313159299963408e-05</v>
       </c>
     </row>
     <row r="1047">
@@ -11881,7 +11881,7 @@
         <v>4.618028499560291</v>
       </c>
       <c r="C1047" t="n">
-        <v>2.811652915450708e-05</v>
+        <v>2.830710610806163e-05</v>
       </c>
     </row>
     <row r="1048">
@@ -11892,7 +11892,7 @@
         <v>4.61901433461389</v>
       </c>
       <c r="C1048" t="n">
-        <v>2.398741723023204e-05</v>
+        <v>2.415449537518578e-05</v>
       </c>
     </row>
     <row r="1049">
@@ -11903,7 +11903,7 @@
         <v>4.62000016966749</v>
       </c>
       <c r="C1049" t="n">
-        <v>2.044762617317614e-05</v>
+        <v>2.057894090630413e-05</v>
       </c>
     </row>
     <row r="1050">
@@ -11914,7 +11914,7 @@
         <v>4.620986004721089</v>
       </c>
       <c r="C1050" t="n">
-        <v>1.739679080893154e-05</v>
+        <v>1.748562280671217e-05</v>
       </c>
     </row>
     <row r="1051">
@@ -11925,7 +11925,7 @@
         <v>4.621971839774688</v>
       </c>
       <c r="C1051" t="n">
-        <v>1.473454596308245e-05</v>
+        <v>1.477972118169735e-05</v>
       </c>
     </row>
     <row r="1052">
@@ -11936,7 +11936,7 @@
         <v>4.622957674828287</v>
       </c>
       <c r="C1052" t="n">
-        <v>1.236052883315406e-05</v>
+        <v>1.236641850718348e-05</v>
       </c>
     </row>
     <row r="1053">
@@ -11947,7 +11947,7 @@
         <v>4.623943509881887</v>
       </c>
       <c r="C1053" t="n">
-        <v>1.028494721593043e-05</v>
+        <v>1.026140145289534e-05</v>
       </c>
     </row>
     <row r="1054">
@@ -11958,7 +11958,7 @@
         <v>4.624929344935486</v>
       </c>
       <c r="C1054" t="n">
-        <v>8.764295151021917e-06</v>
+        <v>8.724374891422191e-06</v>
       </c>
     </row>
     <row r="1055">
@@ -11969,7 +11969,7 @@
         <v>4.625915179989086</v>
       </c>
       <c r="C1055" t="n">
-        <v>7.744778432654891e-06</v>
+        <v>7.69958673434457e-06</v>
       </c>
     </row>
     <row r="1056">
@@ -11980,7 +11980,7 @@
         <v>4.626901015042685</v>
       </c>
       <c r="C1056" t="n">
-        <v>7.11042811253972e-06</v>
+        <v>7.068322254587575e-06</v>
       </c>
     </row>
     <row r="1057">
@@ -11991,7 +11991,7 @@
         <v>4.627886850096284</v>
       </c>
       <c r="C1057" t="n">
-        <v>6.745275242385297e-06</v>
+        <v>6.711866725074847e-06</v>
       </c>
     </row>
     <row r="1058">
@@ -12002,7 +12002,7 @@
         <v>4.628872685149883</v>
       </c>
       <c r="C1058" t="n">
-        <v>6.533350873902446e-06</v>
+        <v>6.511505418731938e-06</v>
       </c>
     </row>
     <row r="1059">
@@ -12013,7 +12013,7 @@
         <v>4.629858520203483</v>
       </c>
       <c r="C1059" t="n">
-        <v>6.374664702722311e-06</v>
+        <v>6.364861756865404e-06</v>
       </c>
     </row>
     <row r="1060">
@@ -12024,7 +12024,7 @@
         <v>4.630844355257082</v>
       </c>
       <c r="C1060" t="n">
-        <v>6.244984457709912e-06</v>
+        <v>6.247021678514543e-06</v>
       </c>
     </row>
     <row r="1061">
@@ -12035,7 +12035,7 @@
         <v>4.631830190310681</v>
       </c>
       <c r="C1061" t="n">
-        <v>6.142507172057871e-06</v>
+        <v>6.156005065299333e-06</v>
       </c>
     </row>
     <row r="1062">
@@ -12046,7 +12046,7 @@
         <v>4.63281602536428</v>
       </c>
       <c r="C1062" t="n">
-        <v>6.065433322075532e-06</v>
+        <v>6.0898353194234e-06</v>
       </c>
     </row>
     <row r="1063">
@@ -12057,7 +12057,7 @@
         <v>4.63380186041788</v>
       </c>
       <c r="C1063" t="n">
-        <v>6.011963384072527e-06</v>
+        <v>6.046535843090626e-06</v>
       </c>
     </row>
     <row r="1064">
@@ -12068,7 +12068,7 @@
         <v>4.634787695471479</v>
       </c>
       <c r="C1064" t="n">
-        <v>5.980297834358401e-06</v>
+        <v>6.02413003850481e-06</v>
       </c>
     </row>
     <row r="1065">
@@ -12079,7 +12079,7 @@
         <v>4.635773530525078</v>
       </c>
       <c r="C1065" t="n">
-        <v>5.968637149242626e-06</v>
+        <v>6.020641307869704e-06</v>
       </c>
     </row>
     <row r="1066">
@@ -12090,7 +12090,7 @@
         <v>4.636759365578678</v>
       </c>
       <c r="C1066" t="n">
-        <v>5.975181805034769e-06</v>
+        <v>6.034093053389125e-06</v>
       </c>
     </row>
     <row r="1067">
@@ -12101,7 +12101,7 @@
         <v>4.637745200632277</v>
       </c>
       <c r="C1067" t="n">
-        <v>5.998132278044333e-06</v>
+        <v>6.062508677266831e-06</v>
       </c>
     </row>
     <row r="1068">
@@ -12112,7 +12112,7 @@
         <v>4.638731035685876</v>
       </c>
       <c r="C1068" t="n">
-        <v>6.035689044580883e-06</v>
+        <v>6.103911581706663e-06</v>
       </c>
     </row>
     <row r="1069">
@@ -12123,7 +12123,7 @@
         <v>4.639716870739475</v>
       </c>
       <c r="C1069" t="n">
-        <v>6.086052580953887e-06</v>
+        <v>6.156325168912341e-06</v>
       </c>
     </row>
     <row r="1070">
@@ -12134,7 +12134,7 @@
         <v>4.640702705793075</v>
       </c>
       <c r="C1070" t="n">
-        <v>6.147423789043297e-06</v>
+        <v>6.217773914029871e-06</v>
       </c>
     </row>
     <row r="1071">
@@ -12145,7 +12145,7 @@
         <v>4.641688540846674</v>
       </c>
       <c r="C1071" t="n">
-        <v>6.218085348969819e-06</v>
+        <v>6.286488470391834e-06</v>
       </c>
     </row>
     <row r="1072">
@@ -12156,7 +12156,7 @@
         <v>4.642674375900273</v>
       </c>
       <c r="C1072" t="n">
-        <v>6.296498417408332e-06</v>
+        <v>6.361149463987511e-06</v>
       </c>
     </row>
     <row r="1073">
@@ -12167,7 +12167,7 @@
         <v>4.643660210953873</v>
       </c>
       <c r="C1073" t="n">
-        <v>6.381147694831909e-06</v>
+        <v>6.440496879109082e-06</v>
       </c>
     </row>
     <row r="1074">
@@ -12178,7 +12178,7 @@
         <v>4.644646046007472</v>
       </c>
       <c r="C1074" t="n">
-        <v>6.470517881713416e-06</v>
+        <v>6.523270700048528e-06</v>
       </c>
     </row>
     <row r="1075">
@@ -12189,7 +12189,7 @@
         <v>4.645631881061071</v>
       </c>
       <c r="C1075" t="n">
-        <v>6.563093678525706e-06</v>
+        <v>6.60821091109782e-06</v>
       </c>
     </row>
     <row r="1076">
@@ -12200,7 +12200,7 @@
         <v>4.646617716114671</v>
       </c>
       <c r="C1076" t="n">
-        <v>6.657359785741874e-06</v>
+        <v>6.694057496549155e-06</v>
       </c>
     </row>
     <row r="1077">
@@ -12211,7 +12211,7 @@
         <v>4.64760355116827</v>
       </c>
       <c r="C1077" t="n">
-        <v>6.751800903834775e-06</v>
+        <v>6.779550440694507e-06</v>
       </c>
     </row>
     <row r="1078">
@@ -12222,7 +12222,7 @@
         <v>4.648589386221869</v>
       </c>
       <c r="C1078" t="n">
-        <v>6.844901733277258e-06</v>
+        <v>6.863429727825843e-06</v>
       </c>
     </row>
     <row r="1079">
@@ -12233,7 +12233,7 @@
         <v>4.649575221275469</v>
       </c>
       <c r="C1079" t="n">
-        <v>6.935146974542426e-06</v>
+        <v>6.944435342235366e-06</v>
       </c>
     </row>
     <row r="1080">
@@ -12244,7 +12244,7 @@
         <v>4.650561056329067</v>
       </c>
       <c r="C1080" t="n">
-        <v>7.021021328103054e-06</v>
+        <v>7.021307268214978e-06</v>
       </c>
     </row>
     <row r="1081">
@@ -12255,7 +12255,7 @@
         <v>4.651546891382667</v>
       </c>
       <c r="C1081" t="n">
-        <v>7.101009494432228e-06</v>
+        <v>7.092785490056863e-06</v>
       </c>
     </row>
     <row r="1082">
@@ -12266,7 +12266,7 @@
         <v>4.652532726436267</v>
       </c>
       <c r="C1082" t="n">
-        <v>7.173596174002806e-06</v>
+        <v>7.157609992052995e-06</v>
       </c>
     </row>
     <row r="1083">
@@ -12277,7 +12277,7 @@
         <v>4.653518561489865</v>
       </c>
       <c r="C1083" t="n">
-        <v>7.237266067287665e-06</v>
+        <v>7.214520758495376e-06</v>
       </c>
     </row>
     <row r="1084">
@@ -12288,7 +12288,7 @@
         <v>4.654504396543465</v>
       </c>
       <c r="C1084" t="n">
-        <v>7.290503874759853e-06</v>
+        <v>7.262257773676153e-06</v>
       </c>
     </row>
     <row r="1085">
@@ -12299,7 +12299,7 @@
         <v>4.655490231597065</v>
       </c>
       <c r="C1085" t="n">
-        <v>7.331794296892244e-06</v>
+        <v>7.299561021887317e-06</v>
       </c>
     </row>
     <row r="1086">
@@ -12310,7 +12310,7 @@
         <v>4.656476066650663</v>
       </c>
       <c r="C1086" t="n">
-        <v>7.359622034157753e-06</v>
+        <v>7.325170487420898e-06</v>
       </c>
     </row>
     <row r="1087">
@@ -12321,7 +12321,7 @@
         <v>4.657461901704263</v>
       </c>
       <c r="C1087" t="n">
-        <v>7.372471787029366e-06</v>
+        <v>7.337826154568993e-06</v>
       </c>
     </row>
     <row r="1088">
@@ -12332,7 +12332,7 @@
         <v>4.658447736757863</v>
       </c>
       <c r="C1088" t="n">
-        <v>7.36882825597998e-06</v>
+        <v>7.33626800762361e-06</v>
       </c>
     </row>
     <row r="1089">
@@ -12343,7 +12343,7 @@
         <v>4.659433571811461</v>
       </c>
       <c r="C1089" t="n">
-        <v>7.348780159835136e-06</v>
+        <v>7.320719790220015e-06</v>
       </c>
     </row>
     <row r="1090">
@@ -12354,7 +12354,7 @@
         <v>4.660419406865061</v>
       </c>
       <c r="C1090" t="n">
-        <v>7.319814621861726e-06</v>
+        <v>7.298248965516347e-06</v>
       </c>
     </row>
     <row r="1091">
@@ -12365,7 +12365,7 @@
         <v>4.66140524191866</v>
       </c>
       <c r="C1091" t="n">
-        <v>7.291550423128884e-06</v>
+        <v>7.277894836441439e-06</v>
       </c>
     </row>
     <row r="1092">
@@ -12376,7 +12376,7 @@
         <v>4.662391076972259</v>
       </c>
       <c r="C1092" t="n">
-        <v>7.2736065426365e-06</v>
+        <v>7.268696889015324e-06</v>
       </c>
     </row>
     <row r="1093">
@@ -12387,7 +12387,7 @@
         <v>4.663376912025859</v>
       </c>
       <c r="C1093" t="n">
-        <v>7.275601959384552e-06</v>
+        <v>7.279694609258101e-06</v>
       </c>
     </row>
     <row r="1094">
@@ -12398,7 +12398,7 @@
         <v>4.664362747079458</v>
       </c>
       <c r="C1094" t="n">
-        <v>7.307155652372985e-06</v>
+        <v>7.319927483189841e-06</v>
       </c>
     </row>
     <row r="1095">
@@ -12409,7 +12409,7 @@
         <v>4.665348582133057</v>
       </c>
       <c r="C1095" t="n">
-        <v>7.377886600601663e-06</v>
+        <v>7.398434996830531e-06</v>
       </c>
     </row>
     <row r="1096">
@@ -12420,7 +12420,7 @@
         <v>4.666334417186657</v>
       </c>
       <c r="C1096" t="n">
-        <v>7.497413783070656e-06</v>
+        <v>7.524256636200382e-06</v>
       </c>
     </row>
     <row r="1097">
@@ -12431,7 +12431,7 @@
         <v>4.667320252240255</v>
       </c>
       <c r="C1097" t="n">
-        <v>7.675356178779675e-06</v>
+        <v>7.706431887319221e-06</v>
       </c>
     </row>
     <row r="1098">
@@ -12442,7 +12442,7 @@
         <v>4.668306087293855</v>
       </c>
       <c r="C1098" t="n">
-        <v>7.921332766728983e-06</v>
+        <v>7.954000236207449e-06</v>
       </c>
     </row>
     <row r="1099">
@@ -12453,7 +12453,7 @@
         <v>4.669291922347455</v>
       </c>
       <c r="C1099" t="n">
-        <v>8.244962525918399e-06</v>
+        <v>8.276001168885001e-06</v>
       </c>
     </row>
     <row r="1100">
@@ -12464,7 +12464,7 @@
         <v>4.670277757401053</v>
       </c>
       <c r="C1100" t="n">
-        <v>8.655864435347451e-06</v>
+        <v>8.681474171371547e-06</v>
       </c>
     </row>
     <row r="1101">
@@ -12475,7 +12475,7 @@
         <v>4.671263592454653</v>
       </c>
       <c r="C1101" t="n">
-        <v>9.163657474016828e-06</v>
+        <v>9.179458729687887e-06</v>
       </c>
     </row>
   </sheetData>
